--- a/recordcleaner/CMEG_matched.xlsx
+++ b/recordcleaner/CMEG_matched.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1525">
   <si>
     <t>index</t>
   </si>
@@ -3136,10 +3136,10 @@
     <t xml:space="preserve"> S&amp;P MATERIALS SECTOR</t>
   </si>
   <si>
-    <t>XAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mini Materials Select Sector </t>
+    <t>XBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S&amp;P 500 - Materials Sector Index </t>
   </si>
   <si>
     <t>Select Sector Index</t>
@@ -3148,64 +3148,64 @@
     <t xml:space="preserve"> S&amp;P ENERGY SECTOR</t>
   </si>
   <si>
-    <t>XAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mini Energy Select Sector </t>
+    <t>XET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S&amp;P 500 - Energy Sector Index </t>
   </si>
   <si>
     <t xml:space="preserve"> S&amp;P FINANCIAL SECTOR</t>
   </si>
   <si>
-    <t>XAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mini Financial Select Sector </t>
+    <t>XFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S&amp;P 500 - Financial Sector Index </t>
   </si>
   <si>
     <t xml:space="preserve"> S&amp;P INDUSTRIAL SECTOR</t>
   </si>
   <si>
-    <t>XAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mini Industrial Select Sector </t>
+    <t>XIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S&amp;P 500 - Industrial Sector Index </t>
   </si>
   <si>
     <t xml:space="preserve"> S&amp;P TECHNOLOGY SECTOR</t>
   </si>
   <si>
-    <t>XAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mini Technology Select Sector </t>
+    <t>XKT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S&amp;P 500 - Technology Sector Index </t>
   </si>
   <si>
     <t xml:space="preserve"> S&amp;P UTILITIES SECTOR</t>
   </si>
   <si>
-    <t>XAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mini Utilities Select Sector </t>
+    <t>XUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S&amp;P 500 - Utilities Sector Index </t>
   </si>
   <si>
     <t xml:space="preserve"> S&amp;P HEALTH CARE SECTOR</t>
   </si>
   <si>
-    <t>XAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mini Health Care Select Sector </t>
+    <t>XVT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S&amp;P 500 - Health Care Sector Index </t>
   </si>
   <si>
     <t xml:space="preserve"> S&amp;P CONSUMER DSCRTNRY SE</t>
   </si>
   <si>
-    <t>XAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mini Consumer Staples Select Sector </t>
+    <t>XYT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S&amp;P 500 - Consumer Discretionary Sector Index </t>
   </si>
   <si>
     <t xml:space="preserve"> E-MINI RUSSELL 1000 GROWTH</t>
@@ -3232,6 +3232,12 @@
     <t xml:space="preserve"> S&amp;P CONSUMER STAPLES SECT</t>
   </si>
   <si>
+    <t>XPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S&amp;P 500 - Consumer Staples Sector Index </t>
+  </si>
+  <si>
     <t xml:space="preserve"> IBOVESPA INDEX</t>
   </si>
   <si>
@@ -3328,12 +3334,15 @@
     <t xml:space="preserve"> EOM EMINI S&amp;P</t>
   </si>
   <si>
-    <t xml:space="preserve">E-mini S&amp;P 500 EOM </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EOW1 EMINI S&amp;P 500</t>
   </si>
   <si>
+    <t>EV1</t>
+  </si>
+  <si>
+    <t>S&amp;P 500 Weekly Options Wk 1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> EOW2 EMINI S&amp;P 500</t>
   </si>
   <si>
@@ -3346,15 +3355,15 @@
     <t xml:space="preserve"> EOW4 EMINI S&amp;P 500</t>
   </si>
   <si>
+    <t>EV4</t>
+  </si>
+  <si>
+    <t>S&amp;P 500 Weekly Options Wk 4</t>
+  </si>
+  <si>
     <t xml:space="preserve"> EOW1 E-MINI RUSSELL 2000 WE</t>
   </si>
   <si>
-    <t>RTM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mini  Russell 2000 EOM </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EOW4 E-MINI RUSSELL 2000 WE</t>
   </si>
   <si>
@@ -3511,10 +3520,10 @@
     <t xml:space="preserve"> S.AFRICAN RAND</t>
   </si>
   <si>
-    <t>6Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South African Rand </t>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Dollar/South African Rand </t>
   </si>
   <si>
     <t xml:space="preserve"> SWISS FRANC</t>
@@ -3532,57 +3541,141 @@
     <t xml:space="preserve"> AD/CD CROSS RATES</t>
   </si>
   <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>ACD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Dollar/Canadian Dollar </t>
+  </si>
+  <si>
     <t xml:space="preserve"> AD/JY CROSS RATES</t>
   </si>
   <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>AJY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Dollar/Japanese Yen </t>
+  </si>
+  <si>
     <t xml:space="preserve"> AD/NE CROSS RATES</t>
   </si>
   <si>
+    <t>ANE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Dollar/New Zealand Dollar </t>
+  </si>
+  <si>
     <t xml:space="preserve"> BP/JY CROSS RATES</t>
   </si>
   <si>
+    <t>PJY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Pound/Japanese Yen </t>
+  </si>
+  <si>
     <t xml:space="preserve"> BP/SF CROSS RATES</t>
   </si>
   <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>PSF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Pound/Swiss Franc </t>
+  </si>
+  <si>
     <t xml:space="preserve"> CD/JY CROSS RATES</t>
   </si>
   <si>
+    <t>CJY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canadian Dollar/Japanese Yen </t>
+  </si>
+  <si>
     <t xml:space="preserve"> EC/AD CROSS RATES</t>
   </si>
   <si>
     <t xml:space="preserve"> EC/CD CROSS RATES</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>ECK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Koruna/Euro (CZK/EUR) Cross Rate </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EC/NOK CROSS RATES</t>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>ENK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euro/Norwegian Krone </t>
+  </si>
+  <si>
     <t xml:space="preserve"> EC/SEK CROSS RATES</t>
   </si>
   <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>ESK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euro/Swedish Krona </t>
+  </si>
+  <si>
     <t xml:space="preserve"> EFX/BP CROSS RATES</t>
   </si>
   <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euro/British Pound </t>
+  </si>
+  <si>
     <t xml:space="preserve"> EFX/JY CROSS RATES</t>
   </si>
   <si>
+    <t>RY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euro/Japanese Yen </t>
+  </si>
+  <si>
     <t xml:space="preserve"> EFX/SF CROSS RATES</t>
   </si>
   <si>
+    <t xml:space="preserve">Euro/Swiss Franc </t>
+  </si>
+  <si>
     <t xml:space="preserve"> SF/JY CROSS RATES</t>
   </si>
   <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>SJY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Franc/Japanese Yen </t>
+  </si>
+  <si>
     <t xml:space="preserve"> SKR/USD CROSS RATES</t>
   </si>
   <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swedish Krona </t>
+  </si>
+  <si>
     <t xml:space="preserve"> HUNGARIAN FORINT (EC)</t>
   </si>
   <si>
@@ -3667,18 +3760,18 @@
     <t xml:space="preserve"> E-MICRO GBP/USD</t>
   </si>
   <si>
+    <t>M6B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-micro British Pound/American Dollar </t>
+  </si>
+  <si>
     <t xml:space="preserve"> USDZAR</t>
   </si>
   <si>
     <t xml:space="preserve"> CHINESE RENMINBI (CNH)</t>
   </si>
   <si>
-    <t>RMB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese Renminbi/USD </t>
-  </si>
-  <si>
     <t xml:space="preserve"> E-MICRO INR/USD</t>
   </si>
   <si>
@@ -3694,21 +3787,27 @@
     <t xml:space="preserve"> E-MICRO CAD/USD</t>
   </si>
   <si>
+    <t xml:space="preserve"> E-MICRO JPY/USD</t>
+  </si>
+  <si>
+    <t>MJY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-micro Japanese Yen/American Dollar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E-MICRO CHF/USD</t>
+  </si>
+  <si>
     <t>MNH</t>
   </si>
   <si>
     <t xml:space="preserve">E-micro Size USD/Offshore RMB (CNH) </t>
   </si>
   <si>
-    <t xml:space="preserve"> E-MICRO JPY/USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E-MICRO CHF/USD</t>
-  </si>
-  <si>
     <t>XA</t>
   </si>
   <si>
@@ -3718,12 +3817,6 @@
     <t>Australian Dollar Option (European)</t>
   </si>
   <si>
-    <t>RP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euro/British Pound </t>
-  </si>
-  <si>
     <t>YD</t>
   </si>
   <si>
@@ -3733,25 +3826,10 @@
     <t>Canadian Dollar Option (European)</t>
   </si>
   <si>
-    <t>YT</t>
-  </si>
-  <si>
-    <t>XT</t>
-  </si>
-  <si>
-    <t>Euro FX Option (European)</t>
-  </si>
-  <si>
-    <t>RY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euro/Japanese Yen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euro/Swiss Franc </t>
-  </si>
-  <si>
-    <t>ECZ</t>
+    <t>1Q</t>
+  </si>
+  <si>
+    <t>Euro FX/Euro Style Options Wk 1</t>
   </si>
   <si>
     <t xml:space="preserve"> JAPANESE YEN (EU)</t>
@@ -3823,12 +3901,6 @@
     <t xml:space="preserve"> EUR/USD PQO 2pm Fix</t>
   </si>
   <si>
-    <t>VXT</t>
-  </si>
-  <si>
-    <t>EUR/USD Volatility-Quoted Euro Style Option - 2 pm Fix</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CAD/USD PQO 2pm Fix</t>
   </si>
   <si>
@@ -3841,12 +3913,6 @@
     <t xml:space="preserve"> CHF/USD PQO 2pm Fix</t>
   </si>
   <si>
-    <t>VXS</t>
-  </si>
-  <si>
-    <t>CHF/USD Volatility-Quoted Euro Style Option - 2 pm Fix</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CHILEAN PESO</t>
   </si>
   <si>
@@ -3892,145 +3958,151 @@
     <t xml:space="preserve"> LEAN HOGS</t>
   </si>
   <si>
+    <t>HET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lean Hogs TAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LUMBER</t>
+  </si>
+  <si>
+    <t>LBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Length Lumber </t>
+  </si>
+  <si>
+    <t>Lumber And Pulp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MILK</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class III Milk </t>
+  </si>
+  <si>
+    <t>Dairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MLK MID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NFD MILK</t>
+  </si>
+  <si>
+    <t>GNF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-fat Dry Milk </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUTTER CS</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash-settled Butter </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CLASS IV MILK</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>GDK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class IV Milk </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DRY WHEY</t>
+  </si>
+  <si>
+    <t>DY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry Whey </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GSCI EXCESS RETURN FUT</t>
+  </si>
+  <si>
+    <t>GIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S&amp;P-GSCI ER Index </t>
+  </si>
+  <si>
+    <t>Commodity Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GOLDMAN SACHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HOUSING INDEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HDD WEATHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CDD WEATHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HDD SEASONAL STRIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CDD SEASONAL STRIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HDD WEATHER EUROPEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HDD EURO SEASONAL STRIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CASH-SETTLED CHEESE</t>
+  </si>
+  <si>
+    <t>CSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash-Settled Cheese </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S&amp;P GSCI ENHANCED ER SWAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MALAYSIAN PALM SWAP</t>
+  </si>
+  <si>
+    <t>CPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD Malaysian Crude Palm Oil Calendar </t>
+  </si>
+  <si>
+    <t>Grain And Oilseed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USD CRUDE PALM OIL</t>
+  </si>
+  <si>
     <t>HE</t>
   </si>
   <si>
     <t xml:space="preserve">Lean Hog </t>
   </si>
   <si>
-    <t xml:space="preserve"> LUMBER</t>
-  </si>
-  <si>
-    <t>LBS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Length Lumber </t>
-  </si>
-  <si>
-    <t>Lumber And Pulp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MILK</t>
-  </si>
-  <si>
-    <t>DA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class III Milk </t>
-  </si>
-  <si>
-    <t>Dairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MLK MID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NFD MILK</t>
-  </si>
-  <si>
-    <t>GNF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-fat Dry Milk </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BUTTER CS</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash-settled Butter </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CLASS IV MILK</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>GDK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class IV Milk </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DRY WHEY</t>
-  </si>
-  <si>
-    <t>DY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry Whey </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GSCI EXCESS RETURN FUT</t>
-  </si>
-  <si>
-    <t>GIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S&amp;P-GSCI ER Index </t>
-  </si>
-  <si>
-    <t>Commodity Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GOLDMAN SACHS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HOUSING INDEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HDD WEATHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CDD WEATHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HDD SEASONAL STRIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CDD SEASONAL STRIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HDD WEATHER EUROPEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HDD EURO SEASONAL STRIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CASH-SETTLED CHEESE</t>
-  </si>
-  <si>
-    <t>CSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash-Settled Cheese </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S&amp;P GSCI ENHANCED ER SWAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MALAYSIAN PALM SWAP</t>
-  </si>
-  <si>
-    <t>OPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD Malaysian Palm Olein Calendar </t>
-  </si>
-  <si>
-    <t>Grain And Oilseed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USD CRUDE PALM OIL</t>
-  </si>
-  <si>
-    <t>CPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD Malaysian Crude Palm Oil Calendar </t>
+    <t>JQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid-Sized Milk </t>
   </si>
   <si>
     <t xml:space="preserve"> LV CATL CSO</t>
@@ -4048,42 +4120,27 @@
     <t>30-YR BOND</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>ZQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 Day Federal Funds </t>
+    <t>UBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultra U.S. Treasury Bond </t>
+  </si>
+  <si>
+    <t>US Treasury</t>
   </si>
   <si>
     <t>10-YR NOTE</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>ZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-Year T-Note </t>
-  </si>
-  <si>
-    <t>US Treasury</t>
+    <t>TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultra 10-Year U.S. Treasury Note </t>
   </si>
   <si>
     <t>5-YR NOTE</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>ZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-Year T-Note </t>
-  </si>
-  <si>
     <t>2-YR NOTE</t>
   </si>
   <si>
@@ -4108,45 +4165,39 @@
     <t>ULTRA T-BOND</t>
   </si>
   <si>
-    <t>UBE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ultra U.S. Treasury Bond </t>
-  </si>
-  <si>
     <t>30-YR SWAP RATE</t>
   </si>
   <si>
-    <t>B1U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-Year USD MAC Swap </t>
-  </si>
-  <si>
     <t>Ultra 10-Year Note</t>
   </si>
   <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ultra 10-Year U.S. Treasury Note </t>
-  </si>
-  <si>
-    <t>OZQ</t>
-  </si>
-  <si>
-    <t>OZN</t>
-  </si>
-  <si>
-    <t>OZF</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>OZB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Treasury Bond </t>
+  </si>
+  <si>
+    <t>OTN</t>
+  </si>
+  <si>
+    <t>WF3</t>
+  </si>
+  <si>
+    <t>5-Year Treasury Note Wednesday Weekly Options Wk 3</t>
+  </si>
+  <si>
+    <t>WT2</t>
+  </si>
+  <si>
+    <t>2-Year Treasury Note Wednesday Weekly Options Wk 2</t>
   </si>
   <si>
     <t>OUB</t>
   </si>
   <si>
-    <t>OTN</t>
-  </si>
-  <si>
     <t>DJ US REAL ESTATE</t>
   </si>
   <si>
@@ -4264,39 +4315,21 @@
     <t>MINI CORN</t>
   </si>
   <si>
-    <t>YC</t>
-  </si>
-  <si>
-    <t>XC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mini-Corn </t>
+    <t>YK</t>
+  </si>
+  <si>
+    <t>XK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini Soybean </t>
   </si>
   <si>
     <t>MINI SOYBEAN</t>
   </si>
   <si>
-    <t>YK</t>
-  </si>
-  <si>
-    <t>XK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mini Soybean </t>
-  </si>
-  <si>
     <t>MINI WHEAT</t>
   </si>
   <si>
-    <t>YW</t>
-  </si>
-  <si>
-    <t>XW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mini-sized Chicago SRW Wheat </t>
-  </si>
-  <si>
     <t>DOW-UBS COMMOD INDEX</t>
   </si>
   <si>
@@ -4339,9 +4372,6 @@
     <t>KW</t>
   </si>
   <si>
-    <t>KE</t>
-  </si>
-  <si>
     <t xml:space="preserve">KC HRW Wheat </t>
   </si>
   <si>
@@ -4414,6 +4444,30 @@
     <t>DEC-JULY WHEAT CAL SPRD</t>
   </si>
   <si>
+    <t>CW6</t>
+  </si>
+  <si>
+    <t>WC6</t>
+  </si>
+  <si>
+    <t>Chicago SRW Wheat Dec-July CSO</t>
+  </si>
+  <si>
+    <t>NOV-NOV SOYBEAN CAL SPRD</t>
+  </si>
+  <si>
+    <t>SCX</t>
+  </si>
+  <si>
+    <t>12S</t>
+  </si>
+  <si>
+    <t>Soybean Nov-Nov CSO</t>
+  </si>
+  <si>
+    <t>JULY-DEC WHEAT CAL SPRD</t>
+  </si>
+  <si>
     <t>CWM</t>
   </si>
   <si>
@@ -4423,24 +4477,18 @@
     <t>Chicago SRW Wheat July-Dec CSO</t>
   </si>
   <si>
-    <t>NOV-NOV SOYBEAN CAL SPRD</t>
-  </si>
-  <si>
-    <t>SCX</t>
-  </si>
-  <si>
-    <t>12S</t>
-  </si>
-  <si>
-    <t>Soybean Nov-Nov CSO</t>
-  </si>
-  <si>
-    <t>JULY-DEC WHEAT CAL SPRD</t>
-  </si>
-  <si>
     <t>DEC-JULY CORN CAL SPRD</t>
   </si>
   <si>
+    <t>8CC</t>
+  </si>
+  <si>
+    <t>CZ8</t>
+  </si>
+  <si>
+    <t>Corn Dec-July CSO</t>
+  </si>
+  <si>
     <t>DEC-DEC CORN CAL SPRD</t>
   </si>
   <si>
@@ -4456,6 +4504,15 @@
     <t>NOV-JULY SOYBEAN CAL SPRD</t>
   </si>
   <si>
+    <t>SX9</t>
+  </si>
+  <si>
+    <t>SZ9</t>
+  </si>
+  <si>
+    <t>Soybean Nov-July CSO</t>
+  </si>
+  <si>
     <t>JULY-DEC SOY OIL CAL SPRD</t>
   </si>
   <si>
@@ -4526,15 +4583,6 @@
   </si>
   <si>
     <t>MAR-JULY CORN CAL SPRD</t>
-  </si>
-  <si>
-    <t>3CC</t>
-  </si>
-  <si>
-    <t>CZ9</t>
-  </si>
-  <si>
-    <t>Corn Mar-Dec CSO</t>
   </si>
   <si>
     <t>Intercommodity Spread</t>
@@ -18545,17 +18593,17 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>1061</v>
+        <v>1071</v>
       </c>
       <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>1061</v>
+        <v>1071</v>
       </c>
       <c r="I27" t="s">
         <v>1012</v>
       </c>
       <c r="J27" t="s">
-        <v>1062</v>
+        <v>1072</v>
       </c>
       <c r="K27" t="s">
         <v>1041</v>
@@ -18566,7 +18614,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B28" t="s">
         <v>1010</v>
@@ -18581,17 +18629,17 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="I28" t="s">
         <v>1012</v>
       </c>
       <c r="J28" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="K28" t="s">
         <v>1036</v>
@@ -18602,7 +18650,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B29" t="s">
         <v>1010</v>
@@ -18638,7 +18686,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B30" t="s">
         <v>1010</v>
@@ -18653,17 +18701,17 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="I30" t="s">
         <v>1012</v>
       </c>
       <c r="J30" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="K30" t="s">
         <v>1036</v>
@@ -18674,7 +18722,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B31" t="s">
         <v>1010</v>
@@ -18689,17 +18737,17 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="I31" t="s">
         <v>1012</v>
       </c>
       <c r="J31" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="K31" t="s">
         <v>1014</v>
@@ -18710,7 +18758,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B32" t="s">
         <v>1010</v>
@@ -18725,17 +18773,17 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="I32" t="s">
         <v>1012</v>
       </c>
       <c r="J32" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="K32" t="s">
         <v>1036</v>
@@ -18746,7 +18794,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B33" t="s">
         <v>1010</v>
@@ -18761,17 +18809,17 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I33" t="s">
         <v>1012</v>
       </c>
       <c r="J33" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="K33" t="s">
         <v>1036</v>
@@ -18782,7 +18830,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B34" t="s">
         <v>1010</v>
@@ -18797,17 +18845,17 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="I34" t="s">
         <v>1012</v>
       </c>
       <c r="J34" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="K34" t="s">
         <v>1036</v>
@@ -18818,7 +18866,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B35" t="s">
         <v>1010</v>
@@ -18833,17 +18881,17 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="I35" t="s">
         <v>1012</v>
       </c>
       <c r="J35" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="K35" t="s">
         <v>1041</v>
@@ -18854,7 +18902,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B36" t="s">
         <v>1010</v>
@@ -18869,17 +18917,17 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="I36" t="s">
         <v>1012</v>
       </c>
       <c r="J36" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="K36" t="s">
         <v>1036</v>
@@ -18977,17 +19025,17 @@
         <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="I39" t="s">
         <v>1012</v>
       </c>
       <c r="J39" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="K39" t="s">
         <v>1014</v>
@@ -19034,7 +19082,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B41" t="s">
         <v>1010</v>
@@ -19049,17 +19097,17 @@
         <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="I41" t="s">
         <v>1012</v>
       </c>
       <c r="J41" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="K41" t="s">
         <v>1014</v>
@@ -19070,7 +19118,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B42" t="s">
         <v>1010</v>
@@ -19085,17 +19133,17 @@
         <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>234</v>
+        <v>1011</v>
       </c>
       <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>234</v>
+        <v>1011</v>
       </c>
       <c r="I42" t="s">
         <v>1012</v>
       </c>
       <c r="J42" t="s">
-        <v>1103</v>
+        <v>1013</v>
       </c>
       <c r="K42" t="s">
         <v>1014</v>
@@ -19106,7 +19154,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B43" t="s">
         <v>1010</v>
@@ -19121,17 +19169,17 @@
         <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>1011</v>
+        <v>1106</v>
       </c>
       <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>1011</v>
+        <v>1106</v>
       </c>
       <c r="I43" t="s">
         <v>1012</v>
       </c>
       <c r="J43" t="s">
-        <v>1013</v>
+        <v>1107</v>
       </c>
       <c r="K43" t="s">
         <v>1014</v>
@@ -19142,7 +19190,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="B44" t="s">
         <v>1010</v>
@@ -19157,17 +19205,17 @@
         <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>1011</v>
+        <v>789</v>
       </c>
       <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>1011</v>
+        <v>789</v>
       </c>
       <c r="I44" t="s">
         <v>1012</v>
       </c>
       <c r="J44" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="K44" t="s">
         <v>1014</v>
@@ -19178,7 +19226,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="B45" t="s">
         <v>1010</v>
@@ -19193,17 +19241,17 @@
         <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="I45" t="s">
         <v>1012</v>
       </c>
       <c r="J45" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="K45" t="s">
         <v>1014</v>
@@ -19214,7 +19262,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="B46" t="s">
         <v>1010</v>
@@ -19229,17 +19277,17 @@
         <v>55</v>
       </c>
       <c r="F46" t="s">
-        <v>1100</v>
+        <v>789</v>
       </c>
       <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>1100</v>
+        <v>789</v>
       </c>
       <c r="I46" t="s">
         <v>1012</v>
       </c>
       <c r="J46" t="s">
-        <v>1101</v>
+        <v>1016</v>
       </c>
       <c r="K46" t="s">
         <v>1014</v>
@@ -19250,7 +19298,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="B47" t="s">
         <v>1010</v>
@@ -19265,17 +19313,17 @@
         <v>55</v>
       </c>
       <c r="F47" t="s">
-        <v>1011</v>
+        <v>1112</v>
       </c>
       <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>1011</v>
+        <v>1112</v>
       </c>
       <c r="I47" t="s">
         <v>1012</v>
       </c>
       <c r="J47" t="s">
-        <v>1013</v>
+        <v>1113</v>
       </c>
       <c r="K47" t="s">
         <v>1014</v>
@@ -19286,7 +19334,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="B48" t="s">
         <v>1010</v>
@@ -19301,17 +19349,17 @@
         <v>55</v>
       </c>
       <c r="F48" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="I48" t="s">
         <v>1012</v>
       </c>
       <c r="J48" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="K48" t="s">
         <v>1014</v>
@@ -19322,7 +19370,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="B49" t="s">
         <v>1010</v>
@@ -19337,17 +19385,17 @@
         <v>55</v>
       </c>
       <c r="F49" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="I49" t="s">
         <v>1012</v>
       </c>
       <c r="J49" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="K49" t="s">
         <v>1014</v>
@@ -19358,7 +19406,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="B50" t="s">
         <v>1010</v>
@@ -19373,17 +19421,17 @@
         <v>55</v>
       </c>
       <c r="F50" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="I50" t="s">
         <v>1012</v>
       </c>
       <c r="J50" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="K50" t="s">
         <v>1014</v>
@@ -19394,7 +19442,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="B51" t="s">
         <v>1010</v>
@@ -19409,17 +19457,17 @@
         <v>55</v>
       </c>
       <c r="F51" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="I51" t="s">
         <v>1012</v>
       </c>
       <c r="J51" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="K51" t="s">
         <v>1014</v>
@@ -19430,7 +19478,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="B52" t="s">
         <v>1010</v>
@@ -19445,17 +19493,17 @@
         <v>55</v>
       </c>
       <c r="F52" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="I52" t="s">
         <v>1012</v>
       </c>
       <c r="J52" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="K52" t="s">
         <v>1014</v>
@@ -19466,7 +19514,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="B53" t="s">
         <v>1010</v>
@@ -19481,17 +19529,17 @@
         <v>55</v>
       </c>
       <c r="F53" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="I53" t="s">
         <v>1012</v>
       </c>
       <c r="J53" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="K53" t="s">
         <v>1014</v>
@@ -19502,7 +19550,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B54" t="s">
         <v>1010</v>
@@ -19517,17 +19565,17 @@
         <v>55</v>
       </c>
       <c r="F54" t="s">
-        <v>1100</v>
+        <v>789</v>
       </c>
       <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>1100</v>
+        <v>789</v>
       </c>
       <c r="I54" t="s">
         <v>1012</v>
       </c>
       <c r="J54" t="s">
-        <v>1101</v>
+        <v>1016</v>
       </c>
       <c r="K54" t="s">
         <v>1014</v>
@@ -19538,7 +19586,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="B55" t="s">
         <v>1010</v>
@@ -19553,17 +19601,17 @@
         <v>55</v>
       </c>
       <c r="F55" t="s">
-        <v>1011</v>
+        <v>789</v>
       </c>
       <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>1011</v>
+        <v>789</v>
       </c>
       <c r="I55" t="s">
         <v>1012</v>
       </c>
       <c r="J55" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="K55" t="s">
         <v>1014</v>
@@ -19574,10 +19622,10 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B56" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -19589,31 +19637,31 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="I56" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J56" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="K56" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L56" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="B57" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -19625,31 +19673,31 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="G57" t="s"/>
       <c r="H57" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1126</v>
+      </c>
+      <c r="L57" t="s">
         <v>1127</v>
-      </c>
-      <c r="I57" t="s">
-        <v>1119</v>
-      </c>
-      <c r="J57" t="s">
-        <v>1128</v>
-      </c>
-      <c r="K57" t="s">
-        <v>1123</v>
-      </c>
-      <c r="L57" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="B58" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
@@ -19661,29 +19709,29 @@
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="G58" t="s"/>
       <c r="H58" t="s">
         <v>635</v>
       </c>
       <c r="I58" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J58" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="K58" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="L58" t="n"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B59" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
@@ -19695,31 +19743,31 @@
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="I59" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J59" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="K59" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L59" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="B60" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
@@ -19738,24 +19786,24 @@
         <v>894</v>
       </c>
       <c r="I60" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J60" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="K60" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L60" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="B61" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
@@ -19767,31 +19815,31 @@
         <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="I61" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J61" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="K61" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L61" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="B62" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
@@ -19803,31 +19851,31 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="I62" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J62" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="K62" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L62" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="B63" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
@@ -19839,31 +19887,31 @@
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="G63" t="s"/>
       <c r="H63" t="s">
         <v>914</v>
       </c>
       <c r="I63" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J63" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="K63" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L63" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="B64" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
@@ -19879,27 +19927,27 @@
       </c>
       <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="I64" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J64" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="K64" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="L64" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="B65" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -19915,27 +19963,27 @@
       </c>
       <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="I65" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J65" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="K65" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L65" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="B66" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -19947,31 +19995,31 @@
         <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="I66" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J66" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="K66" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="L66" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="B67" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
@@ -19983,29 +20031,29 @@
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="I67" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J67" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="K67" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="L67" t="n"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="B68" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
@@ -20017,31 +20065,31 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>938</v>
+        <v>1167</v>
       </c>
       <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="I68" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J68" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="K68" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="L68" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B69" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
@@ -20053,31 +20101,31 @@
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="I69" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J69" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="K69" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L69" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="B70" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
@@ -20089,31 +20137,31 @@
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>1156</v>
+        <v>1174</v>
       </c>
       <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>1157</v>
+        <v>1175</v>
       </c>
       <c r="I70" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J70" t="s">
-        <v>1158</v>
+        <v>1176</v>
       </c>
       <c r="K70" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L70" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="B71" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
@@ -20125,31 +20173,31 @@
         <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>1156</v>
+        <v>1178</v>
       </c>
       <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>1157</v>
+        <v>1179</v>
       </c>
       <c r="I71" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J71" t="s">
-        <v>1158</v>
+        <v>1180</v>
       </c>
       <c r="K71" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L71" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>1172</v>
+        <v>1181</v>
       </c>
       <c r="B72" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
@@ -20161,31 +20209,31 @@
         <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>1156</v>
+        <v>546</v>
       </c>
       <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>1157</v>
+        <v>1182</v>
       </c>
       <c r="I72" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J72" t="s">
-        <v>1158</v>
+        <v>1183</v>
       </c>
       <c r="K72" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L72" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>1173</v>
+        <v>1184</v>
       </c>
       <c r="B73" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
@@ -20197,31 +20245,31 @@
         <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>1156</v>
+        <v>835</v>
       </c>
       <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>1157</v>
+        <v>1185</v>
       </c>
       <c r="I73" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J73" t="s">
-        <v>1158</v>
+        <v>1186</v>
       </c>
       <c r="K73" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L73" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>1174</v>
+        <v>1187</v>
       </c>
       <c r="B74" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
@@ -20233,31 +20281,31 @@
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>1156</v>
+        <v>1188</v>
       </c>
       <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>1157</v>
+        <v>1189</v>
       </c>
       <c r="I74" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J74" t="s">
-        <v>1158</v>
+        <v>1190</v>
       </c>
       <c r="K74" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L74" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>1175</v>
+        <v>1191</v>
       </c>
       <c r="B75" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
@@ -20269,31 +20317,31 @@
         <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>1156</v>
+        <v>129</v>
       </c>
       <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>1157</v>
+        <v>1192</v>
       </c>
       <c r="I75" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J75" t="s">
-        <v>1158</v>
+        <v>1193</v>
       </c>
       <c r="K75" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L75" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>1176</v>
+        <v>1194</v>
       </c>
       <c r="B76" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -20305,31 +20353,31 @@
         <v>8</v>
       </c>
       <c r="F76" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="I76" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J76" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="K76" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="L76" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>1177</v>
+        <v>1195</v>
       </c>
       <c r="B77" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
@@ -20341,31 +20389,31 @@
         <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>1178</v>
+        <v>1159</v>
       </c>
       <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>1179</v>
+        <v>1160</v>
       </c>
       <c r="I77" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J77" t="s">
-        <v>1180</v>
+        <v>1161</v>
       </c>
       <c r="K77" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="L77" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>1181</v>
+        <v>1196</v>
       </c>
       <c r="B78" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -20377,31 +20425,31 @@
         <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>1156</v>
+        <v>1197</v>
       </c>
       <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>1157</v>
+        <v>1198</v>
       </c>
       <c r="I78" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J78" t="s">
-        <v>1158</v>
+        <v>1199</v>
       </c>
       <c r="K78" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L78" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="B79" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -20413,31 +20461,31 @@
         <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>1156</v>
+        <v>1201</v>
       </c>
       <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>1157</v>
+        <v>1202</v>
       </c>
       <c r="I79" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J79" t="s">
-        <v>1158</v>
+        <v>1203</v>
       </c>
       <c r="K79" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L79" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>1183</v>
+        <v>1204</v>
       </c>
       <c r="B80" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
@@ -20449,31 +20497,31 @@
         <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>1156</v>
+        <v>1205</v>
       </c>
       <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>1157</v>
+        <v>1205</v>
       </c>
       <c r="I80" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J80" t="s">
-        <v>1158</v>
+        <v>1206</v>
       </c>
       <c r="K80" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L80" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>1184</v>
+        <v>1207</v>
       </c>
       <c r="B81" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
@@ -20485,31 +20533,31 @@
         <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>1156</v>
+        <v>1208</v>
       </c>
       <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>1157</v>
+        <v>1208</v>
       </c>
       <c r="I81" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J81" t="s">
-        <v>1158</v>
+        <v>1209</v>
       </c>
       <c r="K81" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L81" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>1185</v>
+        <v>1210</v>
       </c>
       <c r="B82" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
@@ -20521,31 +20569,31 @@
         <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>1156</v>
+        <v>940</v>
       </c>
       <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>1157</v>
+        <v>940</v>
       </c>
       <c r="I82" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J82" t="s">
-        <v>1158</v>
+        <v>1211</v>
       </c>
       <c r="K82" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L82" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>1186</v>
+        <v>1212</v>
       </c>
       <c r="B83" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C83" t="s">
         <v>8</v>
@@ -20557,31 +20605,31 @@
         <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>1156</v>
+        <v>1213</v>
       </c>
       <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>1157</v>
+        <v>1214</v>
       </c>
       <c r="I83" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J83" t="s">
-        <v>1158</v>
+        <v>1215</v>
       </c>
       <c r="K83" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L83" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>1187</v>
+        <v>1216</v>
       </c>
       <c r="B84" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
@@ -20593,31 +20641,31 @@
         <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>1156</v>
+        <v>756</v>
       </c>
       <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>1157</v>
+        <v>1217</v>
       </c>
       <c r="I84" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J84" t="s">
-        <v>1158</v>
+        <v>1218</v>
       </c>
       <c r="K84" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="L84" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>1188</v>
+        <v>1219</v>
       </c>
       <c r="B85" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
@@ -20629,31 +20677,31 @@
         <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>1189</v>
+        <v>1220</v>
       </c>
       <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>1190</v>
+        <v>1221</v>
       </c>
       <c r="I85" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J85" t="s">
-        <v>1191</v>
+        <v>1222</v>
       </c>
       <c r="K85" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="L85" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>1192</v>
+        <v>1223</v>
       </c>
       <c r="B86" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
@@ -20665,31 +20713,31 @@
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>1193</v>
+        <v>1224</v>
       </c>
       <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>1194</v>
+        <v>1225</v>
       </c>
       <c r="I86" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J86" t="s">
-        <v>1195</v>
+        <v>1226</v>
       </c>
       <c r="K86" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="L86" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>1196</v>
+        <v>1227</v>
       </c>
       <c r="B87" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
@@ -20701,31 +20749,31 @@
         <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="I87" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J87" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="K87" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="L87" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>1197</v>
+        <v>1228</v>
       </c>
       <c r="B88" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
@@ -20737,31 +20785,31 @@
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>1198</v>
+        <v>1229</v>
       </c>
       <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>1199</v>
+        <v>1230</v>
       </c>
       <c r="I88" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J88" t="s">
-        <v>1200</v>
+        <v>1231</v>
       </c>
       <c r="K88" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="L88" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>1201</v>
+        <v>1232</v>
       </c>
       <c r="B89" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
@@ -20773,31 +20821,31 @@
         <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>1202</v>
+        <v>1233</v>
       </c>
       <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>1202</v>
+        <v>1233</v>
       </c>
       <c r="I89" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J89" t="s">
-        <v>1203</v>
+        <v>1234</v>
       </c>
       <c r="K89" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="L89" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>1204</v>
+        <v>1235</v>
       </c>
       <c r="B90" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
@@ -20809,31 +20857,31 @@
         <v>8</v>
       </c>
       <c r="F90" t="s">
-        <v>1205</v>
+        <v>1236</v>
       </c>
       <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>1205</v>
+        <v>1236</v>
       </c>
       <c r="I90" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J90" t="s">
-        <v>1206</v>
+        <v>1237</v>
       </c>
       <c r="K90" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="L90" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>1207</v>
+        <v>1238</v>
       </c>
       <c r="B91" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -20845,31 +20893,31 @@
         <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>1208</v>
+        <v>1239</v>
       </c>
       <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>1208</v>
+        <v>1239</v>
       </c>
       <c r="I91" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J91" t="s">
-        <v>1209</v>
+        <v>1240</v>
       </c>
       <c r="K91" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="L91" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>1210</v>
+        <v>1241</v>
       </c>
       <c r="B92" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -20881,31 +20929,31 @@
         <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>1211</v>
+        <v>1242</v>
       </c>
       <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>1211</v>
+        <v>1242</v>
       </c>
       <c r="I92" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J92" t="s">
-        <v>1212</v>
+        <v>1243</v>
       </c>
       <c r="K92" t="s">
-        <v>1213</v>
+        <v>1244</v>
       </c>
       <c r="L92" t="s">
-        <v>1213</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>1214</v>
+        <v>1245</v>
       </c>
       <c r="B93" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
@@ -20917,31 +20965,31 @@
         <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>1211</v>
+        <v>1242</v>
       </c>
       <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>1211</v>
+        <v>1242</v>
       </c>
       <c r="I93" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J93" t="s">
-        <v>1212</v>
+        <v>1243</v>
       </c>
       <c r="K93" t="s">
-        <v>1213</v>
+        <v>1244</v>
       </c>
       <c r="L93" t="s">
-        <v>1213</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>1215</v>
+        <v>1246</v>
       </c>
       <c r="B94" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
@@ -20953,31 +21001,31 @@
         <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>1211</v>
+        <v>1247</v>
       </c>
       <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>1211</v>
+        <v>1247</v>
       </c>
       <c r="I94" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J94" t="s">
-        <v>1212</v>
+        <v>1248</v>
       </c>
       <c r="K94" t="s">
-        <v>1213</v>
+        <v>1244</v>
       </c>
       <c r="L94" t="s">
-        <v>1213</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>1216</v>
+        <v>1249</v>
       </c>
       <c r="B95" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
@@ -20996,10 +21044,10 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>1217</v>
+        <v>1250</v>
       </c>
       <c r="B96" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -21011,31 +21059,31 @@
         <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>1218</v>
+        <v>1233</v>
       </c>
       <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>1218</v>
+        <v>1233</v>
       </c>
       <c r="I96" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J96" t="s">
-        <v>1219</v>
+        <v>1234</v>
       </c>
       <c r="K96" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L96" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>1220</v>
+        <v>1251</v>
       </c>
       <c r="B97" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
@@ -21047,31 +21095,31 @@
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>1211</v>
+        <v>1242</v>
       </c>
       <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>1211</v>
+        <v>1242</v>
       </c>
       <c r="I97" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J97" t="s">
-        <v>1212</v>
+        <v>1243</v>
       </c>
       <c r="K97" t="s">
-        <v>1213</v>
+        <v>1244</v>
       </c>
       <c r="L97" t="s">
-        <v>1213</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>1221</v>
+        <v>1252</v>
       </c>
       <c r="B98" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
@@ -21083,31 +21131,31 @@
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>1222</v>
+        <v>1253</v>
       </c>
       <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>1222</v>
+        <v>1253</v>
       </c>
       <c r="I98" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J98" t="s">
-        <v>1223</v>
+        <v>1254</v>
       </c>
       <c r="K98" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="L98" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>1224</v>
+        <v>1255</v>
       </c>
       <c r="B99" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
@@ -21119,31 +21167,31 @@
         <v>8</v>
       </c>
       <c r="F99" t="s">
-        <v>1225</v>
+        <v>1242</v>
       </c>
       <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>1225</v>
+        <v>1242</v>
       </c>
       <c r="I99" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J99" t="s">
-        <v>1226</v>
+        <v>1243</v>
       </c>
       <c r="K99" t="s">
-        <v>1213</v>
+        <v>1244</v>
       </c>
       <c r="L99" t="s">
-        <v>1213</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>1227</v>
+        <v>1256</v>
       </c>
       <c r="B100" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
@@ -21155,31 +21203,31 @@
         <v>8</v>
       </c>
       <c r="F100" t="s">
-        <v>1211</v>
+        <v>1257</v>
       </c>
       <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>1211</v>
+        <v>1257</v>
       </c>
       <c r="I100" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J100" t="s">
-        <v>1212</v>
+        <v>1258</v>
       </c>
       <c r="K100" t="s">
-        <v>1213</v>
+        <v>1244</v>
       </c>
       <c r="L100" t="s">
-        <v>1213</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>1228</v>
+        <v>1259</v>
       </c>
       <c r="B101" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -21198,10 +21246,10 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>1229</v>
+        <v>1260</v>
       </c>
       <c r="B102" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
@@ -21213,31 +21261,31 @@
         <v>8</v>
       </c>
       <c r="F102" t="s">
-        <v>1225</v>
+        <v>1261</v>
       </c>
       <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>1225</v>
+        <v>1261</v>
       </c>
       <c r="I102" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J102" t="s">
-        <v>1226</v>
+        <v>1262</v>
       </c>
       <c r="K102" t="s">
-        <v>1213</v>
+        <v>1244</v>
       </c>
       <c r="L102" t="s">
-        <v>1213</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B103" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C103" t="s">
         <v>55</v>
@@ -21249,31 +21297,31 @@
         <v>55</v>
       </c>
       <c r="F103" t="s">
-        <v>1230</v>
+        <v>1263</v>
       </c>
       <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>1231</v>
+        <v>1264</v>
       </c>
       <c r="I103" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J103" t="s">
-        <v>1232</v>
+        <v>1265</v>
       </c>
       <c r="K103" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L103" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="B104" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C104" t="s">
         <v>55</v>
@@ -21285,31 +21333,31 @@
         <v>55</v>
       </c>
       <c r="F104" t="s">
-        <v>1233</v>
+        <v>1205</v>
       </c>
       <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>1233</v>
+        <v>1205</v>
       </c>
       <c r="I104" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J104" t="s">
-        <v>1234</v>
+        <v>1206</v>
       </c>
       <c r="K104" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="L104" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B105" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C105" t="s">
         <v>55</v>
@@ -21321,31 +21369,31 @@
         <v>55</v>
       </c>
       <c r="F105" t="s">
-        <v>1235</v>
+        <v>1266</v>
       </c>
       <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>1236</v>
+        <v>1267</v>
       </c>
       <c r="I105" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J105" t="s">
-        <v>1237</v>
+        <v>1268</v>
       </c>
       <c r="K105" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L105" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="B106" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C106" t="s">
         <v>55</v>
@@ -21357,31 +21405,31 @@
         <v>55</v>
       </c>
       <c r="F106" t="s">
-        <v>1238</v>
+        <v>633</v>
       </c>
       <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>1239</v>
+        <v>1269</v>
       </c>
       <c r="I106" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J106" t="s">
-        <v>1240</v>
+        <v>1270</v>
       </c>
       <c r="K106" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L106" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="B107" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C107" t="s">
         <v>55</v>
@@ -21393,31 +21441,31 @@
         <v>55</v>
       </c>
       <c r="F107" t="s">
-        <v>1241</v>
+        <v>1208</v>
       </c>
       <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>1241</v>
+        <v>1208</v>
       </c>
       <c r="I107" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J107" t="s">
-        <v>1242</v>
+        <v>1209</v>
       </c>
       <c r="K107" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="L107" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="B108" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C108" t="s">
         <v>55</v>
@@ -21433,27 +21481,27 @@
       </c>
       <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="I108" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J108" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="K108" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="L108" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B109" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C109" t="s">
         <v>55</v>
@@ -21472,24 +21520,24 @@
         <v>940</v>
       </c>
       <c r="I109" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J109" t="s">
-        <v>1243</v>
+        <v>1211</v>
       </c>
       <c r="K109" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="L109" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>1184</v>
+        <v>1207</v>
       </c>
       <c r="B110" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C110" t="s">
         <v>55</v>
@@ -21501,31 +21549,31 @@
         <v>55</v>
       </c>
       <c r="F110" t="s">
-        <v>1178</v>
+        <v>1208</v>
       </c>
       <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>1244</v>
+        <v>1208</v>
       </c>
       <c r="I110" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J110" t="s">
-        <v>1180</v>
+        <v>1209</v>
       </c>
       <c r="K110" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="L110" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>1245</v>
+        <v>1271</v>
       </c>
       <c r="B111" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C111" t="s">
         <v>55</v>
@@ -21537,31 +21585,31 @@
         <v>55</v>
       </c>
       <c r="F111" t="s">
-        <v>1241</v>
+        <v>1208</v>
       </c>
       <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>1241</v>
+        <v>1208</v>
       </c>
       <c r="I111" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J111" t="s">
-        <v>1242</v>
+        <v>1209</v>
       </c>
       <c r="K111" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="L111" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>1246</v>
+        <v>1272</v>
       </c>
       <c r="B112" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C112" t="s">
         <v>55</v>
@@ -21573,31 +21621,31 @@
         <v>55</v>
       </c>
       <c r="F112" t="s">
-        <v>1247</v>
+        <v>1273</v>
       </c>
       <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>1247</v>
+        <v>1273</v>
       </c>
       <c r="I112" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J112" t="s">
-        <v>1248</v>
+        <v>1274</v>
       </c>
       <c r="K112" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L112" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>1249</v>
+        <v>1275</v>
       </c>
       <c r="B113" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C113" t="s">
         <v>55</v>
@@ -21616,24 +21664,24 @@
         <v>940</v>
       </c>
       <c r="I113" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J113" t="s">
-        <v>1243</v>
+        <v>1211</v>
       </c>
       <c r="K113" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="L113" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>1250</v>
+        <v>1276</v>
       </c>
       <c r="B114" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C114" t="s">
         <v>55</v>
@@ -21645,31 +21693,31 @@
         <v>55</v>
       </c>
       <c r="F114" t="s">
-        <v>1251</v>
+        <v>1277</v>
       </c>
       <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>1252</v>
+        <v>1278</v>
       </c>
       <c r="I114" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J114" t="s">
-        <v>1253</v>
+        <v>1279</v>
       </c>
       <c r="K114" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L114" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>1254</v>
+        <v>1280</v>
       </c>
       <c r="B115" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C115" t="s">
         <v>55</v>
@@ -21681,31 +21729,31 @@
         <v>55</v>
       </c>
       <c r="F115" t="s">
-        <v>1233</v>
+        <v>1205</v>
       </c>
       <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>1233</v>
+        <v>1205</v>
       </c>
       <c r="I115" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J115" t="s">
-        <v>1234</v>
+        <v>1206</v>
       </c>
       <c r="K115" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="L115" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>1255</v>
+        <v>1281</v>
       </c>
       <c r="B116" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C116" t="s">
         <v>55</v>
@@ -21717,31 +21765,31 @@
         <v>55</v>
       </c>
       <c r="F116" t="s">
-        <v>1256</v>
+        <v>1282</v>
       </c>
       <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>1256</v>
+        <v>1282</v>
       </c>
       <c r="I116" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J116" t="s">
-        <v>1257</v>
+        <v>1283</v>
       </c>
       <c r="K116" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L116" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>1258</v>
+        <v>1284</v>
       </c>
       <c r="B117" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C117" t="s">
         <v>55</v>
@@ -21753,31 +21801,31 @@
         <v>55</v>
       </c>
       <c r="F117" t="s">
-        <v>1259</v>
+        <v>1285</v>
       </c>
       <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>1259</v>
+        <v>1285</v>
       </c>
       <c r="I117" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J117" t="s">
-        <v>1260</v>
+        <v>1286</v>
       </c>
       <c r="K117" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L117" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>1261</v>
+        <v>1287</v>
       </c>
       <c r="B118" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C118" t="s">
         <v>55</v>
@@ -21789,31 +21837,31 @@
         <v>55</v>
       </c>
       <c r="F118" t="s">
-        <v>1262</v>
+        <v>1288</v>
       </c>
       <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>1262</v>
+        <v>1288</v>
       </c>
       <c r="I118" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J118" t="s">
-        <v>1263</v>
+        <v>1289</v>
       </c>
       <c r="K118" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L118" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>1264</v>
+        <v>1290</v>
       </c>
       <c r="B119" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C119" t="s">
         <v>55</v>
@@ -21825,31 +21873,31 @@
         <v>55</v>
       </c>
       <c r="F119" t="s">
-        <v>1265</v>
+        <v>1291</v>
       </c>
       <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>1265</v>
+        <v>1291</v>
       </c>
       <c r="I119" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J119" t="s">
-        <v>1266</v>
+        <v>1292</v>
       </c>
       <c r="K119" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L119" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>1267</v>
+        <v>1293</v>
       </c>
       <c r="B120" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C120" t="s">
         <v>55</v>
@@ -21861,31 +21909,31 @@
         <v>55</v>
       </c>
       <c r="F120" t="s">
-        <v>1268</v>
+        <v>1285</v>
       </c>
       <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>1268</v>
+        <v>1285</v>
       </c>
       <c r="I120" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J120" t="s">
-        <v>1269</v>
+        <v>1286</v>
       </c>
       <c r="K120" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L120" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>1270</v>
+        <v>1294</v>
       </c>
       <c r="B121" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C121" t="s">
         <v>55</v>
@@ -21897,31 +21945,31 @@
         <v>55</v>
       </c>
       <c r="F121" t="s">
-        <v>1271</v>
+        <v>1295</v>
       </c>
       <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>1271</v>
+        <v>1295</v>
       </c>
       <c r="I121" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J121" t="s">
-        <v>1272</v>
+        <v>1296</v>
       </c>
       <c r="K121" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L121" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>1273</v>
+        <v>1297</v>
       </c>
       <c r="B122" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C122" t="s">
         <v>55</v>
@@ -21933,31 +21981,31 @@
         <v>55</v>
       </c>
       <c r="F122" t="s">
-        <v>1274</v>
+        <v>1295</v>
       </c>
       <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>1274</v>
+        <v>1295</v>
       </c>
       <c r="I122" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J122" t="s">
-        <v>1275</v>
+        <v>1296</v>
       </c>
       <c r="K122" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L122" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>1276</v>
+        <v>1298</v>
       </c>
       <c r="B123" t="s">
-        <v>1277</v>
+        <v>1299</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
@@ -21969,31 +22017,31 @@
         <v>8</v>
       </c>
       <c r="F123" t="s">
-        <v>1278</v>
+        <v>1300</v>
       </c>
       <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>1278</v>
+        <v>1300</v>
       </c>
       <c r="I123" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J123" t="s">
-        <v>1279</v>
+        <v>1301</v>
       </c>
       <c r="K123" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="L123" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>1258</v>
+        <v>1284</v>
       </c>
       <c r="B124" t="s">
-        <v>1277</v>
+        <v>1299</v>
       </c>
       <c r="C124" t="s">
         <v>55</v>
@@ -22005,28 +22053,28 @@
         <v>55</v>
       </c>
       <c r="F124" t="s">
-        <v>1259</v>
+        <v>1285</v>
       </c>
       <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>1259</v>
+        <v>1285</v>
       </c>
       <c r="I124" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="J124" t="s">
-        <v>1260</v>
+        <v>1286</v>
       </c>
       <c r="K124" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="L124" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>1280</v>
+        <v>1302</v>
       </c>
       <c r="B125" t="s">
         <v>985</v>
@@ -22041,28 +22089,28 @@
         <v>8</v>
       </c>
       <c r="F125" t="s">
-        <v>1281</v>
+        <v>1303</v>
       </c>
       <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>1282</v>
+        <v>1304</v>
       </c>
       <c r="I125" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J125" t="s">
-        <v>1284</v>
+        <v>1306</v>
       </c>
       <c r="K125" t="s">
-        <v>1285</v>
+        <v>1307</v>
       </c>
       <c r="L125" t="s">
-        <v>1285</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>1286</v>
+        <v>1308</v>
       </c>
       <c r="B126" t="s">
         <v>985</v>
@@ -22077,28 +22125,28 @@
         <v>8</v>
       </c>
       <c r="F126" t="s">
-        <v>1287</v>
+        <v>1309</v>
       </c>
       <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>1288</v>
+        <v>1310</v>
       </c>
       <c r="I126" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J126" t="s">
-        <v>1289</v>
+        <v>1311</v>
       </c>
       <c r="K126" t="s">
-        <v>1285</v>
+        <v>1307</v>
       </c>
       <c r="L126" t="s">
-        <v>1285</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>1290</v>
+        <v>1312</v>
       </c>
       <c r="B127" t="s">
         <v>985</v>
@@ -22113,28 +22161,28 @@
         <v>8</v>
       </c>
       <c r="F127" t="s">
-        <v>916</v>
+        <v>1313</v>
       </c>
       <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>1291</v>
+        <v>1313</v>
       </c>
       <c r="I127" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J127" t="s">
-        <v>1292</v>
+        <v>1314</v>
       </c>
       <c r="K127" t="s">
-        <v>1285</v>
+        <v>1307</v>
       </c>
       <c r="L127" t="s">
-        <v>1285</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>1293</v>
+        <v>1315</v>
       </c>
       <c r="B128" t="s">
         <v>985</v>
@@ -22153,22 +22201,22 @@
       </c>
       <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>1294</v>
+        <v>1316</v>
       </c>
       <c r="I128" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J128" t="s">
-        <v>1295</v>
+        <v>1317</v>
       </c>
       <c r="K128" t="s">
-        <v>1296</v>
+        <v>1318</v>
       </c>
       <c r="L128" t="n"/>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>1297</v>
+        <v>1319</v>
       </c>
       <c r="B129" t="s">
         <v>985</v>
@@ -22183,28 +22231,28 @@
         <v>8</v>
       </c>
       <c r="F129" t="s">
-        <v>1298</v>
+        <v>1320</v>
       </c>
       <c r="G129" t="s"/>
       <c r="H129" t="s">
         <v>228</v>
       </c>
       <c r="I129" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J129" t="s">
-        <v>1299</v>
+        <v>1321</v>
       </c>
       <c r="K129" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
       <c r="L129" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
-        <v>1301</v>
+        <v>1323</v>
       </c>
       <c r="B130" t="s">
         <v>985</v>
@@ -22219,28 +22267,28 @@
         <v>8</v>
       </c>
       <c r="F130" t="s">
-        <v>1298</v>
+        <v>1320</v>
       </c>
       <c r="G130" t="s"/>
       <c r="H130" t="s">
         <v>228</v>
       </c>
       <c r="I130" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J130" t="s">
-        <v>1299</v>
+        <v>1321</v>
       </c>
       <c r="K130" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
       <c r="L130" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>1302</v>
+        <v>1324</v>
       </c>
       <c r="B131" t="s">
         <v>985</v>
@@ -22259,22 +22307,22 @@
       </c>
       <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>1303</v>
+        <v>1325</v>
       </c>
       <c r="I131" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J131" t="s">
-        <v>1304</v>
+        <v>1326</v>
       </c>
       <c r="K131" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
       <c r="L131" t="n"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>1305</v>
+        <v>1327</v>
       </c>
       <c r="B132" t="s">
         <v>985</v>
@@ -22289,26 +22337,26 @@
         <v>8</v>
       </c>
       <c r="F132" t="s">
-        <v>1306</v>
+        <v>1328</v>
       </c>
       <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>1306</v>
+        <v>1328</v>
       </c>
       <c r="I132" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J132" t="s">
-        <v>1307</v>
+        <v>1329</v>
       </c>
       <c r="K132" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
       <c r="L132" t="n"/>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>1308</v>
+        <v>1330</v>
       </c>
       <c r="B133" t="s">
         <v>985</v>
@@ -22323,26 +22371,26 @@
         <v>8</v>
       </c>
       <c r="F133" t="s">
-        <v>1309</v>
+        <v>1331</v>
       </c>
       <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>1310</v>
+        <v>1332</v>
       </c>
       <c r="I133" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J133" t="s">
-        <v>1311</v>
+        <v>1333</v>
       </c>
       <c r="K133" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
       <c r="L133" t="n"/>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>1312</v>
+        <v>1334</v>
       </c>
       <c r="B134" t="s">
         <v>985</v>
@@ -22357,26 +22405,26 @@
         <v>8</v>
       </c>
       <c r="F134" t="s">
-        <v>1313</v>
+        <v>1335</v>
       </c>
       <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>1313</v>
+        <v>1335</v>
       </c>
       <c r="I134" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J134" t="s">
-        <v>1314</v>
+        <v>1336</v>
       </c>
       <c r="K134" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
       <c r="L134" t="n"/>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>1315</v>
+        <v>1337</v>
       </c>
       <c r="B135" t="s">
         <v>985</v>
@@ -22395,22 +22443,22 @@
       </c>
       <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>1316</v>
+        <v>1338</v>
       </c>
       <c r="I135" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J135" t="s">
-        <v>1317</v>
+        <v>1339</v>
       </c>
       <c r="K135" t="s">
-        <v>1318</v>
+        <v>1340</v>
       </c>
       <c r="L135" t="n"/>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>1319</v>
+        <v>1341</v>
       </c>
       <c r="B136" t="s">
         <v>985</v>
@@ -22432,7 +22480,7 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>1320</v>
+        <v>1342</v>
       </c>
       <c r="B137" t="s">
         <v>985</v>
@@ -22451,22 +22499,22 @@
       </c>
       <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>1316</v>
+        <v>1338</v>
       </c>
       <c r="I137" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J137" t="s">
-        <v>1317</v>
+        <v>1339</v>
       </c>
       <c r="K137" t="s">
-        <v>1318</v>
+        <v>1340</v>
       </c>
       <c r="L137" t="n"/>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>1321</v>
+        <v>1343</v>
       </c>
       <c r="B138" t="s">
         <v>985</v>
@@ -22488,7 +22536,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>1322</v>
+        <v>1344</v>
       </c>
       <c r="B139" t="s">
         <v>985</v>
@@ -22510,7 +22558,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>1323</v>
+        <v>1345</v>
       </c>
       <c r="B140" t="s">
         <v>985</v>
@@ -22532,7 +22580,7 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>1324</v>
+        <v>1346</v>
       </c>
       <c r="B141" t="s">
         <v>985</v>
@@ -22554,7 +22602,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>1325</v>
+        <v>1347</v>
       </c>
       <c r="B142" t="s">
         <v>985</v>
@@ -22576,7 +22624,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>1326</v>
+        <v>1348</v>
       </c>
       <c r="B143" t="s">
         <v>985</v>
@@ -22598,7 +22646,7 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>1327</v>
+        <v>1349</v>
       </c>
       <c r="B144" t="s">
         <v>985</v>
@@ -22613,26 +22661,26 @@
         <v>8</v>
       </c>
       <c r="F144" t="s">
-        <v>1328</v>
+        <v>1350</v>
       </c>
       <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>1328</v>
+        <v>1350</v>
       </c>
       <c r="I144" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J144" t="s">
-        <v>1329</v>
+        <v>1351</v>
       </c>
       <c r="K144" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
       <c r="L144" t="n"/>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>1330</v>
+        <v>1352</v>
       </c>
       <c r="B145" t="s">
         <v>985</v>
@@ -22651,22 +22699,22 @@
       </c>
       <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>1316</v>
+        <v>1338</v>
       </c>
       <c r="I145" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J145" t="s">
-        <v>1317</v>
+        <v>1339</v>
       </c>
       <c r="K145" t="s">
-        <v>1318</v>
+        <v>1340</v>
       </c>
       <c r="L145" t="n"/>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>1331</v>
+        <v>1353</v>
       </c>
       <c r="B146" t="s">
         <v>985</v>
@@ -22681,28 +22729,28 @@
         <v>8</v>
       </c>
       <c r="F146" t="s">
-        <v>1332</v>
+        <v>1354</v>
       </c>
       <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>1332</v>
+        <v>1354</v>
       </c>
       <c r="I146" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J146" t="s">
-        <v>1333</v>
+        <v>1355</v>
       </c>
       <c r="K146" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L146" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>1335</v>
+        <v>1357</v>
       </c>
       <c r="B147" t="s">
         <v>985</v>
@@ -22717,28 +22765,28 @@
         <v>8</v>
       </c>
       <c r="F147" t="s">
-        <v>1336</v>
+        <v>1354</v>
       </c>
       <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>1336</v>
+        <v>1354</v>
       </c>
       <c r="I147" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J147" t="s">
-        <v>1337</v>
+        <v>1355</v>
       </c>
       <c r="K147" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L147" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>1280</v>
+        <v>1302</v>
       </c>
       <c r="B148" t="s">
         <v>985</v>
@@ -22753,28 +22801,28 @@
         <v>55</v>
       </c>
       <c r="F148" t="s">
-        <v>1281</v>
+        <v>1303</v>
       </c>
       <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>1282</v>
+        <v>1304</v>
       </c>
       <c r="I148" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J148" t="s">
-        <v>1284</v>
+        <v>1306</v>
       </c>
       <c r="K148" t="s">
-        <v>1285</v>
+        <v>1307</v>
       </c>
       <c r="L148" t="s">
-        <v>1285</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>1286</v>
+        <v>1308</v>
       </c>
       <c r="B149" t="s">
         <v>985</v>
@@ -22789,28 +22837,28 @@
         <v>55</v>
       </c>
       <c r="F149" t="s">
-        <v>1287</v>
+        <v>1309</v>
       </c>
       <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>1288</v>
+        <v>1310</v>
       </c>
       <c r="I149" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J149" t="s">
-        <v>1289</v>
+        <v>1311</v>
       </c>
       <c r="K149" t="s">
-        <v>1285</v>
+        <v>1307</v>
       </c>
       <c r="L149" t="s">
-        <v>1285</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>1290</v>
+        <v>1312</v>
       </c>
       <c r="B150" t="s">
         <v>985</v>
@@ -22829,22 +22877,22 @@
       </c>
       <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>1291</v>
+        <v>1358</v>
       </c>
       <c r="I150" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J150" t="s">
-        <v>1292</v>
+        <v>1359</v>
       </c>
       <c r="K150" t="s">
-        <v>1285</v>
+        <v>1307</v>
       </c>
       <c r="L150" t="n"/>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>1293</v>
+        <v>1315</v>
       </c>
       <c r="B151" t="s">
         <v>985</v>
@@ -22863,24 +22911,24 @@
       </c>
       <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>1294</v>
+        <v>1316</v>
       </c>
       <c r="I151" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J151" t="s">
-        <v>1295</v>
+        <v>1317</v>
       </c>
       <c r="K151" t="s">
-        <v>1296</v>
+        <v>1318</v>
       </c>
       <c r="L151" t="s">
-        <v>1296</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>1297</v>
+        <v>1319</v>
       </c>
       <c r="B152" t="s">
         <v>985</v>
@@ -22895,28 +22943,28 @@
         <v>55</v>
       </c>
       <c r="F152" t="s">
-        <v>1298</v>
+        <v>1320</v>
       </c>
       <c r="G152" t="s"/>
       <c r="H152" t="s">
         <v>228</v>
       </c>
       <c r="I152" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J152" t="s">
-        <v>1299</v>
+        <v>1321</v>
       </c>
       <c r="K152" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
       <c r="L152" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>1301</v>
+        <v>1323</v>
       </c>
       <c r="B153" t="s">
         <v>985</v>
@@ -22931,28 +22979,28 @@
         <v>55</v>
       </c>
       <c r="F153" t="s">
-        <v>1298</v>
+        <v>1360</v>
       </c>
       <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>228</v>
+        <v>1360</v>
       </c>
       <c r="I153" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J153" t="s">
-        <v>1299</v>
+        <v>1361</v>
       </c>
       <c r="K153" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
       <c r="L153" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>1302</v>
+        <v>1324</v>
       </c>
       <c r="B154" t="s">
         <v>985</v>
@@ -22971,24 +23019,24 @@
       </c>
       <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>1303</v>
+        <v>1325</v>
       </c>
       <c r="I154" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J154" t="s">
-        <v>1304</v>
+        <v>1326</v>
       </c>
       <c r="K154" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
       <c r="L154" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>1305</v>
+        <v>1327</v>
       </c>
       <c r="B155" t="s">
         <v>985</v>
@@ -23003,28 +23051,28 @@
         <v>55</v>
       </c>
       <c r="F155" t="s">
-        <v>1306</v>
+        <v>1328</v>
       </c>
       <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>1306</v>
+        <v>1328</v>
       </c>
       <c r="I155" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J155" t="s">
-        <v>1307</v>
+        <v>1329</v>
       </c>
       <c r="K155" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
       <c r="L155" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" t="s">
-        <v>1308</v>
+        <v>1330</v>
       </c>
       <c r="B156" t="s">
         <v>985</v>
@@ -23039,28 +23087,28 @@
         <v>55</v>
       </c>
       <c r="F156" t="s">
-        <v>1309</v>
+        <v>1331</v>
       </c>
       <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>1310</v>
+        <v>1332</v>
       </c>
       <c r="I156" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J156" t="s">
-        <v>1311</v>
+        <v>1333</v>
       </c>
       <c r="K156" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
       <c r="L156" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" t="s">
-        <v>1312</v>
+        <v>1334</v>
       </c>
       <c r="B157" t="s">
         <v>985</v>
@@ -23075,28 +23123,28 @@
         <v>55</v>
       </c>
       <c r="F157" t="s">
-        <v>1313</v>
+        <v>1335</v>
       </c>
       <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>1313</v>
+        <v>1335</v>
       </c>
       <c r="I157" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J157" t="s">
-        <v>1314</v>
+        <v>1336</v>
       </c>
       <c r="K157" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
       <c r="L157" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" t="s">
-        <v>1320</v>
+        <v>1342</v>
       </c>
       <c r="B158" t="s">
         <v>985</v>
@@ -23118,7 +23166,7 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" t="s">
-        <v>1321</v>
+        <v>1343</v>
       </c>
       <c r="B159" t="s">
         <v>985</v>
@@ -23140,7 +23188,7 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" t="s">
-        <v>1322</v>
+        <v>1344</v>
       </c>
       <c r="B160" t="s">
         <v>985</v>
@@ -23162,7 +23210,7 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" t="s">
-        <v>1323</v>
+        <v>1345</v>
       </c>
       <c r="B161" t="s">
         <v>985</v>
@@ -23184,7 +23232,7 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>1324</v>
+        <v>1346</v>
       </c>
       <c r="B162" t="s">
         <v>985</v>
@@ -23206,7 +23254,7 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>1325</v>
+        <v>1347</v>
       </c>
       <c r="B163" t="s">
         <v>985</v>
@@ -23228,7 +23276,7 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>1326</v>
+        <v>1348</v>
       </c>
       <c r="B164" t="s">
         <v>985</v>
@@ -23250,7 +23298,7 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>1338</v>
+        <v>1362</v>
       </c>
       <c r="B165" t="s">
         <v>985</v>
@@ -23265,28 +23313,28 @@
         <v>55</v>
       </c>
       <c r="F165" t="s">
-        <v>1339</v>
+        <v>1363</v>
       </c>
       <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>1340</v>
+        <v>1364</v>
       </c>
       <c r="I165" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J165" t="s">
-        <v>1341</v>
+        <v>1365</v>
       </c>
       <c r="K165" t="s">
-        <v>1285</v>
+        <v>1307</v>
       </c>
       <c r="L165" t="s">
-        <v>1285</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>1327</v>
+        <v>1349</v>
       </c>
       <c r="B166" t="s">
         <v>985</v>
@@ -23301,20 +23349,20 @@
         <v>55</v>
       </c>
       <c r="F166" t="s">
-        <v>1328</v>
+        <v>1350</v>
       </c>
       <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>1328</v>
+        <v>1350</v>
       </c>
       <c r="I166" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J166" t="s">
-        <v>1329</v>
+        <v>1351</v>
       </c>
       <c r="K166" t="s">
-        <v>1300</v>
+        <v>1322</v>
       </c>
       <c r="L166" t="n"/>
     </row>
@@ -23346,7 +23394,7 @@
     <col customWidth="1" max="7" min="7" width="10"/>
     <col customWidth="1" max="8" min="8" width="8"/>
     <col customWidth="1" max="9" min="9" width="15"/>
-    <col customWidth="1" max="10" min="10" width="47"/>
+    <col customWidth="1" max="10" min="10" width="52"/>
     <col customWidth="1" max="11" min="11" width="19"/>
     <col customWidth="1" max="12" min="12" width="19"/>
   </cols>
@@ -23391,7 +23439,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="B2" t="s">
         <v>1001</v>
@@ -23406,20 +23454,20 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>1343</v>
+        <v>1367</v>
       </c>
       <c r="G2" t="s"/>
       <c r="H2" t="s">
-        <v>1344</v>
+        <v>289</v>
       </c>
       <c r="I2" t="s">
         <v>1001</v>
       </c>
       <c r="J2" t="s">
-        <v>1345</v>
+        <v>1368</v>
       </c>
       <c r="K2" t="s">
-        <v>1004</v>
+        <v>1369</v>
       </c>
       <c r="L2" t="s">
         <v>1004</v>
@@ -23427,7 +23475,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>1346</v>
+        <v>1370</v>
       </c>
       <c r="B3" t="s">
         <v>1001</v>
@@ -23442,28 +23490,28 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>1347</v>
+        <v>1371</v>
       </c>
       <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>1348</v>
+        <v>1371</v>
       </c>
       <c r="I3" t="s">
         <v>1001</v>
       </c>
       <c r="J3" t="s">
-        <v>1349</v>
+        <v>1372</v>
       </c>
       <c r="K3" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
       <c r="L3" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>1351</v>
+        <v>1373</v>
       </c>
       <c r="B4" t="s">
         <v>1001</v>
@@ -23478,28 +23526,28 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>1352</v>
+        <v>1371</v>
       </c>
       <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>1353</v>
+        <v>1371</v>
       </c>
       <c r="I4" t="s">
         <v>1001</v>
       </c>
       <c r="J4" t="s">
-        <v>1354</v>
+        <v>1372</v>
       </c>
       <c r="K4" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
       <c r="L4" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>1355</v>
+        <v>1374</v>
       </c>
       <c r="B5" t="s">
         <v>1001</v>
@@ -23514,28 +23562,28 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>1352</v>
+        <v>1371</v>
       </c>
       <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>1353</v>
+        <v>1371</v>
       </c>
       <c r="I5" t="s">
         <v>1001</v>
       </c>
       <c r="J5" t="s">
-        <v>1354</v>
+        <v>1372</v>
       </c>
       <c r="K5" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
       <c r="L5" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>1356</v>
+        <v>1375</v>
       </c>
       <c r="B6" t="s">
         <v>1001</v>
@@ -23546,30 +23594,18 @@
       <c r="D6" t="n">
         <v>279033</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1343</v>
-      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
       <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1345</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1004</v>
-      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
       <c r="L6" t="n"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>1357</v>
+        <v>1376</v>
       </c>
       <c r="B7" t="s">
         <v>1001</v>
@@ -23584,28 +23620,28 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>1358</v>
+        <v>1377</v>
       </c>
       <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>1358</v>
+        <v>1377</v>
       </c>
       <c r="I7" t="s">
         <v>1001</v>
       </c>
       <c r="J7" t="s">
-        <v>1359</v>
+        <v>1378</v>
       </c>
       <c r="K7" t="s">
-        <v>1360</v>
+        <v>1379</v>
       </c>
       <c r="L7" t="s">
-        <v>1360</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
       <c r="B8" t="s">
         <v>1001</v>
@@ -23620,28 +23656,28 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>1358</v>
+        <v>1377</v>
       </c>
       <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>1358</v>
+        <v>1377</v>
       </c>
       <c r="I8" t="s">
         <v>1001</v>
       </c>
       <c r="J8" t="s">
-        <v>1359</v>
+        <v>1378</v>
       </c>
       <c r="K8" t="s">
-        <v>1360</v>
+        <v>1379</v>
       </c>
       <c r="L8" t="s">
-        <v>1360</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>1362</v>
+        <v>1381</v>
       </c>
       <c r="B9" t="s">
         <v>1001</v>
@@ -23656,7 +23692,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="G9" t="s"/>
       <c r="H9" t="s">
@@ -23666,18 +23702,18 @@
         <v>1001</v>
       </c>
       <c r="J9" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="K9" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
       <c r="L9" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>1365</v>
+        <v>1382</v>
       </c>
       <c r="B10" t="s">
         <v>1001</v>
@@ -23692,28 +23728,28 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>1366</v>
+        <v>1377</v>
       </c>
       <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>1366</v>
+        <v>1377</v>
       </c>
       <c r="I10" t="s">
         <v>1001</v>
       </c>
       <c r="J10" t="s">
-        <v>1367</v>
+        <v>1378</v>
       </c>
       <c r="K10" t="s">
-        <v>1360</v>
+        <v>1379</v>
       </c>
       <c r="L10" t="s">
-        <v>1360</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>1368</v>
+        <v>1383</v>
       </c>
       <c r="B11" t="s">
         <v>1001</v>
@@ -23728,28 +23764,28 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="I11" t="s">
         <v>1001</v>
       </c>
       <c r="J11" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="K11" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
       <c r="L11" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="B12" t="s">
         <v>1001</v>
@@ -23764,20 +23800,20 @@
         <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>1343</v>
+        <v>1384</v>
       </c>
       <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>1371</v>
+        <v>1385</v>
       </c>
       <c r="I12" t="s">
         <v>1001</v>
       </c>
       <c r="J12" t="s">
-        <v>1345</v>
+        <v>1386</v>
       </c>
       <c r="K12" t="s">
-        <v>1004</v>
+        <v>1369</v>
       </c>
       <c r="L12" t="s">
         <v>1004</v>
@@ -23785,7 +23821,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>1346</v>
+        <v>1370</v>
       </c>
       <c r="B13" t="s">
         <v>1001</v>
@@ -23800,28 +23836,28 @@
         <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>1347</v>
+        <v>1371</v>
       </c>
       <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>1372</v>
+        <v>1387</v>
       </c>
       <c r="I13" t="s">
         <v>1001</v>
       </c>
       <c r="J13" t="s">
-        <v>1349</v>
+        <v>1372</v>
       </c>
       <c r="K13" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
       <c r="L13" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>1351</v>
+        <v>1373</v>
       </c>
       <c r="B14" t="s">
         <v>1001</v>
@@ -23836,28 +23872,28 @@
         <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>1352</v>
+        <v>1388</v>
       </c>
       <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>1373</v>
+        <v>1388</v>
       </c>
       <c r="I14" t="s">
         <v>1001</v>
       </c>
       <c r="J14" t="s">
-        <v>1354</v>
+        <v>1389</v>
       </c>
       <c r="K14" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
       <c r="L14" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>1355</v>
+        <v>1374</v>
       </c>
       <c r="B15" t="s">
         <v>1001</v>
@@ -23872,28 +23908,28 @@
         <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>1352</v>
+        <v>1390</v>
       </c>
       <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>1373</v>
+        <v>1390</v>
       </c>
       <c r="I15" t="s">
         <v>1001</v>
       </c>
       <c r="J15" t="s">
-        <v>1354</v>
+        <v>1391</v>
       </c>
       <c r="K15" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
       <c r="L15" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>1356</v>
+        <v>1375</v>
       </c>
       <c r="B16" t="s">
         <v>1001</v>
@@ -23904,32 +23940,20 @@
       <c r="D16" t="n">
         <v>88</v>
       </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1343</v>
-      </c>
+      <c r="E16" t="s"/>
+      <c r="F16" t="s"/>
       <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>1371</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1345</v>
-      </c>
-      <c r="K16" t="s">
-        <v>1004</v>
-      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s"/>
       <c r="L16" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>1362</v>
+        <v>1381</v>
       </c>
       <c r="B17" t="s">
         <v>1001</v>
@@ -23944,28 +23968,28 @@
         <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>1374</v>
+        <v>1392</v>
       </c>
       <c r="I17" t="s">
         <v>1001</v>
       </c>
       <c r="J17" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="K17" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
       <c r="L17" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>1368</v>
+        <v>1383</v>
       </c>
       <c r="B18" t="s">
         <v>1001</v>
@@ -23980,28 +24004,28 @@
         <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>1375</v>
+        <v>1387</v>
       </c>
       <c r="I18" t="s">
         <v>1001</v>
       </c>
       <c r="J18" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="K18" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
       <c r="L18" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>1376</v>
+        <v>1393</v>
       </c>
       <c r="B19" t="s">
         <v>1010</v>
@@ -24016,17 +24040,17 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>1377</v>
+        <v>1394</v>
       </c>
       <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>1378</v>
+        <v>1395</v>
       </c>
       <c r="I19" t="s">
         <v>1012</v>
       </c>
       <c r="J19" t="s">
-        <v>1379</v>
+        <v>1396</v>
       </c>
       <c r="K19" t="s">
         <v>1014</v>
@@ -24037,7 +24061,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>1380</v>
+        <v>1397</v>
       </c>
       <c r="B20" t="s">
         <v>1010</v>
@@ -24052,17 +24076,17 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>1381</v>
+        <v>1398</v>
       </c>
       <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>1381</v>
+        <v>1398</v>
       </c>
       <c r="I20" t="s">
         <v>1012</v>
       </c>
       <c r="J20" t="s">
-        <v>1382</v>
+        <v>1399</v>
       </c>
       <c r="K20" t="s">
         <v>1014</v>
@@ -24073,7 +24097,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>1380</v>
+        <v>1397</v>
       </c>
       <c r="B21" t="s">
         <v>1010</v>
@@ -24088,17 +24112,17 @@
         <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>1381</v>
+        <v>1398</v>
       </c>
       <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>1383</v>
+        <v>1400</v>
       </c>
       <c r="I21" t="s">
         <v>1012</v>
       </c>
       <c r="J21" t="s">
-        <v>1382</v>
+        <v>1399</v>
       </c>
       <c r="K21" t="s">
         <v>1014</v>
@@ -24109,7 +24133,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>1384</v>
+        <v>1401</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
@@ -24124,28 +24148,28 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>1385</v>
+        <v>1402</v>
       </c>
       <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>1385</v>
+        <v>1402</v>
       </c>
       <c r="I22" t="s">
         <v>77</v>
       </c>
       <c r="J22" t="s">
-        <v>1386</v>
+        <v>1403</v>
       </c>
       <c r="K22" t="s">
-        <v>1387</v>
+        <v>1404</v>
       </c>
       <c r="L22" t="s">
-        <v>1387</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>1388</v>
+        <v>1405</v>
       </c>
       <c r="B23" t="s">
         <v>985</v>
@@ -24160,28 +24184,28 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>1389</v>
+        <v>1406</v>
       </c>
       <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>1390</v>
+        <v>1407</v>
       </c>
       <c r="I23" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J23" t="s">
-        <v>1391</v>
+        <v>1408</v>
       </c>
       <c r="K23" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L23" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>1392</v>
+        <v>1409</v>
       </c>
       <c r="B24" t="s">
         <v>985</v>
@@ -24196,28 +24220,28 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>1393</v>
+        <v>1410</v>
       </c>
       <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>1394</v>
+        <v>1411</v>
       </c>
       <c r="I24" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J24" t="s">
-        <v>1395</v>
+        <v>1412</v>
       </c>
       <c r="K24" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L24" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>1396</v>
+        <v>1413</v>
       </c>
       <c r="B25" t="s">
         <v>985</v>
@@ -24232,28 +24256,28 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>1397</v>
+        <v>1414</v>
       </c>
       <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>1398</v>
+        <v>1415</v>
       </c>
       <c r="I25" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J25" t="s">
-        <v>1399</v>
+        <v>1416</v>
       </c>
       <c r="K25" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L25" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="B26" t="s">
         <v>985</v>
@@ -24268,28 +24292,28 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>1401</v>
+        <v>1418</v>
       </c>
       <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>1402</v>
+        <v>1419</v>
       </c>
       <c r="I26" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J26" t="s">
-        <v>1403</v>
+        <v>1420</v>
       </c>
       <c r="K26" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L26" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>1404</v>
+        <v>1421</v>
       </c>
       <c r="B27" t="s">
         <v>985</v>
@@ -24304,28 +24328,28 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>1405</v>
+        <v>1422</v>
       </c>
       <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>1406</v>
+        <v>1423</v>
       </c>
       <c r="I27" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J27" t="s">
-        <v>1407</v>
+        <v>1424</v>
       </c>
       <c r="K27" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L27" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>1408</v>
+        <v>1425</v>
       </c>
       <c r="B28" t="s">
         <v>985</v>
@@ -24340,28 +24364,28 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>1409</v>
+        <v>1426</v>
       </c>
       <c r="G28" t="s"/>
       <c r="H28" t="s">
         <v>918</v>
       </c>
       <c r="I28" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J28" t="s">
-        <v>1410</v>
+        <v>1427</v>
       </c>
       <c r="K28" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L28" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>1411</v>
+        <v>1428</v>
       </c>
       <c r="B29" t="s">
         <v>985</v>
@@ -24376,28 +24400,28 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>1412</v>
+        <v>1429</v>
       </c>
       <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>1412</v>
+        <v>1429</v>
       </c>
       <c r="I29" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J29" t="s">
-        <v>1413</v>
+        <v>1430</v>
       </c>
       <c r="K29" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L29" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>1414</v>
+        <v>1431</v>
       </c>
       <c r="B30" t="s">
         <v>985</v>
@@ -24412,28 +24436,28 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>1415</v>
+        <v>1432</v>
       </c>
       <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>1416</v>
+        <v>1433</v>
       </c>
       <c r="I30" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J30" t="s">
-        <v>1417</v>
+        <v>1434</v>
       </c>
       <c r="K30" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L30" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>1418</v>
+        <v>1435</v>
       </c>
       <c r="B31" t="s">
         <v>985</v>
@@ -24448,28 +24472,28 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>1419</v>
+        <v>1432</v>
       </c>
       <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>1420</v>
+        <v>1433</v>
       </c>
       <c r="I31" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J31" t="s">
-        <v>1421</v>
+        <v>1434</v>
       </c>
       <c r="K31" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L31" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>1422</v>
+        <v>1436</v>
       </c>
       <c r="B32" t="s">
         <v>985</v>
@@ -24484,28 +24508,28 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>1423</v>
+        <v>1432</v>
       </c>
       <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>1424</v>
+        <v>1433</v>
       </c>
       <c r="I32" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J32" t="s">
-        <v>1425</v>
+        <v>1434</v>
       </c>
       <c r="K32" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L32" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>1426</v>
+        <v>1437</v>
       </c>
       <c r="B33" t="s">
         <v>985</v>
@@ -24520,28 +24544,28 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>1427</v>
+        <v>1438</v>
       </c>
       <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>1428</v>
+        <v>1439</v>
       </c>
       <c r="I33" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J33" t="s">
-        <v>1429</v>
+        <v>1440</v>
       </c>
       <c r="K33" t="s">
-        <v>1318</v>
+        <v>1340</v>
       </c>
       <c r="L33" t="s">
-        <v>1318</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>1430</v>
+        <v>1441</v>
       </c>
       <c r="B34" t="s">
         <v>985</v>
@@ -24563,7 +24587,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>1431</v>
+        <v>1442</v>
       </c>
       <c r="B35" t="s">
         <v>985</v>
@@ -24578,28 +24602,28 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>1432</v>
+        <v>1443</v>
       </c>
       <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>1432</v>
+        <v>1443</v>
       </c>
       <c r="I35" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J35" t="s">
-        <v>1433</v>
+        <v>1444</v>
       </c>
       <c r="K35" t="s">
-        <v>1318</v>
+        <v>1340</v>
       </c>
       <c r="L35" t="s">
-        <v>1318</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>1434</v>
+        <v>1445</v>
       </c>
       <c r="B36" t="s">
         <v>985</v>
@@ -24614,28 +24638,28 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>1435</v>
+        <v>1446</v>
       </c>
       <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>1436</v>
+        <v>1447</v>
       </c>
       <c r="I36" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J36" t="s">
-        <v>1437</v>
+        <v>1448</v>
       </c>
       <c r="K36" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L36" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>1438</v>
+        <v>1449</v>
       </c>
       <c r="B37" t="s">
         <v>985</v>
@@ -24650,28 +24674,28 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>1439</v>
+        <v>1450</v>
       </c>
       <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>1440</v>
+        <v>1201</v>
       </c>
       <c r="I37" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J37" t="s">
-        <v>1441</v>
+        <v>1451</v>
       </c>
       <c r="K37" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L37" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>1388</v>
+        <v>1405</v>
       </c>
       <c r="B38" t="s">
         <v>985</v>
@@ -24686,28 +24710,28 @@
         <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>1389</v>
+        <v>1406</v>
       </c>
       <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>1442</v>
+        <v>1452</v>
       </c>
       <c r="I38" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J38" t="s">
-        <v>1391</v>
+        <v>1408</v>
       </c>
       <c r="K38" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L38" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>1392</v>
+        <v>1409</v>
       </c>
       <c r="B39" t="s">
         <v>985</v>
@@ -24722,28 +24746,28 @@
         <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>1393</v>
+        <v>1410</v>
       </c>
       <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>1443</v>
+        <v>1453</v>
       </c>
       <c r="I39" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J39" t="s">
-        <v>1395</v>
+        <v>1412</v>
       </c>
       <c r="K39" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L39" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>1396</v>
+        <v>1413</v>
       </c>
       <c r="B40" t="s">
         <v>985</v>
@@ -24758,28 +24782,28 @@
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>1397</v>
+        <v>1414</v>
       </c>
       <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>1444</v>
+        <v>1454</v>
       </c>
       <c r="I40" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J40" t="s">
-        <v>1399</v>
+        <v>1416</v>
       </c>
       <c r="K40" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L40" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="B41" t="s">
         <v>985</v>
@@ -24794,28 +24818,28 @@
         <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>1401</v>
+        <v>1418</v>
       </c>
       <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>1445</v>
+        <v>1455</v>
       </c>
       <c r="I41" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J41" t="s">
-        <v>1403</v>
+        <v>1420</v>
       </c>
       <c r="K41" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L41" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>1446</v>
+        <v>1456</v>
       </c>
       <c r="B42" t="s">
         <v>985</v>
@@ -24830,26 +24854,26 @@
         <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>1447</v>
+        <v>1457</v>
       </c>
       <c r="G42" t="s"/>
       <c r="H42" t="s"/>
       <c r="I42" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J42" t="s">
-        <v>1448</v>
+        <v>1458</v>
       </c>
       <c r="K42" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L42" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>1404</v>
+        <v>1421</v>
       </c>
       <c r="B43" t="s">
         <v>985</v>
@@ -24864,28 +24888,28 @@
         <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>1405</v>
+        <v>1422</v>
       </c>
       <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>1449</v>
+        <v>1459</v>
       </c>
       <c r="I43" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J43" t="s">
-        <v>1407</v>
+        <v>1424</v>
       </c>
       <c r="K43" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L43" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>1408</v>
+        <v>1425</v>
       </c>
       <c r="B44" t="s">
         <v>985</v>
@@ -24900,28 +24924,28 @@
         <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>1409</v>
+        <v>1426</v>
       </c>
       <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>1450</v>
+        <v>1460</v>
       </c>
       <c r="I44" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J44" t="s">
-        <v>1410</v>
+        <v>1427</v>
       </c>
       <c r="K44" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L44" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>1411</v>
+        <v>1428</v>
       </c>
       <c r="B45" t="s">
         <v>985</v>
@@ -24936,28 +24960,28 @@
         <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>1451</v>
+        <v>1461</v>
       </c>
       <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>1451</v>
+        <v>1461</v>
       </c>
       <c r="I45" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J45" t="s">
-        <v>1413</v>
+        <v>1430</v>
       </c>
       <c r="K45" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L45" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>1452</v>
+        <v>1462</v>
       </c>
       <c r="B46" t="s">
         <v>985</v>
@@ -24972,28 +24996,28 @@
         <v>55</v>
       </c>
       <c r="F46" t="s">
-        <v>1453</v>
+        <v>1463</v>
       </c>
       <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>1454</v>
+        <v>1464</v>
       </c>
       <c r="I46" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J46" t="s">
-        <v>1455</v>
+        <v>1465</v>
       </c>
       <c r="K46" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L46" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>1456</v>
+        <v>1466</v>
       </c>
       <c r="B47" t="s">
         <v>985</v>
@@ -25008,28 +25032,28 @@
         <v>55</v>
       </c>
       <c r="F47" t="s">
-        <v>1457</v>
+        <v>1467</v>
       </c>
       <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>1458</v>
+        <v>1468</v>
       </c>
       <c r="I47" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J47" t="s">
-        <v>1459</v>
+        <v>1469</v>
       </c>
       <c r="K47" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L47" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
       <c r="B48" t="s">
         <v>985</v>
@@ -25051,7 +25075,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>1461</v>
+        <v>1471</v>
       </c>
       <c r="B49" t="s">
         <v>985</v>
@@ -25066,28 +25090,28 @@
         <v>55</v>
       </c>
       <c r="F49" t="s">
-        <v>1435</v>
+        <v>1446</v>
       </c>
       <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>1462</v>
+        <v>1472</v>
       </c>
       <c r="I49" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J49" t="s">
-        <v>1437</v>
+        <v>1448</v>
       </c>
       <c r="K49" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L49" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>1463</v>
+        <v>1473</v>
       </c>
       <c r="B50" t="s">
         <v>985</v>
@@ -25102,28 +25126,28 @@
         <v>55</v>
       </c>
       <c r="F50" t="s">
-        <v>1389</v>
+        <v>1406</v>
       </c>
       <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>1442</v>
+        <v>1452</v>
       </c>
       <c r="I50" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J50" t="s">
-        <v>1391</v>
+        <v>1408</v>
       </c>
       <c r="K50" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L50" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
       <c r="B51" t="s">
         <v>985</v>
@@ -25138,28 +25162,28 @@
         <v>55</v>
       </c>
       <c r="F51" t="s">
-        <v>1465</v>
+        <v>1475</v>
       </c>
       <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>1466</v>
+        <v>1476</v>
       </c>
       <c r="I51" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J51" t="s">
-        <v>1467</v>
+        <v>1477</v>
       </c>
       <c r="K51" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L51" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>1468</v>
+        <v>1478</v>
       </c>
       <c r="B52" t="s">
         <v>985</v>
@@ -25174,28 +25198,28 @@
         <v>55</v>
       </c>
       <c r="F52" t="s">
-        <v>1469</v>
+        <v>1479</v>
       </c>
       <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>1470</v>
+        <v>1480</v>
       </c>
       <c r="I52" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J52" t="s">
-        <v>1471</v>
+        <v>1481</v>
       </c>
       <c r="K52" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L52" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>1472</v>
+        <v>1482</v>
       </c>
       <c r="B53" t="s">
         <v>985</v>
@@ -25210,28 +25234,28 @@
         <v>55</v>
       </c>
       <c r="F53" t="s">
-        <v>1465</v>
+        <v>1483</v>
       </c>
       <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>1466</v>
+        <v>1484</v>
       </c>
       <c r="I53" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J53" t="s">
-        <v>1467</v>
+        <v>1485</v>
       </c>
       <c r="K53" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L53" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>1473</v>
+        <v>1486</v>
       </c>
       <c r="B54" t="s">
         <v>985</v>
@@ -25246,28 +25270,28 @@
         <v>55</v>
       </c>
       <c r="F54" t="s">
-        <v>1453</v>
+        <v>1487</v>
       </c>
       <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>1454</v>
+        <v>1488</v>
       </c>
       <c r="I54" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J54" t="s">
-        <v>1455</v>
+        <v>1489</v>
       </c>
       <c r="K54" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L54" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>1474</v>
+        <v>1490</v>
       </c>
       <c r="B55" t="s">
         <v>985</v>
@@ -25282,28 +25306,28 @@
         <v>55</v>
       </c>
       <c r="F55" t="s">
-        <v>1475</v>
+        <v>1491</v>
       </c>
       <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>1476</v>
+        <v>1492</v>
       </c>
       <c r="I55" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J55" t="s">
-        <v>1477</v>
+        <v>1493</v>
       </c>
       <c r="K55" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L55" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>1478</v>
+        <v>1494</v>
       </c>
       <c r="B56" t="s">
         <v>985</v>
@@ -25318,28 +25342,28 @@
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>1457</v>
+        <v>1495</v>
       </c>
       <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>1458</v>
+        <v>1496</v>
       </c>
       <c r="I56" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J56" t="s">
-        <v>1459</v>
+        <v>1497</v>
       </c>
       <c r="K56" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L56" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>1479</v>
+        <v>1498</v>
       </c>
       <c r="B57" t="s">
         <v>985</v>
@@ -25354,28 +25378,28 @@
         <v>55</v>
       </c>
       <c r="F57" t="s">
-        <v>1480</v>
+        <v>1499</v>
       </c>
       <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>1481</v>
+        <v>1500</v>
       </c>
       <c r="I57" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J57" t="s">
-        <v>1482</v>
+        <v>1501</v>
       </c>
       <c r="K57" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L57" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>1483</v>
+        <v>1502</v>
       </c>
       <c r="B58" t="s">
         <v>985</v>
@@ -25390,28 +25414,28 @@
         <v>55</v>
       </c>
       <c r="F58" t="s">
-        <v>1484</v>
+        <v>1503</v>
       </c>
       <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>1485</v>
+        <v>1504</v>
       </c>
       <c r="I58" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J58" t="s">
-        <v>1486</v>
+        <v>1505</v>
       </c>
       <c r="K58" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L58" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>1487</v>
+        <v>1506</v>
       </c>
       <c r="B59" t="s">
         <v>985</v>
@@ -25426,28 +25450,28 @@
         <v>55</v>
       </c>
       <c r="F59" t="s">
-        <v>1488</v>
+        <v>1507</v>
       </c>
       <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>1489</v>
+        <v>1508</v>
       </c>
       <c r="I59" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J59" t="s">
-        <v>1490</v>
+        <v>1509</v>
       </c>
       <c r="K59" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L59" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>1491</v>
+        <v>1510</v>
       </c>
       <c r="B60" t="s">
         <v>985</v>
@@ -25462,28 +25486,28 @@
         <v>55</v>
       </c>
       <c r="F60" t="s">
-        <v>1492</v>
+        <v>1511</v>
       </c>
       <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>1493</v>
+        <v>1512</v>
       </c>
       <c r="I60" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J60" t="s">
-        <v>1494</v>
+        <v>1513</v>
       </c>
       <c r="K60" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L60" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>1434</v>
+        <v>1445</v>
       </c>
       <c r="B61" t="s">
         <v>985</v>
@@ -25498,28 +25522,28 @@
         <v>55</v>
       </c>
       <c r="F61" t="s">
-        <v>1495</v>
+        <v>1514</v>
       </c>
       <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>1496</v>
+        <v>1515</v>
       </c>
       <c r="I61" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J61" t="s">
-        <v>1497</v>
+        <v>1516</v>
       </c>
       <c r="K61" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L61" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>1498</v>
+        <v>1517</v>
       </c>
       <c r="B62" t="s">
         <v>985</v>
@@ -25534,28 +25558,28 @@
         <v>55</v>
       </c>
       <c r="F62" t="s">
-        <v>1499</v>
+        <v>1518</v>
       </c>
       <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>1500</v>
+        <v>1519</v>
       </c>
       <c r="I62" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J62" t="s">
-        <v>1501</v>
+        <v>1520</v>
       </c>
       <c r="K62" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L62" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="B63" t="s">
         <v>985</v>
@@ -25570,28 +25594,28 @@
         <v>55</v>
       </c>
       <c r="F63" t="s">
-        <v>1503</v>
+        <v>1406</v>
       </c>
       <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>1504</v>
+        <v>1452</v>
       </c>
       <c r="I63" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J63" t="s">
-        <v>1505</v>
+        <v>1408</v>
       </c>
       <c r="K63" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L63" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>1506</v>
+        <v>1522</v>
       </c>
       <c r="B64" t="s">
         <v>985</v>
@@ -25606,28 +25630,28 @@
         <v>55</v>
       </c>
       <c r="F64" t="s">
-        <v>1484</v>
+        <v>1503</v>
       </c>
       <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>1485</v>
+        <v>1504</v>
       </c>
       <c r="I64" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J64" t="s">
-        <v>1486</v>
+        <v>1505</v>
       </c>
       <c r="K64" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L64" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>1438</v>
+        <v>1449</v>
       </c>
       <c r="B65" t="s">
         <v>985</v>
@@ -25642,31 +25666,31 @@
         <v>55</v>
       </c>
       <c r="F65" t="s">
-        <v>1439</v>
+        <v>1450</v>
       </c>
       <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>1507</v>
+        <v>1523</v>
       </c>
       <c r="I65" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="J65" t="s">
-        <v>1441</v>
+        <v>1451</v>
       </c>
       <c r="K65" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
       <c r="L65" t="s">
-        <v>1334</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>1430</v>
+        <v>1441</v>
       </c>
       <c r="B66" t="s">
-        <v>1508</v>
+        <v>1524</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>

--- a/recordcleaner/CMEG_matched.xlsx
+++ b/recordcleaner/CMEG_matched.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2654">
   <si>
     <t>Product</t>
   </si>
@@ -6120,10 +6120,7 @@
     <t>E-MINI NASDAQ 100</t>
   </si>
   <si>
-    <t>NQT</t>
-  </si>
-  <si>
-    <t>BTIC E-mini Nasdaq-100</t>
+    <t>E-mini NASDAQ 100</t>
   </si>
   <si>
     <t>NIKKEI 225 ($) STOCK</t>
@@ -6234,10 +6231,10 @@
     <t>FT-SE 100</t>
   </si>
   <si>
-    <t>FTT</t>
-  </si>
-  <si>
-    <t>BTIC FTSE 100 Index (GBP)</t>
+    <t>FT1</t>
+  </si>
+  <si>
+    <t>E-mini FTSE 100 Index (GBP)</t>
   </si>
   <si>
     <t>E-MINI RUSSELL 1000 VALUE</t>
@@ -6351,9 +6348,6 @@
     <t>E-mini  Russell 2000</t>
   </si>
   <si>
-    <t>E-mini NASDAQ 100</t>
-  </si>
-  <si>
     <t>EOM S&amp;P 500</t>
   </si>
   <si>
@@ -6609,10 +6603,10 @@
     <t>S.AFRICAN RAND</t>
   </si>
   <si>
-    <t>6Z</t>
-  </si>
-  <si>
-    <t>South African Rand</t>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t>U.S. Dollar/South African Rand</t>
   </si>
   <si>
     <t>SWISS FRANC</t>
@@ -6894,12 +6888,6 @@
     <t>USDZAR</t>
   </si>
   <si>
-    <t>ZAR</t>
-  </si>
-  <si>
-    <t>U.S. Dollar/South African Rand</t>
-  </si>
-  <si>
     <t>CHINESE RENMINBI (CNH)</t>
   </si>
   <si>
@@ -7452,121 +7440,124 @@
     <t>30-YR BOND</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>ZB</t>
+  </si>
+  <si>
+    <t>U.S. Treasury Bond</t>
+  </si>
+  <si>
+    <t>US Treasury</t>
+  </si>
+  <si>
+    <t>10-YR NOTE</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Ultra 10-Year U.S. Treasury Note</t>
+  </si>
+  <si>
+    <t>5-YR NOTE</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>ZF</t>
+  </si>
+  <si>
+    <t>5-Year T-Note</t>
+  </si>
+  <si>
+    <t>2-YR NOTE</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>ZT</t>
+  </si>
+  <si>
+    <t>2-Year T-Note</t>
+  </si>
+  <si>
+    <t>FED FUND</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>ZQ</t>
+  </si>
+  <si>
+    <t>30 Day Federal Funds</t>
+  </si>
+  <si>
+    <t>5-YR SWAP RATE</t>
+  </si>
+  <si>
+    <t>F1E</t>
+  </si>
+  <si>
+    <t>5-Year Euro MAC Swap</t>
+  </si>
+  <si>
+    <t>MAC Swap Futures</t>
+  </si>
+  <si>
+    <t>10-YR SWAP RATE</t>
+  </si>
+  <si>
+    <t>N1E</t>
+  </si>
+  <si>
+    <t>10-Year Euro MAC Swap</t>
+  </si>
+  <si>
+    <t>ULTRA T-BOND</t>
+  </si>
+  <si>
+    <t>UBE</t>
+  </si>
+  <si>
+    <t>Ultra U.S. Treasury Bond</t>
+  </si>
+  <si>
+    <t>30-YR SWAP RATE</t>
+  </si>
+  <si>
     <t>B1U</t>
   </si>
   <si>
     <t>30-Year USD MAC Swap</t>
   </si>
   <si>
-    <t>MAC Swap Futures</t>
-  </si>
-  <si>
-    <t>10-YR NOTE</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>ZN</t>
-  </si>
-  <si>
-    <t>10-Year T-Note</t>
-  </si>
-  <si>
-    <t>US Treasury</t>
-  </si>
-  <si>
-    <t>5-YR NOTE</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>ZF</t>
-  </si>
-  <si>
-    <t>5-Year T-Note</t>
-  </si>
-  <si>
-    <t>2-YR NOTE</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>ZT</t>
-  </si>
-  <si>
-    <t>2-Year T-Note</t>
-  </si>
-  <si>
-    <t>FED FUND</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>ZQ</t>
-  </si>
-  <si>
-    <t>30 Day Federal Funds</t>
-  </si>
-  <si>
-    <t>5-YR SWAP RATE</t>
-  </si>
-  <si>
-    <t>F1E</t>
-  </si>
-  <si>
-    <t>5-Year Euro MAC Swap</t>
-  </si>
-  <si>
-    <t>10-YR SWAP RATE</t>
-  </si>
-  <si>
-    <t>N1E</t>
-  </si>
-  <si>
-    <t>10-Year Euro MAC Swap</t>
-  </si>
-  <si>
-    <t>ULTRA T-BOND</t>
-  </si>
-  <si>
-    <t>UBE</t>
-  </si>
-  <si>
-    <t>Ultra U.S. Treasury Bond</t>
-  </si>
-  <si>
-    <t>30-YR SWAP RATE</t>
-  </si>
-  <si>
     <t>Ultra 10-Year Note</t>
   </si>
   <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>Ultra 10-Year U.S. Treasury Note</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>OZB</t>
   </si>
   <si>
-    <t>U.S. Treasury Bond</t>
-  </si>
-  <si>
-    <t>OZN</t>
-  </si>
-  <si>
-    <t>OZF</t>
-  </si>
-  <si>
-    <t>OZT</t>
+    <t>WY4</t>
+  </si>
+  <si>
+    <t>10-Year Treasury Note Wednesday Weekly Options Wk 4</t>
+  </si>
+  <si>
+    <t>WF5</t>
+  </si>
+  <si>
+    <t>5-Year Treasury Note Wednesday Weekly Options Wk 5</t>
+  </si>
+  <si>
+    <t>WT2</t>
+  </si>
+  <si>
+    <t>2-Year Treasury Note Wednesday Weekly Options Wk 2</t>
   </si>
   <si>
     <t>OZQ</t>
@@ -7575,10 +7566,7 @@
     <t>OUB</t>
   </si>
   <si>
-    <t>WX2</t>
-  </si>
-  <si>
-    <t>Ultra 10-Year Treasury Note Wednesday Weekly Options Wk 2</t>
+    <t>OTN</t>
   </si>
   <si>
     <t>DJ US REAL ESTATE</t>
@@ -7980,10 +7968,10 @@
     <t>Intercommodity Spread</t>
   </si>
   <si>
-    <t>KWC</t>
-  </si>
-  <si>
-    <t>KC HRW-Chicago SRW Wheat Intercommodity Spread</t>
+    <t>MKW</t>
+  </si>
+  <si>
+    <t>MGEX-KC HRW Wheat Intercommodity Spread</t>
   </si>
   <si>
     <t>OKE</t>
@@ -33455,17 +33443,17 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>2034</v>
+        <v>1580</v>
       </c>
       <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>2034</v>
+        <v>1580</v>
       </c>
       <c r="I32" t="s">
         <v>2015</v>
       </c>
       <c r="J32" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="K32" t="s">
         <v>2017</v>
@@ -33473,7 +33461,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B33" t="s">
         <v>2013</v>
@@ -33492,21 +33480,21 @@
       </c>
       <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="I33" t="s">
         <v>2015</v>
       </c>
       <c r="J33" t="s">
+        <v>2037</v>
+      </c>
+      <c r="K33" t="s">
         <v>2038</v>
-      </c>
-      <c r="K33" t="s">
-        <v>2039</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B34" t="s">
         <v>2013</v>
@@ -33521,25 +33509,25 @@
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="I34" t="s">
         <v>2015</v>
       </c>
       <c r="J34" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="K34" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B35" t="s">
         <v>2013</v>
@@ -33554,25 +33542,25 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="I35" t="s">
         <v>2015</v>
       </c>
       <c r="J35" t="s">
+        <v>2044</v>
+      </c>
+      <c r="K35" t="s">
         <v>2045</v>
-      </c>
-      <c r="K35" t="s">
-        <v>2046</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B36" t="s">
         <v>2013</v>
@@ -33587,25 +33575,25 @@
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="I36" t="s">
         <v>2015</v>
       </c>
       <c r="J36" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="K36" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B37" t="s">
         <v>2013</v>
@@ -33620,25 +33608,25 @@
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="I37" t="s">
         <v>2015</v>
       </c>
       <c r="J37" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="K37" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B38" t="s">
         <v>2013</v>
@@ -33653,25 +33641,25 @@
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="I38" t="s">
         <v>2015</v>
       </c>
       <c r="J38" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="K38" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B39" t="s">
         <v>2013</v>
@@ -33686,25 +33674,25 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="I39" t="s">
         <v>2015</v>
       </c>
       <c r="J39" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="K39" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B40" t="s">
         <v>2013</v>
@@ -33719,25 +33707,25 @@
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="I40" t="s">
         <v>2015</v>
       </c>
       <c r="J40" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="K40" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B41" t="s">
         <v>2013</v>
@@ -33752,25 +33740,25 @@
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="I41" t="s">
         <v>2015</v>
       </c>
       <c r="J41" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="K41" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B42" t="s">
         <v>2013</v>
@@ -33785,25 +33773,25 @@
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="I42" t="s">
         <v>2015</v>
       </c>
       <c r="J42" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="K42" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B43" t="s">
         <v>2013</v>
@@ -33818,17 +33806,17 @@
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="I43" t="s">
         <v>2015</v>
       </c>
       <c r="J43" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="K43" t="s">
         <v>2017</v>
@@ -33836,7 +33824,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B44" t="s">
         <v>2013</v>
@@ -33851,25 +33839,25 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="I44" t="s">
         <v>2015</v>
       </c>
       <c r="J44" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="K44" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B45" t="s">
         <v>2013</v>
@@ -33884,17 +33872,17 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="I45" t="s">
         <v>2015</v>
       </c>
       <c r="J45" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="K45" t="s">
         <v>2017</v>
@@ -33902,7 +33890,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B46" t="s">
         <v>2013</v>
@@ -33917,25 +33905,25 @@
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="I46" t="s">
         <v>2015</v>
       </c>
       <c r="J46" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K46" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B47" t="s">
         <v>2013</v>
@@ -33950,25 +33938,25 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="I47" t="s">
         <v>2015</v>
       </c>
       <c r="J47" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="K47" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B48" t="s">
         <v>2013</v>
@@ -33983,17 +33971,17 @@
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="I48" t="s">
         <v>2015</v>
       </c>
       <c r="J48" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="K48" t="s">
         <v>2017</v>
@@ -34001,7 +33989,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B49" t="s">
         <v>2013</v>
@@ -34016,25 +34004,25 @@
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="I49" t="s">
         <v>2015</v>
       </c>
       <c r="J49" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="K49" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B50" t="s">
         <v>2013</v>
@@ -34049,17 +34037,17 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="I50" t="s">
         <v>2015</v>
       </c>
       <c r="J50" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="K50" t="s">
         <v>2017</v>
@@ -34067,7 +34055,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B51" t="s">
         <v>2013</v>
@@ -34082,25 +34070,25 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="I51" t="s">
         <v>2015</v>
       </c>
       <c r="J51" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="K51" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B52" t="s">
         <v>2013</v>
@@ -34115,25 +34103,25 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="I52" t="s">
         <v>2015</v>
       </c>
       <c r="J52" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="K52" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B53" t="s">
         <v>2013</v>
@@ -34148,25 +34136,25 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="I53" t="s">
         <v>2015</v>
       </c>
       <c r="J53" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="K53" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B54" t="s">
         <v>2013</v>
@@ -34181,25 +34169,25 @@
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="I54" t="s">
         <v>2015</v>
       </c>
       <c r="J54" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="K54" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B55" t="s">
         <v>2013</v>
@@ -34214,20 +34202,20 @@
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="I55" t="s">
         <v>2015</v>
       </c>
       <c r="J55" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="K55" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -34313,17 +34301,17 @@
         <v>94</v>
       </c>
       <c r="F58" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="I58" t="s">
         <v>2015</v>
       </c>
       <c r="J58" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="K58" t="s">
         <v>2017</v>
@@ -34356,7 +34344,7 @@
         <v>2015</v>
       </c>
       <c r="J59" t="s">
-        <v>2111</v>
+        <v>2034</v>
       </c>
       <c r="K59" t="s">
         <v>2017</v>
@@ -34364,7 +34352,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="B60" t="s">
         <v>2013</v>
@@ -34379,17 +34367,17 @@
         <v>94</v>
       </c>
       <c r="F60" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="I60" t="s">
         <v>2015</v>
       </c>
       <c r="J60" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="K60" t="s">
         <v>2017</v>
@@ -34397,7 +34385,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="B61" t="s">
         <v>2013</v>
@@ -34422,7 +34410,7 @@
         <v>2015</v>
       </c>
       <c r="J61" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="K61" t="s">
         <v>2017</v>
@@ -34430,7 +34418,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="B62" t="s">
         <v>2013</v>
@@ -34445,17 +34433,17 @@
         <v>94</v>
       </c>
       <c r="F62" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="I62" t="s">
         <v>2015</v>
       </c>
       <c r="J62" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="K62" t="s">
         <v>2017</v>
@@ -34463,7 +34451,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="B63" t="s">
         <v>2013</v>
@@ -34478,17 +34466,17 @@
         <v>94</v>
       </c>
       <c r="F63" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="I63" t="s">
         <v>2015</v>
       </c>
       <c r="J63" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="K63" t="s">
         <v>2017</v>
@@ -34496,7 +34484,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="B64" t="s">
         <v>2013</v>
@@ -34511,17 +34499,17 @@
         <v>94</v>
       </c>
       <c r="F64" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="I64" t="s">
         <v>2015</v>
       </c>
       <c r="J64" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="K64" t="s">
         <v>2017</v>
@@ -34529,7 +34517,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="B65" t="s">
         <v>2013</v>
@@ -34544,17 +34532,17 @@
         <v>94</v>
       </c>
       <c r="F65" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="I65" t="s">
         <v>2015</v>
       </c>
       <c r="J65" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="K65" t="s">
         <v>2017</v>
@@ -34562,7 +34550,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B66" t="s">
         <v>2013</v>
@@ -34577,17 +34565,17 @@
         <v>94</v>
       </c>
       <c r="F66" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="I66" t="s">
         <v>2015</v>
       </c>
       <c r="J66" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="K66" t="s">
         <v>2017</v>
@@ -34595,7 +34583,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="B67" t="s">
         <v>2013</v>
@@ -34610,17 +34598,17 @@
         <v>94</v>
       </c>
       <c r="F67" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="I67" t="s">
         <v>2015</v>
       </c>
       <c r="J67" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="K67" t="s">
         <v>2017</v>
@@ -34628,7 +34616,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="B68" t="s">
         <v>2013</v>
@@ -34643,17 +34631,17 @@
         <v>94</v>
       </c>
       <c r="F68" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="I68" t="s">
         <v>2015</v>
       </c>
       <c r="J68" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="K68" t="s">
         <v>2017</v>
@@ -34661,7 +34649,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="B69" t="s">
         <v>2013</v>
@@ -34676,17 +34664,17 @@
         <v>94</v>
       </c>
       <c r="F69" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="I69" t="s">
         <v>2015</v>
       </c>
       <c r="J69" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="K69" t="s">
         <v>2017</v>
@@ -34694,7 +34682,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="B70" t="s">
         <v>2013</v>
@@ -34709,17 +34697,17 @@
         <v>94</v>
       </c>
       <c r="F70" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="I70" t="s">
         <v>2015</v>
       </c>
       <c r="J70" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="K70" t="s">
         <v>2017</v>
@@ -34727,7 +34715,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="B71" t="s">
         <v>2013</v>
@@ -34742,17 +34730,17 @@
         <v>94</v>
       </c>
       <c r="F71" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="I71" t="s">
         <v>2015</v>
       </c>
       <c r="J71" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="K71" t="s">
         <v>2017</v>
@@ -34760,7 +34748,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="B72" t="s">
         <v>2013</v>
@@ -34775,17 +34763,17 @@
         <v>94</v>
       </c>
       <c r="F72" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="I72" t="s">
         <v>2015</v>
       </c>
       <c r="J72" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="K72" t="s">
         <v>2017</v>
@@ -34793,7 +34781,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="B73" t="s">
         <v>2013</v>
@@ -34808,17 +34796,17 @@
         <v>94</v>
       </c>
       <c r="F73" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="I73" t="s">
         <v>2015</v>
       </c>
       <c r="J73" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="K73" t="s">
         <v>2017</v>
@@ -34826,7 +34814,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="B74" t="s">
         <v>2013</v>
@@ -34841,17 +34829,17 @@
         <v>94</v>
       </c>
       <c r="F74" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="I74" t="s">
         <v>2015</v>
       </c>
       <c r="J74" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="K74" t="s">
         <v>2017</v>
@@ -34859,10 +34847,10 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="B75" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -34874,28 +34862,28 @@
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="G75" t="s"/>
       <c r="H75" t="s">
+        <v>2154</v>
+      </c>
+      <c r="I75" t="s">
+        <v>2152</v>
+      </c>
+      <c r="J75" t="s">
+        <v>2155</v>
+      </c>
+      <c r="K75" t="s">
         <v>2156</v>
-      </c>
-      <c r="I75" t="s">
-        <v>2154</v>
-      </c>
-      <c r="J75" t="s">
-        <v>2157</v>
-      </c>
-      <c r="K75" t="s">
-        <v>2158</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="B76" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -34907,28 +34895,28 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="I76" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J76" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="K76" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="B77" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -34940,28 +34928,28 @@
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="G77" t="s"/>
       <c r="H77" t="s">
         <v>1243</v>
       </c>
       <c r="I77" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J77" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="K77" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="B78" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -34973,28 +34961,28 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="I78" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J78" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="K78" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="B79" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -35013,21 +35001,21 @@
         <v>1746</v>
       </c>
       <c r="I79" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J79" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="K79" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="B80" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -35039,28 +35027,28 @@
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="I80" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J80" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="K80" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="B81" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -35072,28 +35060,28 @@
         <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="I81" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J81" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="K81" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="B82" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -35105,28 +35093,28 @@
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="G82" t="s"/>
       <c r="H82" t="s">
         <v>1784</v>
       </c>
       <c r="I82" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J82" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="K82" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="B83" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -35142,24 +35130,24 @@
       </c>
       <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="I83" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J83" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="K83" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="B84" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -35175,24 +35163,24 @@
       </c>
       <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="I84" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J84" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="K84" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="B85" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -35208,24 +35196,24 @@
       </c>
       <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="I85" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J85" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="K85" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="B86" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -35237,28 +35225,28 @@
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="I86" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J86" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="K86" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="B87" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -35270,28 +35258,28 @@
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>1840</v>
+        <v>2195</v>
       </c>
       <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="I87" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J87" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="K87" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="B88" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -35303,28 +35291,28 @@
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="I88" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J88" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="K88" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="B89" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -35336,28 +35324,28 @@
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="G89" t="s"/>
       <c r="H89" t="s">
+        <v>2203</v>
+      </c>
+      <c r="I89" t="s">
+        <v>2152</v>
+      </c>
+      <c r="J89" t="s">
+        <v>2204</v>
+      </c>
+      <c r="K89" t="s">
         <v>2205</v>
-      </c>
-      <c r="I89" t="s">
-        <v>2154</v>
-      </c>
-      <c r="J89" t="s">
-        <v>2206</v>
-      </c>
-      <c r="K89" t="s">
-        <v>2207</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="B90" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -35369,28 +35357,28 @@
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="I90" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J90" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="K90" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="B91" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -35406,24 +35394,24 @@
       </c>
       <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="I91" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J91" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="K91" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="B92" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -35439,24 +35427,24 @@
       </c>
       <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="I92" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J92" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="K92" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="B93" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -35468,28 +35456,28 @@
         <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="I93" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J93" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="K93" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B94" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -35505,24 +35493,24 @@
       </c>
       <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="I94" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J94" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="K94" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="B95" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -35534,28 +35522,28 @@
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="I95" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J95" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="K95" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="B96" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -35567,28 +35555,28 @@
         <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="I96" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J96" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="K96" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="B97" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -35600,28 +35588,28 @@
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="I97" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J97" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="K97" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="B98" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -35633,28 +35621,28 @@
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="I98" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J98" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="K98" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="B99" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -35666,28 +35654,28 @@
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="I99" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J99" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="K99" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="B100" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -35699,28 +35687,28 @@
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="I100" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J100" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="K100" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B101" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -35739,21 +35727,21 @@
         <v>1843</v>
       </c>
       <c r="I101" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J101" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="K101" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="B102" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -35765,28 +35753,28 @@
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="I102" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J102" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="K102" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="B103" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -35802,24 +35790,24 @@
       </c>
       <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="I103" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J103" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="K103" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="B104" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -35831,28 +35819,28 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="I104" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J104" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="K104" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="B105" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -35864,28 +35852,28 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="I105" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J105" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="K105" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B106" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -35897,28 +35885,28 @@
         <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="I106" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J106" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="K106" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="B107" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -35930,28 +35918,28 @@
         <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="I107" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J107" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="K107" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="B108" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -35963,28 +35951,28 @@
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="I108" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J108" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="K108" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B109" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -35996,28 +35984,28 @@
         <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="I109" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J109" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="K109" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="B110" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -36029,28 +36017,28 @@
         <v>14</v>
       </c>
       <c r="F110" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="I110" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J110" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="K110" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="B111" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -36062,28 +36050,28 @@
         <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="G111" t="s"/>
       <c r="H111" t="s">
+        <v>2280</v>
+      </c>
+      <c r="I111" t="s">
+        <v>2152</v>
+      </c>
+      <c r="J111" t="s">
+        <v>2281</v>
+      </c>
+      <c r="K111" t="s">
         <v>2282</v>
-      </c>
-      <c r="I111" t="s">
-        <v>2154</v>
-      </c>
-      <c r="J111" t="s">
-        <v>2283</v>
-      </c>
-      <c r="K111" t="s">
-        <v>2284</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="B112" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
@@ -36095,28 +36083,28 @@
         <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="I112" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J112" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="K112" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="B113" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -36128,28 +36116,28 @@
         <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="I113" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J113" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="K113" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="B114" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -36161,28 +36149,28 @@
         <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>2292</v>
+        <v>2195</v>
       </c>
       <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>2292</v>
+        <v>2195</v>
       </c>
       <c r="I114" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J114" t="s">
-        <v>2293</v>
+        <v>2196</v>
       </c>
       <c r="K114" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="B115" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -36194,28 +36182,28 @@
         <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="I115" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J115" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="K115" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="B116" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -36227,28 +36215,28 @@
         <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="I116" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J116" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="K116" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="B117" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
@@ -36260,28 +36248,28 @@
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="I117" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J117" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="K117" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="B118" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -36293,28 +36281,28 @@
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="I118" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J118" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="K118" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="B119" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -36326,28 +36314,28 @@
         <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="I119" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J119" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="K119" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="B120" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
@@ -36359,28 +36347,28 @@
         <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="I120" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J120" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="K120" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="B121" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
@@ -36392,28 +36380,28 @@
         <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="I121" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J121" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="K121" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="B122" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C122" t="s">
         <v>94</v>
@@ -36425,28 +36413,28 @@
         <v>94</v>
       </c>
       <c r="F122" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="I122" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J122" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="K122" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="B123" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C123" t="s">
         <v>94</v>
@@ -36458,28 +36446,28 @@
         <v>94</v>
       </c>
       <c r="F123" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="I123" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J123" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="K123" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="B124" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C124" t="s">
         <v>94</v>
@@ -36491,28 +36479,28 @@
         <v>94</v>
       </c>
       <c r="F124" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="I124" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J124" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="K124" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="B125" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C125" t="s">
         <v>94</v>
@@ -36524,28 +36512,28 @@
         <v>94</v>
       </c>
       <c r="F125" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="I125" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J125" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="K125" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="B126" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C126" t="s">
         <v>94</v>
@@ -36557,28 +36545,28 @@
         <v>94</v>
       </c>
       <c r="F126" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="I126" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J126" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="K126" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="B127" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C127" t="s">
         <v>94</v>
@@ -36594,24 +36582,24 @@
       </c>
       <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="I127" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J127" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="K127" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="B128" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C128" t="s">
         <v>94</v>
@@ -36623,28 +36611,28 @@
         <v>94</v>
       </c>
       <c r="F128" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="I128" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J128" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
       <c r="K128" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="B129" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C129" t="s">
         <v>94</v>
@@ -36656,28 +36644,28 @@
         <v>94</v>
       </c>
       <c r="F129" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
       <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
       <c r="I129" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J129" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
       <c r="K129" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
       <c r="B130" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C130" t="s">
         <v>94</v>
@@ -36689,28 +36677,28 @@
         <v>94</v>
       </c>
       <c r="F130" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
       <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
       <c r="I130" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J130" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="K130" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
       <c r="B131" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C131" t="s">
         <v>94</v>
@@ -36722,28 +36710,28 @@
         <v>94</v>
       </c>
       <c r="F131" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="I131" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J131" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="K131" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="B132" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C132" t="s">
         <v>94</v>
@@ -36755,28 +36743,28 @@
         <v>94</v>
       </c>
       <c r="F132" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="I132" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J132" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
       <c r="K132" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
       <c r="B133" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C133" t="s">
         <v>94</v>
@@ -36788,28 +36776,28 @@
         <v>94</v>
       </c>
       <c r="F133" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
       <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
       <c r="I133" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J133" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
       <c r="K133" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
       <c r="B134" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C134" t="s">
         <v>94</v>
@@ -36821,28 +36809,28 @@
         <v>94</v>
       </c>
       <c r="F134" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
       <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
       <c r="I134" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J134" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
       <c r="K134" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
       <c r="B135" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C135" t="s">
         <v>94</v>
@@ -36854,28 +36842,28 @@
         <v>94</v>
       </c>
       <c r="F135" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="I135" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J135" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="K135" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="B136" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C136" t="s">
         <v>94</v>
@@ -36887,28 +36875,28 @@
         <v>94</v>
       </c>
       <c r="F136" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
       <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
       <c r="I136" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J136" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="K136" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="B137" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C137" t="s">
         <v>94</v>
@@ -36920,28 +36908,28 @@
         <v>94</v>
       </c>
       <c r="F137" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="I137" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J137" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="K137" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="B138" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C138" t="s">
         <v>94</v>
@@ -36953,28 +36941,28 @@
         <v>94</v>
       </c>
       <c r="F138" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
       <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
       <c r="I138" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J138" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
       <c r="K138" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="B139" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C139" t="s">
         <v>94</v>
@@ -36986,28 +36974,28 @@
         <v>94</v>
       </c>
       <c r="F139" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
       <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
       <c r="I139" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J139" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
       <c r="K139" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="B140" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C140" t="s">
         <v>94</v>
@@ -37019,28 +37007,28 @@
         <v>94</v>
       </c>
       <c r="F140" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="I140" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J140" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
       <c r="K140" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="B141" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C141" t="s">
         <v>94</v>
@@ -37052,28 +37040,28 @@
         <v>94</v>
       </c>
       <c r="F141" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
       <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
       <c r="I141" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J141" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
       <c r="K141" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="B142" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C142" t="s">
         <v>94</v>
@@ -37085,28 +37073,28 @@
         <v>94</v>
       </c>
       <c r="F142" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="I142" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J142" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="K142" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="B143" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C143" t="s">
         <v>94</v>
@@ -37118,28 +37106,28 @@
         <v>94</v>
       </c>
       <c r="F143" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="I143" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J143" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="K143" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="B144" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C144" t="s">
         <v>94</v>
@@ -37151,28 +37139,28 @@
         <v>94</v>
       </c>
       <c r="F144" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="I144" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J144" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="K144" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="B145" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C145" t="s">
         <v>94</v>
@@ -37184,28 +37172,28 @@
         <v>94</v>
       </c>
       <c r="F145" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="I145" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J145" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="K145" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="B146" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C146" t="s">
         <v>94</v>
@@ -37217,28 +37205,28 @@
         <v>94</v>
       </c>
       <c r="F146" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="I146" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J146" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
       <c r="K146" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="B147" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C147" t="s">
         <v>94</v>
@@ -37250,28 +37238,28 @@
         <v>94</v>
       </c>
       <c r="F147" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="I147" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J147" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="K147" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="B148" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C148" t="s">
         <v>94</v>
@@ -37283,28 +37271,28 @@
         <v>94</v>
       </c>
       <c r="F148" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="I148" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J148" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="K148" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="B149" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C149" t="s">
         <v>94</v>
@@ -37316,28 +37304,28 @@
         <v>94</v>
       </c>
       <c r="F149" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="I149" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J149" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="K149" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="B150" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C150" t="s">
         <v>94</v>
@@ -37349,28 +37337,28 @@
         <v>94</v>
       </c>
       <c r="F150" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="I150" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J150" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="K150" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="B151" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C151" t="s">
         <v>94</v>
@@ -37382,28 +37370,28 @@
         <v>94</v>
       </c>
       <c r="F151" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="I151" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J151" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="K151" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="B152" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C152" t="s">
         <v>94</v>
@@ -37415,28 +37403,28 @@
         <v>94</v>
       </c>
       <c r="F152" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="I152" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J152" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="K152" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="B153" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C153" t="s">
         <v>94</v>
@@ -37448,28 +37436,28 @@
         <v>94</v>
       </c>
       <c r="F153" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="I153" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J153" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="K153" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="B154" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C154" t="s">
         <v>94</v>
@@ -37481,28 +37469,28 @@
         <v>94</v>
       </c>
       <c r="F154" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
       <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
       <c r="I154" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J154" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
       <c r="K154" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="B155" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C155" t="s">
         <v>94</v>
@@ -37514,28 +37502,28 @@
         <v>94</v>
       </c>
       <c r="F155" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
       <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
       <c r="I155" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J155" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
       <c r="K155" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="B156" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C156" t="s">
         <v>94</v>
@@ -37547,28 +37535,28 @@
         <v>94</v>
       </c>
       <c r="F156" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="I156" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J156" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="K156" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="B157" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C157" t="s">
         <v>94</v>
@@ -37580,28 +37568,28 @@
         <v>94</v>
       </c>
       <c r="F157" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
       <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
       <c r="I157" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J157" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="K157" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="B158" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C158" t="s">
         <v>94</v>
@@ -37613,28 +37601,28 @@
         <v>94</v>
       </c>
       <c r="F158" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="I158" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J158" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
       <c r="K158" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="B159" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C159" t="s">
         <v>94</v>
@@ -37646,28 +37634,28 @@
         <v>94</v>
       </c>
       <c r="F159" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="I159" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J159" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
       <c r="K159" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="B160" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C160" t="s">
         <v>94</v>
@@ -37679,28 +37667,28 @@
         <v>94</v>
       </c>
       <c r="F160" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="I160" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J160" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="K160" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="B161" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C161" t="s">
         <v>94</v>
@@ -37712,28 +37700,28 @@
         <v>94</v>
       </c>
       <c r="F161" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="I161" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J161" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="K161" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="B162" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C162" t="s">
         <v>94</v>
@@ -37745,28 +37733,28 @@
         <v>94</v>
       </c>
       <c r="F162" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="I162" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J162" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="K162" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="B163" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C163" t="s">
         <v>94</v>
@@ -37778,28 +37766,28 @@
         <v>94</v>
       </c>
       <c r="F163" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
       <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
       <c r="I163" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J163" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
       <c r="K163" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="B164" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C164" t="s">
         <v>94</v>
@@ -37811,28 +37799,28 @@
         <v>94</v>
       </c>
       <c r="F164" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="I164" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J164" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="K164" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="B165" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C165" t="s">
         <v>94</v>
@@ -37844,28 +37832,28 @@
         <v>94</v>
       </c>
       <c r="F165" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="I165" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J165" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="K165" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
       <c r="B166" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="C166" t="s">
         <v>14</v>
@@ -37877,28 +37865,28 @@
         <v>14</v>
       </c>
       <c r="F166" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
       <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
       <c r="I166" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J166" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="K166" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="B167" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="C167" t="s">
         <v>94</v>
@@ -37910,25 +37898,25 @@
         <v>94</v>
       </c>
       <c r="F167" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
       <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
       <c r="I167" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="J167" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="K167" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="B168" t="s">
         <v>1933</v>
@@ -37943,25 +37931,25 @@
         <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="I168" t="s">
         <v>1936</v>
       </c>
       <c r="J168" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="K168" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="B169" t="s">
         <v>1933</v>
@@ -37976,25 +37964,25 @@
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>2419</v>
+        <v>2415</v>
       </c>
       <c r="I169" t="s">
         <v>1936</v>
       </c>
       <c r="J169" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
       <c r="K169" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
       <c r="B170" t="s">
         <v>1933</v>
@@ -38009,25 +37997,25 @@
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>2422</v>
+        <v>2418</v>
       </c>
       <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>2422</v>
+        <v>2418</v>
       </c>
       <c r="I170" t="s">
         <v>1936</v>
       </c>
       <c r="J170" t="s">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="K170" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="B171" t="s">
         <v>1933</v>
@@ -38046,21 +38034,21 @@
       </c>
       <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="I171" t="s">
         <v>1936</v>
       </c>
       <c r="J171" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
       <c r="K171" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="B172" t="s">
         <v>1933</v>
@@ -38075,7 +38063,7 @@
         <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="G172" t="s"/>
       <c r="H172" t="s">
@@ -38085,15 +38073,15 @@
         <v>1936</v>
       </c>
       <c r="J172" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="K172" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" t="s">
-        <v>2432</v>
+        <v>2428</v>
       </c>
       <c r="B173" t="s">
         <v>1933</v>
@@ -38108,7 +38096,7 @@
         <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="G173" t="s"/>
       <c r="H173" t="s">
@@ -38118,15 +38106,15 @@
         <v>1936</v>
       </c>
       <c r="J173" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="K173" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
       <c r="B174" t="s">
         <v>1933</v>
@@ -38145,21 +38133,21 @@
       </c>
       <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="I174" t="s">
         <v>1936</v>
       </c>
       <c r="J174" t="s">
-        <v>2435</v>
+        <v>2431</v>
       </c>
       <c r="K174" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" t="s">
-        <v>2436</v>
+        <v>2432</v>
       </c>
       <c r="B175" t="s">
         <v>1933</v>
@@ -38174,25 +38162,25 @@
         <v>14</v>
       </c>
       <c r="F175" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="I175" t="s">
         <v>1936</v>
       </c>
       <c r="J175" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
       <c r="K175" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" t="s">
-        <v>2439</v>
+        <v>2435</v>
       </c>
       <c r="B176" t="s">
         <v>1933</v>
@@ -38207,25 +38195,25 @@
         <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>2440</v>
+        <v>2436</v>
       </c>
       <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
       <c r="I176" t="s">
         <v>1936</v>
       </c>
       <c r="J176" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="K176" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
       <c r="B177" t="s">
         <v>1933</v>
@@ -38240,25 +38228,25 @@
         <v>14</v>
       </c>
       <c r="F177" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="I177" t="s">
         <v>1936</v>
       </c>
       <c r="J177" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="K177" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" t="s">
-        <v>2446</v>
+        <v>2442</v>
       </c>
       <c r="B178" t="s">
         <v>1933</v>
@@ -38277,21 +38265,21 @@
       </c>
       <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
       <c r="I178" t="s">
         <v>1936</v>
       </c>
       <c r="J178" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
       <c r="K178" t="s">
-        <v>2449</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" t="s">
-        <v>2450</v>
+        <v>2446</v>
       </c>
       <c r="B179" t="s">
         <v>1933</v>
@@ -38312,7 +38300,7 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" t="s">
-        <v>2451</v>
+        <v>2447</v>
       </c>
       <c r="B180" t="s">
         <v>1933</v>
@@ -38333,7 +38321,7 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" t="s">
-        <v>2452</v>
+        <v>2448</v>
       </c>
       <c r="B181" t="s">
         <v>1933</v>
@@ -38354,7 +38342,7 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="B182" t="s">
         <v>1933</v>
@@ -38375,7 +38363,7 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
       <c r="B183" t="s">
         <v>1933</v>
@@ -38396,7 +38384,7 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184" t="s">
-        <v>2455</v>
+        <v>2451</v>
       </c>
       <c r="B184" t="s">
         <v>1933</v>
@@ -38417,7 +38405,7 @@
     </row>
     <row r="185" spans="1:11">
       <c r="A185" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
       <c r="B185" t="s">
         <v>1933</v>
@@ -38438,7 +38426,7 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
       <c r="B186" t="s">
         <v>1933</v>
@@ -38459,7 +38447,7 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="B187" t="s">
         <v>1933</v>
@@ -38474,25 +38462,25 @@
         <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
       <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
       <c r="I187" t="s">
         <v>1936</v>
       </c>
       <c r="J187" t="s">
-        <v>2460</v>
+        <v>2456</v>
       </c>
       <c r="K187" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" t="s">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="B188" t="s">
         <v>1933</v>
@@ -38511,21 +38499,21 @@
       </c>
       <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
       <c r="I188" t="s">
         <v>1936</v>
       </c>
       <c r="J188" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
       <c r="K188" t="s">
-        <v>2449</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
       <c r="B189" t="s">
         <v>1933</v>
@@ -38540,25 +38528,25 @@
         <v>14</v>
       </c>
       <c r="F189" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="I189" t="s">
         <v>1936</v>
       </c>
       <c r="J189" t="s">
-        <v>2464</v>
+        <v>2460</v>
       </c>
       <c r="K189" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" t="s">
-        <v>2466</v>
+        <v>2462</v>
       </c>
       <c r="B190" t="s">
         <v>1933</v>
@@ -38573,25 +38561,25 @@
         <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>2467</v>
+        <v>2463</v>
       </c>
       <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>2467</v>
+        <v>2463</v>
       </c>
       <c r="I190" t="s">
         <v>1936</v>
       </c>
       <c r="J190" t="s">
-        <v>2468</v>
+        <v>2464</v>
       </c>
       <c r="K190" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="B191" t="s">
         <v>1933</v>
@@ -38606,25 +38594,25 @@
         <v>94</v>
       </c>
       <c r="F191" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="I191" t="s">
         <v>1936</v>
       </c>
       <c r="J191" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="K191" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="B192" t="s">
         <v>1933</v>
@@ -38639,25 +38627,25 @@
         <v>94</v>
       </c>
       <c r="F192" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>2419</v>
+        <v>2415</v>
       </c>
       <c r="I192" t="s">
         <v>1936</v>
       </c>
       <c r="J192" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
       <c r="K192" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
       <c r="B193" t="s">
         <v>1933</v>
@@ -38676,21 +38664,21 @@
       </c>
       <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>2469</v>
+        <v>2465</v>
       </c>
       <c r="I193" t="s">
         <v>1936</v>
       </c>
       <c r="J193" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
       <c r="K193" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="B194" t="s">
         <v>1933</v>
@@ -38709,21 +38697,21 @@
       </c>
       <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="I194" t="s">
         <v>1936</v>
       </c>
       <c r="J194" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
       <c r="K194" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="B195" t="s">
         <v>1933</v>
@@ -38738,7 +38726,7 @@
         <v>94</v>
       </c>
       <c r="F195" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="G195" t="s"/>
       <c r="H195" t="s">
@@ -38748,15 +38736,15 @@
         <v>1936</v>
       </c>
       <c r="J195" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="K195" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" t="s">
-        <v>2432</v>
+        <v>2428</v>
       </c>
       <c r="B196" t="s">
         <v>1933</v>
@@ -38771,25 +38759,25 @@
         <v>94</v>
       </c>
       <c r="F196" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
       <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
       <c r="I196" t="s">
         <v>1936</v>
       </c>
       <c r="J196" t="s">
-        <v>2472</v>
+        <v>2468</v>
       </c>
       <c r="K196" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
       <c r="B197" t="s">
         <v>1933</v>
@@ -38808,21 +38796,21 @@
       </c>
       <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="I197" t="s">
         <v>1936</v>
       </c>
       <c r="J197" t="s">
-        <v>2435</v>
+        <v>2431</v>
       </c>
       <c r="K197" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" t="s">
-        <v>2436</v>
+        <v>2432</v>
       </c>
       <c r="B198" t="s">
         <v>1933</v>
@@ -38837,25 +38825,25 @@
         <v>94</v>
       </c>
       <c r="F198" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="I198" t="s">
         <v>1936</v>
       </c>
       <c r="J198" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
       <c r="K198" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" t="s">
-        <v>2439</v>
+        <v>2435</v>
       </c>
       <c r="B199" t="s">
         <v>1933</v>
@@ -38870,25 +38858,25 @@
         <v>94</v>
       </c>
       <c r="F199" t="s">
-        <v>2440</v>
+        <v>2436</v>
       </c>
       <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
       <c r="I199" t="s">
         <v>1936</v>
       </c>
       <c r="J199" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="K199" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
       <c r="B200" t="s">
         <v>1933</v>
@@ -38903,25 +38891,25 @@
         <v>94</v>
       </c>
       <c r="F200" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="I200" t="s">
         <v>1936</v>
       </c>
       <c r="J200" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="K200" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" t="s">
-        <v>2451</v>
+        <v>2447</v>
       </c>
       <c r="B201" t="s">
         <v>1933</v>
@@ -38942,7 +38930,7 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" t="s">
-        <v>2452</v>
+        <v>2448</v>
       </c>
       <c r="B202" t="s">
         <v>1933</v>
@@ -38963,7 +38951,7 @@
     </row>
     <row r="203" spans="1:11">
       <c r="A203" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="B203" t="s">
         <v>1933</v>
@@ -38984,7 +38972,7 @@
     </row>
     <row r="204" spans="1:11">
       <c r="A204" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
       <c r="B204" t="s">
         <v>1933</v>
@@ -39005,7 +38993,7 @@
     </row>
     <row r="205" spans="1:11">
       <c r="A205" t="s">
-        <v>2455</v>
+        <v>2451</v>
       </c>
       <c r="B205" t="s">
         <v>1933</v>
@@ -39026,7 +39014,7 @@
     </row>
     <row r="206" spans="1:11">
       <c r="A206" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
       <c r="B206" t="s">
         <v>1933</v>
@@ -39047,7 +39035,7 @@
     </row>
     <row r="207" spans="1:11">
       <c r="A207" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
       <c r="B207" t="s">
         <v>1933</v>
@@ -39068,7 +39056,7 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208" t="s">
-        <v>2473</v>
+        <v>2469</v>
       </c>
       <c r="B208" t="s">
         <v>1933</v>
@@ -39083,25 +39071,25 @@
         <v>94</v>
       </c>
       <c r="F208" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
       <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
       <c r="I208" t="s">
         <v>1936</v>
       </c>
       <c r="J208" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
       <c r="K208" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="B209" t="s">
         <v>1933</v>
@@ -39116,20 +39104,20 @@
         <v>94</v>
       </c>
       <c r="F209" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
       <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
       <c r="I209" t="s">
         <v>1936</v>
       </c>
       <c r="J209" t="s">
-        <v>2460</v>
+        <v>2456</v>
       </c>
       <c r="K209" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
   </sheetData>
@@ -39160,7 +39148,7 @@
     <col customWidth="1" max="7" min="7" width="10"/>
     <col customWidth="1" max="8" min="8" width="8"/>
     <col customWidth="1" max="9" min="9" width="15"/>
-    <col customWidth="1" max="10" min="10" width="59"/>
+    <col customWidth="1" max="10" min="10" width="53"/>
     <col customWidth="1" max="11" min="11" width="19"/>
   </cols>
   <sheetData>
@@ -39201,7 +39189,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="B2" t="s">
         <v>1948</v>
@@ -39216,25 +39204,25 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>2478</v>
+        <v>2474</v>
       </c>
       <c r="G2" t="s"/>
       <c r="H2" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="I2" t="s">
         <v>1948</v>
       </c>
       <c r="J2" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="K2" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="B3" t="s">
         <v>1948</v>
@@ -39249,25 +39237,25 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
       <c r="I3" t="s">
         <v>1948</v>
       </c>
       <c r="J3" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
       <c r="K3" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>2486</v>
+        <v>2481</v>
       </c>
       <c r="B4" t="s">
         <v>1948</v>
@@ -39282,25 +39270,25 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>2487</v>
+        <v>2482</v>
       </c>
       <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>2488</v>
+        <v>2483</v>
       </c>
       <c r="I4" t="s">
         <v>1948</v>
       </c>
       <c r="J4" t="s">
-        <v>2489</v>
+        <v>2484</v>
       </c>
       <c r="K4" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>2490</v>
+        <v>2485</v>
       </c>
       <c r="B5" t="s">
         <v>1948</v>
@@ -39315,25 +39303,25 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>2491</v>
+        <v>2486</v>
       </c>
       <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>2492</v>
+        <v>2487</v>
       </c>
       <c r="I5" t="s">
         <v>1948</v>
       </c>
       <c r="J5" t="s">
-        <v>2493</v>
+        <v>2488</v>
       </c>
       <c r="K5" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>2494</v>
+        <v>2489</v>
       </c>
       <c r="B6" t="s">
         <v>1948</v>
@@ -39348,17 +39336,17 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>2495</v>
+        <v>2490</v>
       </c>
       <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>2496</v>
+        <v>2491</v>
       </c>
       <c r="I6" t="s">
         <v>1948</v>
       </c>
       <c r="J6" t="s">
-        <v>2497</v>
+        <v>2492</v>
       </c>
       <c r="K6" t="s">
         <v>1951</v>
@@ -39366,7 +39354,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>2498</v>
+        <v>2493</v>
       </c>
       <c r="B7" t="s">
         <v>1948</v>
@@ -39381,25 +39369,25 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>2499</v>
+        <v>2494</v>
       </c>
       <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>2499</v>
+        <v>2494</v>
       </c>
       <c r="I7" t="s">
         <v>1948</v>
       </c>
       <c r="J7" t="s">
-        <v>2500</v>
+        <v>2495</v>
       </c>
       <c r="K7" t="s">
-        <v>2480</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="B8" t="s">
         <v>1948</v>
@@ -39414,25 +39402,25 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="I8" t="s">
         <v>1948</v>
       </c>
       <c r="J8" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
       <c r="K8" t="s">
-        <v>2480</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="B9" t="s">
         <v>1948</v>
@@ -39447,7 +39435,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="G9" t="s"/>
       <c r="H9" t="s">
@@ -39457,15 +39445,15 @@
         <v>1948</v>
       </c>
       <c r="J9" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="K9" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
       <c r="B10" t="s">
         <v>1948</v>
@@ -39480,25 +39468,25 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>2478</v>
+        <v>2504</v>
       </c>
       <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>2478</v>
+        <v>2504</v>
       </c>
       <c r="I10" t="s">
         <v>1948</v>
       </c>
       <c r="J10" t="s">
-        <v>2479</v>
+        <v>2505</v>
       </c>
       <c r="K10" t="s">
-        <v>2480</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="B11" t="s">
         <v>1948</v>
@@ -39513,25 +39501,25 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>2509</v>
+        <v>2479</v>
       </c>
       <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>2509</v>
+        <v>2479</v>
       </c>
       <c r="I11" t="s">
         <v>1948</v>
       </c>
       <c r="J11" t="s">
-        <v>2510</v>
+        <v>2480</v>
       </c>
       <c r="K11" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="B12" t="s">
         <v>1948</v>
@@ -39546,25 +39534,25 @@
         <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>2511</v>
+        <v>2474</v>
       </c>
       <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>2512</v>
+        <v>2507</v>
       </c>
       <c r="I12" t="s">
         <v>1948</v>
       </c>
       <c r="J12" t="s">
-        <v>2513</v>
+        <v>2476</v>
       </c>
       <c r="K12" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="B13" t="s">
         <v>1948</v>
@@ -39579,25 +39567,25 @@
         <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>2482</v>
+        <v>2508</v>
       </c>
       <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="I13" t="s">
         <v>1948</v>
       </c>
       <c r="J13" t="s">
-        <v>2484</v>
+        <v>2509</v>
       </c>
       <c r="K13" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>2486</v>
+        <v>2481</v>
       </c>
       <c r="B14" t="s">
         <v>1948</v>
@@ -39612,25 +39600,25 @@
         <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>2487</v>
+        <v>2510</v>
       </c>
       <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>2515</v>
+        <v>2510</v>
       </c>
       <c r="I14" t="s">
         <v>1948</v>
       </c>
       <c r="J14" t="s">
-        <v>2489</v>
+        <v>2511</v>
       </c>
       <c r="K14" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>2490</v>
+        <v>2485</v>
       </c>
       <c r="B15" t="s">
         <v>1948</v>
@@ -39645,25 +39633,25 @@
         <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>2491</v>
+        <v>2512</v>
       </c>
       <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>2516</v>
+        <v>2512</v>
       </c>
       <c r="I15" t="s">
         <v>1948</v>
       </c>
       <c r="J15" t="s">
-        <v>2493</v>
+        <v>2513</v>
       </c>
       <c r="K15" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>2494</v>
+        <v>2489</v>
       </c>
       <c r="B16" t="s">
         <v>1948</v>
@@ -39678,17 +39666,17 @@
         <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>2495</v>
+        <v>2490</v>
       </c>
       <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="I16" t="s">
         <v>1948</v>
       </c>
       <c r="J16" t="s">
-        <v>2497</v>
+        <v>2492</v>
       </c>
       <c r="K16" t="s">
         <v>1951</v>
@@ -39696,7 +39684,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="B17" t="s">
         <v>1948</v>
@@ -39711,25 +39699,25 @@
         <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>2518</v>
+        <v>2515</v>
       </c>
       <c r="I17" t="s">
         <v>1948</v>
       </c>
       <c r="J17" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="K17" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="B18" t="s">
         <v>1948</v>
@@ -39744,25 +39732,25 @@
         <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>2519</v>
+        <v>2479</v>
       </c>
       <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="I18" t="s">
         <v>1948</v>
       </c>
       <c r="J18" t="s">
-        <v>2520</v>
+        <v>2480</v>
       </c>
       <c r="K18" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>2521</v>
+        <v>2517</v>
       </c>
       <c r="B19" t="s">
         <v>2013</v>
@@ -39777,17 +39765,17 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>2522</v>
+        <v>2518</v>
       </c>
       <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>2523</v>
+        <v>2519</v>
       </c>
       <c r="I19" t="s">
         <v>2015</v>
       </c>
       <c r="J19" t="s">
-        <v>2524</v>
+        <v>2520</v>
       </c>
       <c r="K19" t="s">
         <v>2017</v>
@@ -39795,7 +39783,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="B20" t="s">
         <v>2013</v>
@@ -39810,17 +39798,17 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="I20" t="s">
         <v>2015</v>
       </c>
       <c r="J20" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
       <c r="K20" t="s">
         <v>2017</v>
@@ -39828,7 +39816,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="B21" t="s">
         <v>2013</v>
@@ -39843,17 +39831,17 @@
         <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
       <c r="I21" t="s">
         <v>2015</v>
       </c>
       <c r="J21" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
       <c r="K21" t="s">
         <v>2017</v>
@@ -39876,17 +39864,17 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
       </c>
       <c r="J22" t="s">
-        <v>2530</v>
+        <v>2526</v>
       </c>
       <c r="K22" t="s">
         <v>257</v>
@@ -39894,7 +39882,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
       <c r="B23" t="s">
         <v>1933</v>
@@ -39909,25 +39897,25 @@
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>2533</v>
+        <v>2529</v>
       </c>
       <c r="I23" t="s">
         <v>1936</v>
       </c>
       <c r="J23" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
       <c r="K23" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
       <c r="B24" t="s">
         <v>1933</v>
@@ -39942,25 +39930,25 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="I24" t="s">
         <v>1936</v>
       </c>
       <c r="J24" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="K24" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="B25" t="s">
         <v>1933</v>
@@ -39975,25 +39963,25 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
       <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
       <c r="I25" t="s">
         <v>1936</v>
       </c>
       <c r="J25" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="K25" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
       <c r="B26" t="s">
         <v>1933</v>
@@ -40008,25 +39996,25 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>2544</v>
+        <v>2540</v>
       </c>
       <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
       <c r="I26" t="s">
         <v>1936</v>
       </c>
       <c r="J26" t="s">
-        <v>2546</v>
+        <v>2542</v>
       </c>
       <c r="K26" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>2547</v>
+        <v>2543</v>
       </c>
       <c r="B27" t="s">
         <v>1933</v>
@@ -40041,25 +40029,25 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
       <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
       <c r="I27" t="s">
         <v>1936</v>
       </c>
       <c r="J27" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
       <c r="K27" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
       <c r="B28" t="s">
         <v>1933</v>
@@ -40074,7 +40062,7 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>2552</v>
+        <v>2548</v>
       </c>
       <c r="G28" t="s"/>
       <c r="H28" t="s">
@@ -40084,15 +40072,15 @@
         <v>1936</v>
       </c>
       <c r="J28" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
       <c r="K28" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="B29" t="s">
         <v>1933</v>
@@ -40107,25 +40095,25 @@
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>2555</v>
+        <v>2551</v>
       </c>
       <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>2555</v>
+        <v>2551</v>
       </c>
       <c r="I29" t="s">
         <v>1936</v>
       </c>
       <c r="J29" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
       <c r="K29" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>2557</v>
+        <v>2553</v>
       </c>
       <c r="B30" t="s">
         <v>1933</v>
@@ -40140,25 +40128,25 @@
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>2558</v>
+        <v>2554</v>
       </c>
       <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="I30" t="s">
         <v>1936</v>
       </c>
       <c r="J30" t="s">
-        <v>2560</v>
+        <v>2556</v>
       </c>
       <c r="K30" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>2561</v>
+        <v>2557</v>
       </c>
       <c r="B31" t="s">
         <v>1933</v>
@@ -40173,25 +40161,25 @@
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>2562</v>
+        <v>2558</v>
       </c>
       <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>2563</v>
+        <v>2559</v>
       </c>
       <c r="I31" t="s">
         <v>1936</v>
       </c>
       <c r="J31" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="K31" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="B32" t="s">
         <v>1933</v>
@@ -40206,25 +40194,25 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>2566</v>
+        <v>2562</v>
       </c>
       <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>2566</v>
+        <v>2562</v>
       </c>
       <c r="I32" t="s">
         <v>1936</v>
       </c>
       <c r="J32" t="s">
-        <v>2567</v>
+        <v>2563</v>
       </c>
       <c r="K32" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
       <c r="B33" t="s">
         <v>1933</v>
@@ -40245,7 +40233,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>2569</v>
+        <v>2565</v>
       </c>
       <c r="B34" t="s">
         <v>1933</v>
@@ -40266,7 +40254,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="B35" t="s">
         <v>1933</v>
@@ -40281,25 +40269,25 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>2571</v>
+        <v>2567</v>
       </c>
       <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>2571</v>
+        <v>2567</v>
       </c>
       <c r="I35" t="s">
         <v>1936</v>
       </c>
       <c r="J35" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="K35" t="s">
-        <v>2449</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
       <c r="B36" t="s">
         <v>1933</v>
@@ -40314,25 +40302,25 @@
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>2575</v>
+        <v>2571</v>
       </c>
       <c r="I36" t="s">
         <v>1936</v>
       </c>
       <c r="J36" t="s">
-        <v>2576</v>
+        <v>2572</v>
       </c>
       <c r="K36" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>2577</v>
+        <v>2573</v>
       </c>
       <c r="B37" t="s">
         <v>1933</v>
@@ -40347,25 +40335,25 @@
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>2578</v>
+        <v>2574</v>
       </c>
       <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="I37" t="s">
         <v>1936</v>
       </c>
       <c r="J37" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="K37" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
       <c r="B38" t="s">
         <v>1933</v>
@@ -40380,25 +40368,25 @@
         <v>94</v>
       </c>
       <c r="F38" t="s">
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="I38" t="s">
         <v>1936</v>
       </c>
       <c r="J38" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
       <c r="K38" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
       <c r="B39" t="s">
         <v>1933</v>
@@ -40413,25 +40401,25 @@
         <v>94</v>
       </c>
       <c r="F39" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="I39" t="s">
         <v>1936</v>
       </c>
       <c r="J39" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="K39" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="B40" t="s">
         <v>1933</v>
@@ -40446,25 +40434,25 @@
         <v>94</v>
       </c>
       <c r="F40" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
       <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>2582</v>
+        <v>2578</v>
       </c>
       <c r="I40" t="s">
         <v>1936</v>
       </c>
       <c r="J40" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="K40" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
       <c r="B41" t="s">
         <v>1933</v>
@@ -40479,25 +40467,25 @@
         <v>94</v>
       </c>
       <c r="F41" t="s">
-        <v>2544</v>
+        <v>2540</v>
       </c>
       <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>2583</v>
+        <v>2579</v>
       </c>
       <c r="I41" t="s">
         <v>1936</v>
       </c>
       <c r="J41" t="s">
-        <v>2546</v>
+        <v>2542</v>
       </c>
       <c r="K41" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>2584</v>
+        <v>2580</v>
       </c>
       <c r="B42" t="s">
         <v>1933</v>
@@ -40512,7 +40500,7 @@
         <v>94</v>
       </c>
       <c r="F42" t="s">
-        <v>2585</v>
+        <v>2581</v>
       </c>
       <c r="G42" t="s"/>
       <c r="H42" t="s"/>
@@ -40520,15 +40508,15 @@
         <v>1936</v>
       </c>
       <c r="J42" t="s">
-        <v>2586</v>
+        <v>2582</v>
       </c>
       <c r="K42" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>2547</v>
+        <v>2543</v>
       </c>
       <c r="B43" t="s">
         <v>1933</v>
@@ -40543,25 +40531,25 @@
         <v>94</v>
       </c>
       <c r="F43" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
       <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>2587</v>
+        <v>2583</v>
       </c>
       <c r="I43" t="s">
         <v>1936</v>
       </c>
       <c r="J43" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
       <c r="K43" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
       <c r="B44" t="s">
         <v>1933</v>
@@ -40576,25 +40564,25 @@
         <v>94</v>
       </c>
       <c r="F44" t="s">
-        <v>2552</v>
+        <v>2548</v>
       </c>
       <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>2588</v>
+        <v>2584</v>
       </c>
       <c r="I44" t="s">
         <v>1936</v>
       </c>
       <c r="J44" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
       <c r="K44" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="B45" t="s">
         <v>1933</v>
@@ -40609,25 +40597,25 @@
         <v>94</v>
       </c>
       <c r="F45" t="s">
-        <v>2589</v>
+        <v>2585</v>
       </c>
       <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>2589</v>
+        <v>2585</v>
       </c>
       <c r="I45" t="s">
         <v>1936</v>
       </c>
       <c r="J45" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
       <c r="K45" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>2590</v>
+        <v>2586</v>
       </c>
       <c r="B46" t="s">
         <v>1933</v>
@@ -40642,25 +40630,25 @@
         <v>94</v>
       </c>
       <c r="F46" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
       <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="I46" t="s">
         <v>1936</v>
       </c>
       <c r="J46" t="s">
-        <v>2593</v>
+        <v>2589</v>
       </c>
       <c r="K46" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>2594</v>
+        <v>2590</v>
       </c>
       <c r="B47" t="s">
         <v>1933</v>
@@ -40675,25 +40663,25 @@
         <v>94</v>
       </c>
       <c r="F47" t="s">
-        <v>2595</v>
+        <v>2591</v>
       </c>
       <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>2596</v>
+        <v>2592</v>
       </c>
       <c r="I47" t="s">
         <v>1936</v>
       </c>
       <c r="J47" t="s">
-        <v>2597</v>
+        <v>2593</v>
       </c>
       <c r="K47" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>2598</v>
+        <v>2594</v>
       </c>
       <c r="B48" t="s">
         <v>1933</v>
@@ -40708,25 +40696,25 @@
         <v>94</v>
       </c>
       <c r="F48" t="s">
-        <v>2599</v>
+        <v>2595</v>
       </c>
       <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>2600</v>
+        <v>2596</v>
       </c>
       <c r="I48" t="s">
         <v>1936</v>
       </c>
       <c r="J48" t="s">
-        <v>2601</v>
+        <v>2597</v>
       </c>
       <c r="K48" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>2602</v>
+        <v>2598</v>
       </c>
       <c r="B49" t="s">
         <v>1933</v>
@@ -40741,25 +40729,25 @@
         <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>2603</v>
+        <v>2599</v>
       </c>
       <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>2604</v>
+        <v>2600</v>
       </c>
       <c r="I49" t="s">
         <v>1936</v>
       </c>
       <c r="J49" t="s">
-        <v>2605</v>
+        <v>2601</v>
       </c>
       <c r="K49" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>2606</v>
+        <v>2602</v>
       </c>
       <c r="B50" t="s">
         <v>1933</v>
@@ -40774,25 +40762,25 @@
         <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
       <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>2608</v>
+        <v>2604</v>
       </c>
       <c r="I50" t="s">
         <v>1936</v>
       </c>
       <c r="J50" t="s">
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="K50" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>2610</v>
+        <v>2606</v>
       </c>
       <c r="B51" t="s">
         <v>1933</v>
@@ -40807,25 +40795,25 @@
         <v>94</v>
       </c>
       <c r="F51" t="s">
-        <v>2611</v>
+        <v>2607</v>
       </c>
       <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>2612</v>
+        <v>2608</v>
       </c>
       <c r="I51" t="s">
         <v>1936</v>
       </c>
       <c r="J51" t="s">
-        <v>2613</v>
+        <v>2609</v>
       </c>
       <c r="K51" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>2614</v>
+        <v>2610</v>
       </c>
       <c r="B52" t="s">
         <v>1933</v>
@@ -40840,25 +40828,25 @@
         <v>94</v>
       </c>
       <c r="F52" t="s">
-        <v>2615</v>
+        <v>2611</v>
       </c>
       <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>2616</v>
+        <v>2612</v>
       </c>
       <c r="I52" t="s">
         <v>1936</v>
       </c>
       <c r="J52" t="s">
-        <v>2617</v>
+        <v>2613</v>
       </c>
       <c r="K52" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>2618</v>
+        <v>2614</v>
       </c>
       <c r="B53" t="s">
         <v>1933</v>
@@ -40873,25 +40861,25 @@
         <v>94</v>
       </c>
       <c r="F53" t="s">
-        <v>2619</v>
+        <v>2615</v>
       </c>
       <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>2620</v>
+        <v>2616</v>
       </c>
       <c r="I53" t="s">
         <v>1936</v>
       </c>
       <c r="J53" t="s">
-        <v>2621</v>
+        <v>2617</v>
       </c>
       <c r="K53" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>2622</v>
+        <v>2618</v>
       </c>
       <c r="B54" t="s">
         <v>1933</v>
@@ -40906,25 +40894,25 @@
         <v>94</v>
       </c>
       <c r="F54" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="I54" t="s">
         <v>1936</v>
       </c>
       <c r="J54" t="s">
-        <v>2625</v>
+        <v>2621</v>
       </c>
       <c r="K54" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>2626</v>
+        <v>2622</v>
       </c>
       <c r="B55" t="s">
         <v>1933</v>
@@ -40939,25 +40927,25 @@
         <v>94</v>
       </c>
       <c r="F55" t="s">
-        <v>2627</v>
+        <v>2623</v>
       </c>
       <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>2628</v>
+        <v>2624</v>
       </c>
       <c r="I55" t="s">
         <v>1936</v>
       </c>
       <c r="J55" t="s">
-        <v>2629</v>
+        <v>2625</v>
       </c>
       <c r="K55" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>2630</v>
+        <v>2626</v>
       </c>
       <c r="B56" t="s">
         <v>1933</v>
@@ -40972,25 +40960,25 @@
         <v>94</v>
       </c>
       <c r="F56" t="s">
-        <v>2631</v>
+        <v>2627</v>
       </c>
       <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>2632</v>
+        <v>2628</v>
       </c>
       <c r="I56" t="s">
         <v>1936</v>
       </c>
       <c r="J56" t="s">
-        <v>2633</v>
+        <v>2629</v>
       </c>
       <c r="K56" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>2634</v>
+        <v>2630</v>
       </c>
       <c r="B57" t="s">
         <v>1933</v>
@@ -41005,25 +40993,25 @@
         <v>94</v>
       </c>
       <c r="F57" t="s">
-        <v>2635</v>
+        <v>2631</v>
       </c>
       <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>2636</v>
+        <v>2632</v>
       </c>
       <c r="I57" t="s">
         <v>1936</v>
       </c>
       <c r="J57" t="s">
-        <v>2637</v>
+        <v>2633</v>
       </c>
       <c r="K57" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>2638</v>
+        <v>2634</v>
       </c>
       <c r="B58" t="s">
         <v>1933</v>
@@ -41038,25 +41026,25 @@
         <v>94</v>
       </c>
       <c r="F58" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
       <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>2608</v>
+        <v>2604</v>
       </c>
       <c r="I58" t="s">
         <v>1936</v>
       </c>
       <c r="J58" t="s">
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="K58" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>2639</v>
+        <v>2635</v>
       </c>
       <c r="B59" t="s">
         <v>1933</v>
@@ -41071,25 +41059,25 @@
         <v>94</v>
       </c>
       <c r="F59" t="s">
-        <v>2640</v>
+        <v>2636</v>
       </c>
       <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>2641</v>
+        <v>2637</v>
       </c>
       <c r="I59" t="s">
         <v>1936</v>
       </c>
       <c r="J59" t="s">
-        <v>2642</v>
+        <v>2638</v>
       </c>
       <c r="K59" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>2643</v>
+        <v>2639</v>
       </c>
       <c r="B60" t="s">
         <v>1933</v>
@@ -41104,25 +41092,25 @@
         <v>94</v>
       </c>
       <c r="F60" t="s">
-        <v>2644</v>
+        <v>2640</v>
       </c>
       <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>2645</v>
+        <v>2641</v>
       </c>
       <c r="I60" t="s">
         <v>1936</v>
       </c>
       <c r="J60" t="s">
-        <v>2646</v>
+        <v>2642</v>
       </c>
       <c r="K60" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
       <c r="B61" t="s">
         <v>1933</v>
@@ -41137,25 +41125,25 @@
         <v>94</v>
       </c>
       <c r="F61" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>2647</v>
+        <v>2643</v>
       </c>
       <c r="I61" t="s">
         <v>1936</v>
       </c>
       <c r="J61" t="s">
-        <v>2576</v>
+        <v>2572</v>
       </c>
       <c r="K61" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>2648</v>
+        <v>2644</v>
       </c>
       <c r="B62" t="s">
         <v>1933</v>
@@ -41170,25 +41158,25 @@
         <v>94</v>
       </c>
       <c r="F62" t="s">
-        <v>2649</v>
+        <v>2645</v>
       </c>
       <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>2650</v>
+        <v>2646</v>
       </c>
       <c r="I62" t="s">
         <v>1936</v>
       </c>
       <c r="J62" t="s">
-        <v>2651</v>
+        <v>2647</v>
       </c>
       <c r="K62" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>2652</v>
+        <v>2648</v>
       </c>
       <c r="B63" t="s">
         <v>1933</v>
@@ -41203,25 +41191,25 @@
         <v>94</v>
       </c>
       <c r="F63" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
       <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>2608</v>
+        <v>2604</v>
       </c>
       <c r="I63" t="s">
         <v>1936</v>
       </c>
       <c r="J63" t="s">
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="K63" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>2653</v>
+        <v>2649</v>
       </c>
       <c r="B64" t="s">
         <v>1933</v>
@@ -41236,25 +41224,25 @@
         <v>94</v>
       </c>
       <c r="F64" t="s">
-        <v>2654</v>
+        <v>2650</v>
       </c>
       <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>2654</v>
+        <v>2650</v>
       </c>
       <c r="I64" t="s">
         <v>1936</v>
       </c>
       <c r="J64" t="s">
-        <v>2655</v>
+        <v>2651</v>
       </c>
       <c r="K64" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>2577</v>
+        <v>2573</v>
       </c>
       <c r="B65" t="s">
         <v>1933</v>
@@ -41269,28 +41257,28 @@
         <v>94</v>
       </c>
       <c r="F65" t="s">
-        <v>2578</v>
+        <v>2574</v>
       </c>
       <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>2656</v>
+        <v>2652</v>
       </c>
       <c r="I65" t="s">
         <v>1936</v>
       </c>
       <c r="J65" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="K65" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>2569</v>
+        <v>2565</v>
       </c>
       <c r="B66" t="s">
-        <v>2657</v>
+        <v>2653</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>

--- a/recordcleaner/CMEG_matched.xlsx
+++ b/recordcleaner/CMEG_matched.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2649">
   <si>
     <t>Product</t>
   </si>
@@ -6138,10 +6138,13 @@
     <t>NIKKEI 225 (YEN) STOCK</t>
   </si>
   <si>
-    <t>ENY</t>
-  </si>
-  <si>
-    <t>E-mini Nikkei 225 - Yen denominated</t>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>NIY</t>
+  </si>
+  <si>
+    <t>Nikkei/Yen</t>
   </si>
   <si>
     <t>S&amp;P MATERIALS SECTOR</t>
@@ -6984,168 +6987,156 @@
     <t>Premium Quoted European Style Options on Swiss Franc/US Dollar Futures</t>
   </si>
   <si>
-    <t>VXJ</t>
-  </si>
-  <si>
-    <t>JPY/USD Volatility-Quoted Euro Style Option - 2 pm Fix</t>
-  </si>
-  <si>
     <t>JAPANESE YEN (EU)</t>
   </si>
   <si>
-    <t>1H</t>
-  </si>
-  <si>
-    <t>Euro/Japanese Yen (EUR/JPY) Weekly Options - Wk 1</t>
-  </si>
-  <si>
     <t>EURO FX (EU)</t>
   </si>
   <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>XT</t>
+  </si>
+  <si>
+    <t>Euro FX Option (European)</t>
+  </si>
+  <si>
+    <t>SWISS FRANC (EU)</t>
+  </si>
+  <si>
+    <t>CANADIAN DOLLAR (EU)</t>
+  </si>
+  <si>
+    <t>YD</t>
+  </si>
+  <si>
+    <t>XD</t>
+  </si>
+  <si>
+    <t>Canadian Dollar Option (European)</t>
+  </si>
+  <si>
+    <t>BRITISH POUND (EU)</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN DLR (EU)</t>
+  </si>
+  <si>
+    <t>AUD/USD PQO 2pm Fix</t>
+  </si>
+  <si>
+    <t>WA2</t>
+  </si>
+  <si>
+    <t>AUD/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 2</t>
+  </si>
+  <si>
+    <t>WA4</t>
+  </si>
+  <si>
+    <t>AUD/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 4</t>
+  </si>
+  <si>
+    <t>WA1</t>
+  </si>
+  <si>
+    <t>AUD/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 1</t>
+  </si>
+  <si>
+    <t>WA3</t>
+  </si>
+  <si>
+    <t>AUD/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 3</t>
+  </si>
+  <si>
+    <t>WA5</t>
+  </si>
+  <si>
+    <t>AUD/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 5</t>
+  </si>
+  <si>
+    <t>GBP/USD PQO 2pm Fix</t>
+  </si>
+  <si>
+    <t>WG2</t>
+  </si>
+  <si>
+    <t>GBP/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 2</t>
+  </si>
+  <si>
+    <t>WG4</t>
+  </si>
+  <si>
+    <t>GBP/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 4</t>
+  </si>
+  <si>
+    <t>WG1</t>
+  </si>
+  <si>
+    <t>GBP/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 1</t>
+  </si>
+  <si>
+    <t>WG3</t>
+  </si>
+  <si>
+    <t>GBP/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 3</t>
+  </si>
+  <si>
+    <t>WG5</t>
+  </si>
+  <si>
+    <t>GBP/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 5</t>
+  </si>
+  <si>
+    <t>JPY/USD PQO 2pm Fix</t>
+  </si>
+  <si>
+    <t>WJ2</t>
+  </si>
+  <si>
+    <t>JPY/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 2</t>
+  </si>
+  <si>
+    <t>WJ4</t>
+  </si>
+  <si>
+    <t>JPY/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 4</t>
+  </si>
+  <si>
+    <t>WJ1</t>
+  </si>
+  <si>
+    <t>JPY/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 1</t>
+  </si>
+  <si>
+    <t>WJ3</t>
+  </si>
+  <si>
+    <t>JPY/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 3</t>
+  </si>
+  <si>
+    <t>WJ5</t>
+  </si>
+  <si>
+    <t>JPY/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 5</t>
+  </si>
+  <si>
+    <t>EUR/USD PQO 2pm Fix</t>
+  </si>
+  <si>
+    <t>WE2</t>
+  </si>
+  <si>
+    <t>EUR/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 2</t>
+  </si>
+  <si>
     <t>WE4</t>
   </si>
   <si>
     <t>EUR/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 4</t>
   </si>
   <si>
-    <t>SWISS FRANC (EU)</t>
-  </si>
-  <si>
-    <t>4I</t>
-  </si>
-  <si>
-    <t>Euro/Swiss Franc (EUR/CHF) Weekly Options - Wk 4</t>
-  </si>
-  <si>
-    <t>CANADIAN DOLLAR (EU)</t>
-  </si>
-  <si>
-    <t>VXC</t>
-  </si>
-  <si>
-    <t>CAD/USD Volatility-Quoted Euro Style Option - 2 pm Fix</t>
-  </si>
-  <si>
-    <t>BRITISH POUND (EU)</t>
-  </si>
-  <si>
-    <t>5E</t>
-  </si>
-  <si>
-    <t>Euro/British Pound (EUR/GBP) Weekly Options - Wk 5</t>
-  </si>
-  <si>
-    <t>AUSTRALIAN DLR (EU)</t>
-  </si>
-  <si>
-    <t>AUD/USD PQO 2pm Fix</t>
-  </si>
-  <si>
-    <t>WA2</t>
-  </si>
-  <si>
-    <t>AUD/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 2</t>
-  </si>
-  <si>
-    <t>WA4</t>
-  </si>
-  <si>
-    <t>AUD/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 4</t>
-  </si>
-  <si>
-    <t>WA1</t>
-  </si>
-  <si>
-    <t>AUD/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 1</t>
-  </si>
-  <si>
-    <t>WA3</t>
-  </si>
-  <si>
-    <t>AUD/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 3</t>
-  </si>
-  <si>
-    <t>WA5</t>
-  </si>
-  <si>
-    <t>AUD/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 5</t>
-  </si>
-  <si>
-    <t>GBP/USD PQO 2pm Fix</t>
-  </si>
-  <si>
-    <t>WG2</t>
-  </si>
-  <si>
-    <t>GBP/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 2</t>
-  </si>
-  <si>
-    <t>WG4</t>
-  </si>
-  <si>
-    <t>GBP/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 4</t>
-  </si>
-  <si>
-    <t>WG1</t>
-  </si>
-  <si>
-    <t>GBP/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 1</t>
-  </si>
-  <si>
-    <t>WG3</t>
-  </si>
-  <si>
-    <t>GBP/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 3</t>
-  </si>
-  <si>
-    <t>WG5</t>
-  </si>
-  <si>
-    <t>GBP/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 5</t>
-  </si>
-  <si>
-    <t>JPY/USD PQO 2pm Fix</t>
-  </si>
-  <si>
-    <t>WJ2</t>
-  </si>
-  <si>
-    <t>JPY/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 2</t>
-  </si>
-  <si>
-    <t>WJ4</t>
-  </si>
-  <si>
-    <t>JPY/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 4</t>
-  </si>
-  <si>
-    <t>WJ1</t>
-  </si>
-  <si>
-    <t>JPY/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 1</t>
-  </si>
-  <si>
-    <t>WJ3</t>
-  </si>
-  <si>
-    <t>JPY/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 3</t>
-  </si>
-  <si>
-    <t>WJ5</t>
-  </si>
-  <si>
-    <t>JPY/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 5</t>
-  </si>
-  <si>
-    <t>EUR/USD PQO 2pm Fix</t>
-  </si>
-  <si>
-    <t>WE2</t>
-  </si>
-  <si>
-    <t>EUR/USD Wednesday Premium Quoted European Style Option - 2 pm Fix - Wk 2</t>
-  </si>
-  <si>
     <t>WE1</t>
   </si>
   <si>
@@ -7293,10 +7284,10 @@
     <t>MILK</t>
   </si>
   <si>
-    <t>DA</t>
-  </si>
-  <si>
-    <t>Class III Milk</t>
+    <t>GNF</t>
+  </si>
+  <si>
+    <t>Non-fat Dry Milk</t>
   </si>
   <si>
     <t>Dairy</t>
@@ -7308,12 +7299,6 @@
     <t>NFD MILK</t>
   </si>
   <si>
-    <t>GNF</t>
-  </si>
-  <si>
-    <t>Non-fat Dry Milk</t>
-  </si>
-  <si>
     <t>BUTTER CS</t>
   </si>
   <si>
@@ -7455,109 +7440,109 @@
     <t>10-YR NOTE</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>ZN</t>
+  </si>
+  <si>
+    <t>10-Year T-Note</t>
+  </si>
+  <si>
+    <t>5-YR NOTE</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>ZF</t>
+  </si>
+  <si>
+    <t>5-Year T-Note</t>
+  </si>
+  <si>
+    <t>2-YR NOTE</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>ZT</t>
+  </si>
+  <si>
+    <t>2-Year T-Note</t>
+  </si>
+  <si>
+    <t>FED FUND</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>ZQ</t>
+  </si>
+  <si>
+    <t>30 Day Federal Funds</t>
+  </si>
+  <si>
+    <t>5-YR SWAP RATE</t>
+  </si>
+  <si>
+    <t>F1E</t>
+  </si>
+  <si>
+    <t>5-Year Euro MAC Swap</t>
+  </si>
+  <si>
+    <t>MAC Swap Futures</t>
+  </si>
+  <si>
+    <t>10-YR SWAP RATE</t>
+  </si>
+  <si>
+    <t>N1E</t>
+  </si>
+  <si>
+    <t>10-Year Euro MAC Swap</t>
+  </si>
+  <si>
+    <t>ULTRA T-BOND</t>
+  </si>
+  <si>
+    <t>UBE</t>
+  </si>
+  <si>
+    <t>Ultra U.S. Treasury Bond</t>
+  </si>
+  <si>
+    <t>30-YR SWAP RATE</t>
+  </si>
+  <si>
+    <t>B1U</t>
+  </si>
+  <si>
+    <t>30-Year USD MAC Swap</t>
+  </si>
+  <si>
+    <t>Ultra 10-Year Note</t>
+  </si>
+  <si>
     <t>TN</t>
   </si>
   <si>
     <t>Ultra 10-Year U.S. Treasury Note</t>
   </si>
   <si>
-    <t>5-YR NOTE</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>ZF</t>
-  </si>
-  <si>
-    <t>5-Year T-Note</t>
-  </si>
-  <si>
-    <t>2-YR NOTE</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>ZT</t>
-  </si>
-  <si>
-    <t>2-Year T-Note</t>
-  </si>
-  <si>
-    <t>FED FUND</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>ZQ</t>
-  </si>
-  <si>
-    <t>30 Day Federal Funds</t>
-  </si>
-  <si>
-    <t>5-YR SWAP RATE</t>
-  </si>
-  <si>
-    <t>F1E</t>
-  </si>
-  <si>
-    <t>5-Year Euro MAC Swap</t>
-  </si>
-  <si>
-    <t>MAC Swap Futures</t>
-  </si>
-  <si>
-    <t>10-YR SWAP RATE</t>
-  </si>
-  <si>
-    <t>N1E</t>
-  </si>
-  <si>
-    <t>10-Year Euro MAC Swap</t>
-  </si>
-  <si>
-    <t>ULTRA T-BOND</t>
-  </si>
-  <si>
-    <t>UBE</t>
-  </si>
-  <si>
-    <t>Ultra U.S. Treasury Bond</t>
-  </si>
-  <si>
-    <t>30-YR SWAP RATE</t>
-  </si>
-  <si>
-    <t>B1U</t>
-  </si>
-  <si>
-    <t>30-Year USD MAC Swap</t>
-  </si>
-  <si>
-    <t>Ultra 10-Year Note</t>
-  </si>
-  <si>
     <t>OZB</t>
   </si>
   <si>
-    <t>WY4</t>
-  </si>
-  <si>
-    <t>10-Year Treasury Note Wednesday Weekly Options Wk 4</t>
-  </si>
-  <si>
-    <t>WF5</t>
-  </si>
-  <si>
-    <t>5-Year Treasury Note Wednesday Weekly Options Wk 5</t>
-  </si>
-  <si>
-    <t>WT2</t>
-  </si>
-  <si>
-    <t>2-Year Treasury Note Wednesday Weekly Options Wk 2</t>
+    <t>OZN</t>
+  </si>
+  <si>
+    <t>OZF</t>
+  </si>
+  <si>
+    <t>OZT</t>
   </si>
   <si>
     <t>OZQ</t>
@@ -33513,13 +33498,13 @@
       </c>
       <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="I34" t="s">
         <v>2015</v>
       </c>
       <c r="J34" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K34" t="s">
         <v>2038</v>
@@ -33527,7 +33512,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B35" t="s">
         <v>2013</v>
@@ -33542,25 +33527,25 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="I35" t="s">
         <v>2015</v>
       </c>
       <c r="J35" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="K35" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B36" t="s">
         <v>2013</v>
@@ -33575,25 +33560,25 @@
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="I36" t="s">
         <v>2015</v>
       </c>
       <c r="J36" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="K36" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B37" t="s">
         <v>2013</v>
@@ -33608,25 +33593,25 @@
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="I37" t="s">
         <v>2015</v>
       </c>
       <c r="J37" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="K37" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B38" t="s">
         <v>2013</v>
@@ -33641,25 +33626,25 @@
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="I38" t="s">
         <v>2015</v>
       </c>
       <c r="J38" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="K38" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="B39" t="s">
         <v>2013</v>
@@ -33674,25 +33659,25 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="I39" t="s">
         <v>2015</v>
       </c>
       <c r="J39" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="K39" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="B40" t="s">
         <v>2013</v>
@@ -33707,25 +33692,25 @@
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="I40" t="s">
         <v>2015</v>
       </c>
       <c r="J40" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="K40" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="B41" t="s">
         <v>2013</v>
@@ -33740,25 +33725,25 @@
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="I41" t="s">
         <v>2015</v>
       </c>
       <c r="J41" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="K41" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="B42" t="s">
         <v>2013</v>
@@ -33773,25 +33758,25 @@
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="I42" t="s">
         <v>2015</v>
       </c>
       <c r="J42" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="K42" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="B43" t="s">
         <v>2013</v>
@@ -33806,17 +33791,17 @@
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="I43" t="s">
         <v>2015</v>
       </c>
       <c r="J43" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="K43" t="s">
         <v>2017</v>
@@ -33824,7 +33809,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="B44" t="s">
         <v>2013</v>
@@ -33839,17 +33824,17 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="I44" t="s">
         <v>2015</v>
       </c>
       <c r="J44" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="K44" t="s">
         <v>2038</v>
@@ -33857,7 +33842,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="B45" t="s">
         <v>2013</v>
@@ -33872,17 +33857,17 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="I45" t="s">
         <v>2015</v>
       </c>
       <c r="J45" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="K45" t="s">
         <v>2017</v>
@@ -33890,7 +33875,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="B46" t="s">
         <v>2013</v>
@@ -33905,25 +33890,25 @@
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="I46" t="s">
         <v>2015</v>
       </c>
       <c r="J46" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="K46" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="B47" t="s">
         <v>2013</v>
@@ -33938,17 +33923,17 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="I47" t="s">
         <v>2015</v>
       </c>
       <c r="J47" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="K47" t="s">
         <v>2038</v>
@@ -33956,7 +33941,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="B48" t="s">
         <v>2013</v>
@@ -33971,17 +33956,17 @@
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="I48" t="s">
         <v>2015</v>
       </c>
       <c r="J48" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="K48" t="s">
         <v>2017</v>
@@ -33989,7 +33974,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="B49" t="s">
         <v>2013</v>
@@ -34004,17 +33989,17 @@
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="I49" t="s">
         <v>2015</v>
       </c>
       <c r="J49" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="K49" t="s">
         <v>2038</v>
@@ -34022,7 +34007,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="B50" t="s">
         <v>2013</v>
@@ -34037,17 +34022,17 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="I50" t="s">
         <v>2015</v>
       </c>
       <c r="J50" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="K50" t="s">
         <v>2017</v>
@@ -34055,7 +34040,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="B51" t="s">
         <v>2013</v>
@@ -34070,17 +34055,17 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="I51" t="s">
         <v>2015</v>
       </c>
       <c r="J51" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="K51" t="s">
         <v>2038</v>
@@ -34088,7 +34073,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="B52" t="s">
         <v>2013</v>
@@ -34103,17 +34088,17 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="I52" t="s">
         <v>2015</v>
       </c>
       <c r="J52" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="K52" t="s">
         <v>2038</v>
@@ -34121,7 +34106,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="B53" t="s">
         <v>2013</v>
@@ -34136,17 +34121,17 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="I53" t="s">
         <v>2015</v>
       </c>
       <c r="J53" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="K53" t="s">
         <v>2038</v>
@@ -34154,7 +34139,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="B54" t="s">
         <v>2013</v>
@@ -34169,25 +34154,25 @@
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="I54" t="s">
         <v>2015</v>
       </c>
       <c r="J54" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="K54" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="B55" t="s">
         <v>2013</v>
@@ -34202,17 +34187,17 @@
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="I55" t="s">
         <v>2015</v>
       </c>
       <c r="J55" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="K55" t="s">
         <v>2038</v>
@@ -34301,17 +34286,17 @@
         <v>94</v>
       </c>
       <c r="F58" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="I58" t="s">
         <v>2015</v>
       </c>
       <c r="J58" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="K58" t="s">
         <v>2017</v>
@@ -34352,7 +34337,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="B60" t="s">
         <v>2013</v>
@@ -34367,17 +34352,17 @@
         <v>94</v>
       </c>
       <c r="F60" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="I60" t="s">
         <v>2015</v>
       </c>
       <c r="J60" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="K60" t="s">
         <v>2017</v>
@@ -34385,7 +34370,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="B61" t="s">
         <v>2013</v>
@@ -34410,7 +34395,7 @@
         <v>2015</v>
       </c>
       <c r="J61" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="K61" t="s">
         <v>2017</v>
@@ -34418,7 +34403,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="B62" t="s">
         <v>2013</v>
@@ -34433,17 +34418,17 @@
         <v>94</v>
       </c>
       <c r="F62" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="I62" t="s">
         <v>2015</v>
       </c>
       <c r="J62" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="K62" t="s">
         <v>2017</v>
@@ -34451,7 +34436,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="B63" t="s">
         <v>2013</v>
@@ -34466,17 +34451,17 @@
         <v>94</v>
       </c>
       <c r="F63" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="I63" t="s">
         <v>2015</v>
       </c>
       <c r="J63" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="K63" t="s">
         <v>2017</v>
@@ -34484,7 +34469,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="B64" t="s">
         <v>2013</v>
@@ -34499,17 +34484,17 @@
         <v>94</v>
       </c>
       <c r="F64" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="I64" t="s">
         <v>2015</v>
       </c>
       <c r="J64" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="K64" t="s">
         <v>2017</v>
@@ -34517,7 +34502,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="B65" t="s">
         <v>2013</v>
@@ -34532,17 +34517,17 @@
         <v>94</v>
       </c>
       <c r="F65" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="I65" t="s">
         <v>2015</v>
       </c>
       <c r="J65" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="K65" t="s">
         <v>2017</v>
@@ -34550,7 +34535,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="B66" t="s">
         <v>2013</v>
@@ -34565,17 +34550,17 @@
         <v>94</v>
       </c>
       <c r="F66" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="I66" t="s">
         <v>2015</v>
       </c>
       <c r="J66" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="K66" t="s">
         <v>2017</v>
@@ -34583,7 +34568,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="B67" t="s">
         <v>2013</v>
@@ -34598,17 +34583,17 @@
         <v>94</v>
       </c>
       <c r="F67" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="I67" t="s">
         <v>2015</v>
       </c>
       <c r="J67" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="K67" t="s">
         <v>2017</v>
@@ -34616,7 +34601,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="B68" t="s">
         <v>2013</v>
@@ -34631,17 +34616,17 @@
         <v>94</v>
       </c>
       <c r="F68" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="I68" t="s">
         <v>2015</v>
       </c>
       <c r="J68" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="K68" t="s">
         <v>2017</v>
@@ -34649,7 +34634,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="B69" t="s">
         <v>2013</v>
@@ -34664,17 +34649,17 @@
         <v>94</v>
       </c>
       <c r="F69" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="I69" t="s">
         <v>2015</v>
       </c>
       <c r="J69" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="K69" t="s">
         <v>2017</v>
@@ -34682,7 +34667,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="B70" t="s">
         <v>2013</v>
@@ -34697,17 +34682,17 @@
         <v>94</v>
       </c>
       <c r="F70" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="I70" t="s">
         <v>2015</v>
       </c>
       <c r="J70" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="K70" t="s">
         <v>2017</v>
@@ -34715,7 +34700,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="B71" t="s">
         <v>2013</v>
@@ -34730,17 +34715,17 @@
         <v>94</v>
       </c>
       <c r="F71" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="I71" t="s">
         <v>2015</v>
       </c>
       <c r="J71" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="K71" t="s">
         <v>2017</v>
@@ -34748,7 +34733,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="B72" t="s">
         <v>2013</v>
@@ -34763,17 +34748,17 @@
         <v>94</v>
       </c>
       <c r="F72" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="I72" t="s">
         <v>2015</v>
       </c>
       <c r="J72" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="K72" t="s">
         <v>2017</v>
@@ -34781,7 +34766,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="B73" t="s">
         <v>2013</v>
@@ -34796,17 +34781,17 @@
         <v>94</v>
       </c>
       <c r="F73" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="I73" t="s">
         <v>2015</v>
       </c>
       <c r="J73" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="K73" t="s">
         <v>2017</v>
@@ -34814,7 +34799,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="B74" t="s">
         <v>2013</v>
@@ -34829,17 +34814,17 @@
         <v>94</v>
       </c>
       <c r="F74" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I74" t="s">
         <v>2015</v>
       </c>
       <c r="J74" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="K74" t="s">
         <v>2017</v>
@@ -34847,10 +34832,10 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="B75" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -34862,28 +34847,28 @@
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I75" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J75" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="K75" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="B76" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -34895,28 +34880,28 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="I76" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J76" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="K76" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="B77" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -34928,28 +34913,28 @@
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="G77" t="s"/>
       <c r="H77" t="s">
         <v>1243</v>
       </c>
       <c r="I77" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J77" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="K77" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="B78" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -34961,28 +34946,28 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="I78" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J78" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="K78" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="B79" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -35001,21 +34986,21 @@
         <v>1746</v>
       </c>
       <c r="I79" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J79" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="K79" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="B80" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -35027,28 +35012,28 @@
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="I80" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J80" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="K80" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="B81" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -35060,28 +35045,28 @@
         <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="I81" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J81" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="K81" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="B82" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -35093,28 +35078,28 @@
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="G82" t="s"/>
       <c r="H82" t="s">
         <v>1784</v>
       </c>
       <c r="I82" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J82" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="K82" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="B83" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -35130,24 +35115,24 @@
       </c>
       <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="I83" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J83" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="K83" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="B84" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -35163,24 +35148,24 @@
       </c>
       <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="I84" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J84" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="K84" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="B85" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -35196,24 +35181,24 @@
       </c>
       <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="I85" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J85" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="K85" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="B86" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -35225,28 +35210,28 @@
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="I86" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J86" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="K86" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="B87" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -35258,28 +35243,28 @@
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="I87" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J87" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="K87" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="B88" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -35291,28 +35276,28 @@
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="I88" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J88" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="K88" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="B89" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -35324,28 +35309,28 @@
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="I89" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J89" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="K89" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="B90" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -35357,28 +35342,28 @@
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="I90" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J90" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="K90" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="B91" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -35394,24 +35379,24 @@
       </c>
       <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="I91" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J91" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="K91" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="B92" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -35427,24 +35412,24 @@
       </c>
       <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="I92" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J92" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="K92" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="B93" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -35456,28 +35441,28 @@
         <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="I93" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J93" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="K93" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="B94" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -35493,24 +35478,24 @@
       </c>
       <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="I94" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J94" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="K94" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="B95" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -35522,28 +35507,28 @@
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="I95" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J95" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="K95" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="B96" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -35555,28 +35540,28 @@
         <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="I96" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J96" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="K96" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="B97" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -35588,28 +35573,28 @@
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="I97" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J97" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="K97" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="B98" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -35621,28 +35606,28 @@
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="I98" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J98" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="K98" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="B99" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -35654,28 +35639,28 @@
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="I99" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J99" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="K99" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="B100" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -35687,28 +35672,28 @@
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="I100" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J100" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="K100" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="B101" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -35727,21 +35712,21 @@
         <v>1843</v>
       </c>
       <c r="I101" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J101" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="K101" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="B102" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -35753,28 +35738,28 @@
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="I102" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J102" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="K102" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="B103" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -35790,24 +35775,24 @@
       </c>
       <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="I103" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J103" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="K103" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="B104" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -35819,28 +35804,28 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="I104" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J104" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="K104" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="B105" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -35852,28 +35837,28 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="I105" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J105" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="K105" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="B106" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -35885,28 +35870,28 @@
         <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="I106" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J106" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="K106" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="B107" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -35918,28 +35903,28 @@
         <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="I107" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J107" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="K107" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="B108" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -35951,28 +35936,28 @@
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="I108" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J108" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="K108" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="B109" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -35984,28 +35969,28 @@
         <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="I109" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J109" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="K109" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="B110" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -36017,28 +36002,28 @@
         <v>14</v>
       </c>
       <c r="F110" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="I110" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J110" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="K110" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="B111" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -36050,28 +36035,28 @@
         <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="I111" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J111" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="K111" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="B112" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
@@ -36083,28 +36068,28 @@
         <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="I112" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J112" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="K112" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="B113" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -36116,28 +36101,28 @@
         <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="I113" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J113" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="K113" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="B114" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -36149,28 +36134,28 @@
         <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="I114" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J114" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="K114" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="B115" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -36182,28 +36167,28 @@
         <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="I115" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J115" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="K115" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="B116" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -36215,28 +36200,28 @@
         <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="I116" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J116" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="K116" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="B117" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
@@ -36248,28 +36233,28 @@
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="I117" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J117" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="K117" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="B118" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -36281,28 +36266,28 @@
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="I118" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J118" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="K118" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="B119" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
@@ -36314,28 +36299,28 @@
         <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="I119" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J119" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="K119" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="B120" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
@@ -36347,28 +36332,28 @@
         <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="I120" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J120" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="K120" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="B121" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
@@ -36380,28 +36365,28 @@
         <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="I121" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J121" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="K121" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="B122" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C122" t="s">
         <v>94</v>
@@ -36413,28 +36398,28 @@
         <v>94</v>
       </c>
       <c r="F122" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="I122" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J122" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="K122" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="B123" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C123" t="s">
         <v>94</v>
@@ -36446,28 +36431,28 @@
         <v>94</v>
       </c>
       <c r="F123" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="I123" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J123" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="K123" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="B124" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C124" t="s">
         <v>94</v>
@@ -36479,28 +36464,28 @@
         <v>94</v>
       </c>
       <c r="F124" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="I124" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J124" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="K124" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="B125" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C125" t="s">
         <v>94</v>
@@ -36512,28 +36497,28 @@
         <v>94</v>
       </c>
       <c r="F125" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="I125" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J125" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="K125" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="B126" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C126" t="s">
         <v>94</v>
@@ -36545,28 +36530,28 @@
         <v>94</v>
       </c>
       <c r="F126" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="I126" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J126" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="K126" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="B127" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C127" t="s">
         <v>94</v>
@@ -36582,24 +36567,24 @@
       </c>
       <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="I127" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J127" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="K127" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="B128" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C128" t="s">
         <v>94</v>
@@ -36611,28 +36596,28 @@
         <v>94</v>
       </c>
       <c r="F128" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="I128" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J128" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="K128" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="B129" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C129" t="s">
         <v>94</v>
@@ -36644,28 +36629,28 @@
         <v>94</v>
       </c>
       <c r="F129" t="s">
-        <v>2322</v>
+        <v>2244</v>
       </c>
       <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>2322</v>
+        <v>2244</v>
       </c>
       <c r="I129" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J129" t="s">
-        <v>2323</v>
+        <v>2245</v>
       </c>
       <c r="K129" t="s">
-        <v>2156</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="B130" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C130" t="s">
         <v>94</v>
@@ -36677,28 +36662,28 @@
         <v>94</v>
       </c>
       <c r="F130" t="s">
-        <v>2325</v>
+        <v>2244</v>
       </c>
       <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>2325</v>
+        <v>2244</v>
       </c>
       <c r="I130" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J130" t="s">
-        <v>2326</v>
+        <v>2245</v>
       </c>
       <c r="K130" t="s">
-        <v>2156</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="B131" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C131" t="s">
         <v>94</v>
@@ -36710,28 +36695,28 @@
         <v>94</v>
       </c>
       <c r="F131" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="I131" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J131" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="K131" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="B132" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C132" t="s">
         <v>94</v>
@@ -36743,28 +36728,28 @@
         <v>94</v>
       </c>
       <c r="F132" t="s">
-        <v>2331</v>
+        <v>1843</v>
       </c>
       <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>2331</v>
+        <v>1843</v>
       </c>
       <c r="I132" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J132" t="s">
-        <v>2332</v>
+        <v>2247</v>
       </c>
       <c r="K132" t="s">
-        <v>2156</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="B133" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C133" t="s">
         <v>94</v>
@@ -36776,28 +36761,28 @@
         <v>94</v>
       </c>
       <c r="F133" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="I133" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J133" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="K133" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="B134" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C134" t="s">
         <v>94</v>
@@ -36809,28 +36794,28 @@
         <v>94</v>
       </c>
       <c r="F134" t="s">
-        <v>2337</v>
+        <v>2241</v>
       </c>
       <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>2337</v>
+        <v>2241</v>
       </c>
       <c r="I134" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J134" t="s">
-        <v>2338</v>
+        <v>2242</v>
       </c>
       <c r="K134" t="s">
-        <v>2156</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>2339</v>
+        <v>2334</v>
       </c>
       <c r="B135" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C135" t="s">
         <v>94</v>
@@ -36842,28 +36827,28 @@
         <v>94</v>
       </c>
       <c r="F135" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="I135" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J135" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="K135" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="B136" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C136" t="s">
         <v>94</v>
@@ -36875,28 +36860,28 @@
         <v>94</v>
       </c>
       <c r="F136" t="s">
-        <v>2341</v>
+        <v>2336</v>
       </c>
       <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>2341</v>
+        <v>2336</v>
       </c>
       <c r="I136" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J136" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="K136" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="B137" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C137" t="s">
         <v>94</v>
@@ -36908,28 +36893,28 @@
         <v>94</v>
       </c>
       <c r="F137" t="s">
-        <v>2343</v>
+        <v>2338</v>
       </c>
       <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>2343</v>
+        <v>2338</v>
       </c>
       <c r="I137" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J137" t="s">
-        <v>2344</v>
+        <v>2339</v>
       </c>
       <c r="K137" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="B138" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C138" t="s">
         <v>94</v>
@@ -36941,28 +36926,28 @@
         <v>94</v>
       </c>
       <c r="F138" t="s">
-        <v>2345</v>
+        <v>2340</v>
       </c>
       <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>2345</v>
+        <v>2340</v>
       </c>
       <c r="I138" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J138" t="s">
-        <v>2346</v>
+        <v>2341</v>
       </c>
       <c r="K138" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="B139" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C139" t="s">
         <v>94</v>
@@ -36974,28 +36959,28 @@
         <v>94</v>
       </c>
       <c r="F139" t="s">
-        <v>2347</v>
+        <v>2342</v>
       </c>
       <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>2347</v>
+        <v>2342</v>
       </c>
       <c r="I139" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J139" t="s">
-        <v>2348</v>
+        <v>2343</v>
       </c>
       <c r="K139" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="B140" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C140" t="s">
         <v>94</v>
@@ -37007,28 +36992,28 @@
         <v>94</v>
       </c>
       <c r="F140" t="s">
-        <v>2349</v>
+        <v>2344</v>
       </c>
       <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>2349</v>
+        <v>2344</v>
       </c>
       <c r="I140" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J140" t="s">
-        <v>2350</v>
+        <v>2345</v>
       </c>
       <c r="K140" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>2351</v>
+        <v>2346</v>
       </c>
       <c r="B141" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C141" t="s">
         <v>94</v>
@@ -37040,28 +37025,28 @@
         <v>94</v>
       </c>
       <c r="F141" t="s">
-        <v>2352</v>
+        <v>2347</v>
       </c>
       <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>2352</v>
+        <v>2347</v>
       </c>
       <c r="I141" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J141" t="s">
-        <v>2353</v>
+        <v>2348</v>
       </c>
       <c r="K141" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>2351</v>
+        <v>2346</v>
       </c>
       <c r="B142" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C142" t="s">
         <v>94</v>
@@ -37073,28 +37058,28 @@
         <v>94</v>
       </c>
       <c r="F142" t="s">
-        <v>2354</v>
+        <v>2349</v>
       </c>
       <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>2354</v>
+        <v>2349</v>
       </c>
       <c r="I142" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J142" t="s">
-        <v>2355</v>
+        <v>2350</v>
       </c>
       <c r="K142" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>2351</v>
+        <v>2346</v>
       </c>
       <c r="B143" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C143" t="s">
         <v>94</v>
@@ -37106,28 +37091,28 @@
         <v>94</v>
       </c>
       <c r="F143" t="s">
-        <v>2356</v>
+        <v>2351</v>
       </c>
       <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>2356</v>
+        <v>2351</v>
       </c>
       <c r="I143" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J143" t="s">
-        <v>2357</v>
+        <v>2352</v>
       </c>
       <c r="K143" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>2351</v>
+        <v>2346</v>
       </c>
       <c r="B144" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C144" t="s">
         <v>94</v>
@@ -37139,28 +37124,28 @@
         <v>94</v>
       </c>
       <c r="F144" t="s">
-        <v>2358</v>
+        <v>2353</v>
       </c>
       <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>2358</v>
+        <v>2353</v>
       </c>
       <c r="I144" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J144" t="s">
-        <v>2359</v>
+        <v>2354</v>
       </c>
       <c r="K144" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>2351</v>
+        <v>2346</v>
       </c>
       <c r="B145" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C145" t="s">
         <v>94</v>
@@ -37172,28 +37157,28 @@
         <v>94</v>
       </c>
       <c r="F145" t="s">
-        <v>2360</v>
+        <v>2355</v>
       </c>
       <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>2360</v>
+        <v>2355</v>
       </c>
       <c r="I145" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J145" t="s">
-        <v>2361</v>
+        <v>2356</v>
       </c>
       <c r="K145" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
       <c r="B146" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C146" t="s">
         <v>94</v>
@@ -37205,28 +37190,28 @@
         <v>94</v>
       </c>
       <c r="F146" t="s">
-        <v>2363</v>
+        <v>2358</v>
       </c>
       <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>2363</v>
+        <v>2358</v>
       </c>
       <c r="I146" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J146" t="s">
-        <v>2364</v>
+        <v>2359</v>
       </c>
       <c r="K146" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
       <c r="B147" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C147" t="s">
         <v>94</v>
@@ -37238,28 +37223,28 @@
         <v>94</v>
       </c>
       <c r="F147" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
       <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
       <c r="I147" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J147" t="s">
-        <v>2366</v>
+        <v>2361</v>
       </c>
       <c r="K147" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
       <c r="B148" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C148" t="s">
         <v>94</v>
@@ -37271,28 +37256,28 @@
         <v>94</v>
       </c>
       <c r="F148" t="s">
-        <v>2367</v>
+        <v>2362</v>
       </c>
       <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>2367</v>
+        <v>2362</v>
       </c>
       <c r="I148" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J148" t="s">
-        <v>2368</v>
+        <v>2363</v>
       </c>
       <c r="K148" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
       <c r="B149" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C149" t="s">
         <v>94</v>
@@ -37304,28 +37289,28 @@
         <v>94</v>
       </c>
       <c r="F149" t="s">
-        <v>2369</v>
+        <v>2364</v>
       </c>
       <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>2369</v>
+        <v>2364</v>
       </c>
       <c r="I149" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J149" t="s">
-        <v>2370</v>
+        <v>2365</v>
       </c>
       <c r="K149" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
       <c r="B150" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C150" t="s">
         <v>94</v>
@@ -37337,28 +37322,28 @@
         <v>94</v>
       </c>
       <c r="F150" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="I150" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J150" t="s">
-        <v>2372</v>
+        <v>2367</v>
       </c>
       <c r="K150" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
       <c r="B151" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C151" t="s">
         <v>94</v>
@@ -37370,28 +37355,28 @@
         <v>94</v>
       </c>
       <c r="F151" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
       <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
       <c r="I151" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J151" t="s">
-        <v>2375</v>
+        <v>2370</v>
       </c>
       <c r="K151" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
       <c r="B152" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C152" t="s">
         <v>94</v>
@@ -37403,28 +37388,28 @@
         <v>94</v>
       </c>
       <c r="F152" t="s">
-        <v>2328</v>
+        <v>2371</v>
       </c>
       <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>2328</v>
+        <v>2371</v>
       </c>
       <c r="I152" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J152" t="s">
-        <v>2329</v>
+        <v>2372</v>
       </c>
       <c r="K152" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
       <c r="B153" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C153" t="s">
         <v>94</v>
@@ -37436,28 +37421,28 @@
         <v>94</v>
       </c>
       <c r="F153" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="I153" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J153" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="K153" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
       <c r="B154" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C154" t="s">
         <v>94</v>
@@ -37469,28 +37454,28 @@
         <v>94</v>
       </c>
       <c r="F154" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="I154" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J154" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="K154" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
       <c r="B155" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C155" t="s">
         <v>94</v>
@@ -37502,28 +37487,28 @@
         <v>94</v>
       </c>
       <c r="F155" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="I155" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J155" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="K155" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="B156" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C156" t="s">
         <v>94</v>
@@ -37535,28 +37520,28 @@
         <v>94</v>
       </c>
       <c r="F156" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="I156" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J156" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="K156" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="B157" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C157" t="s">
         <v>94</v>
@@ -37568,28 +37553,28 @@
         <v>94</v>
       </c>
       <c r="F157" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="I157" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J157" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="K157" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="B158" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C158" t="s">
         <v>94</v>
@@ -37601,28 +37586,28 @@
         <v>94</v>
       </c>
       <c r="F158" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="I158" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J158" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="K158" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="B159" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C159" t="s">
         <v>94</v>
@@ -37634,28 +37619,28 @@
         <v>94</v>
       </c>
       <c r="F159" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="I159" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J159" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="K159" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="B160" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C160" t="s">
         <v>94</v>
@@ -37667,28 +37652,28 @@
         <v>94</v>
       </c>
       <c r="F160" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="I160" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J160" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="K160" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="B161" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C161" t="s">
         <v>94</v>
@@ -37700,28 +37685,28 @@
         <v>94</v>
       </c>
       <c r="F161" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="I161" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J161" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="K161" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="B162" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C162" t="s">
         <v>94</v>
@@ -37733,28 +37718,28 @@
         <v>94</v>
       </c>
       <c r="F162" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="I162" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J162" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="K162" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="B163" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C163" t="s">
         <v>94</v>
@@ -37766,28 +37751,28 @@
         <v>94</v>
       </c>
       <c r="F163" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="I163" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J163" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="K163" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="B164" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C164" t="s">
         <v>94</v>
@@ -37799,28 +37784,28 @@
         <v>94</v>
       </c>
       <c r="F164" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="I164" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J164" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="K164" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="B165" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C165" t="s">
         <v>94</v>
@@ -37832,28 +37817,28 @@
         <v>94</v>
       </c>
       <c r="F165" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="I165" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J165" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="K165" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="B166" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="C166" t="s">
         <v>14</v>
@@ -37865,28 +37850,28 @@
         <v>14</v>
       </c>
       <c r="F166" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="I166" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J166" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="K166" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="B167" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="C167" t="s">
         <v>94</v>
@@ -37898,25 +37883,25 @@
         <v>94</v>
       </c>
       <c r="F167" t="s">
-        <v>2341</v>
+        <v>2336</v>
       </c>
       <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>2341</v>
+        <v>2336</v>
       </c>
       <c r="I167" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J167" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="K167" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="B168" t="s">
         <v>1933</v>
@@ -37931,25 +37916,25 @@
         <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="I168" t="s">
         <v>1936</v>
       </c>
       <c r="J168" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="K168" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="B169" t="s">
         <v>1933</v>
@@ -37964,25 +37949,25 @@
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="I169" t="s">
         <v>1936</v>
       </c>
       <c r="J169" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="K169" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="B170" t="s">
         <v>1933</v>
@@ -37997,25 +37982,25 @@
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="I170" t="s">
         <v>1936</v>
       </c>
       <c r="J170" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="K170" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="B171" t="s">
         <v>1933</v>
@@ -38034,21 +38019,21 @@
       </c>
       <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="I171" t="s">
         <v>1936</v>
       </c>
       <c r="J171" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="K171" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="B172" t="s">
         <v>1933</v>
@@ -38063,25 +38048,25 @@
         <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>2425</v>
+        <v>826</v>
       </c>
       <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>427</v>
+        <v>2422</v>
       </c>
       <c r="I172" t="s">
         <v>1936</v>
       </c>
       <c r="J172" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="K172" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="B173" t="s">
         <v>1933</v>
@@ -38096,25 +38081,25 @@
         <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>2425</v>
+        <v>826</v>
       </c>
       <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>427</v>
+        <v>2422</v>
       </c>
       <c r="I173" t="s">
         <v>1936</v>
       </c>
       <c r="J173" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="K173" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="B174" t="s">
         <v>1933</v>
@@ -38133,21 +38118,21 @@
       </c>
       <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>2430</v>
+        <v>2422</v>
       </c>
       <c r="I174" t="s">
         <v>1936</v>
       </c>
       <c r="J174" t="s">
-        <v>2431</v>
+        <v>2423</v>
       </c>
       <c r="K174" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" t="s">
-        <v>2432</v>
+        <v>2427</v>
       </c>
       <c r="B175" t="s">
         <v>1933</v>
@@ -38162,25 +38147,25 @@
         <v>14</v>
       </c>
       <c r="F175" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="I175" t="s">
         <v>1936</v>
       </c>
       <c r="J175" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="K175" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="B176" t="s">
         <v>1933</v>
@@ -38195,25 +38180,25 @@
         <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
       <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>2437</v>
+        <v>2432</v>
       </c>
       <c r="I176" t="s">
         <v>1936</v>
       </c>
       <c r="J176" t="s">
-        <v>2438</v>
+        <v>2433</v>
       </c>
       <c r="K176" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" t="s">
-        <v>2439</v>
+        <v>2434</v>
       </c>
       <c r="B177" t="s">
         <v>1933</v>
@@ -38228,25 +38213,25 @@
         <v>14</v>
       </c>
       <c r="F177" t="s">
-        <v>2440</v>
+        <v>2435</v>
       </c>
       <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>2440</v>
+        <v>2435</v>
       </c>
       <c r="I177" t="s">
         <v>1936</v>
       </c>
       <c r="J177" t="s">
-        <v>2441</v>
+        <v>2436</v>
       </c>
       <c r="K177" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" t="s">
-        <v>2442</v>
+        <v>2437</v>
       </c>
       <c r="B178" t="s">
         <v>1933</v>
@@ -38265,21 +38250,21 @@
       </c>
       <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>2443</v>
+        <v>2438</v>
       </c>
       <c r="I178" t="s">
         <v>1936</v>
       </c>
       <c r="J178" t="s">
-        <v>2444</v>
+        <v>2439</v>
       </c>
       <c r="K178" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" t="s">
-        <v>2446</v>
+        <v>2441</v>
       </c>
       <c r="B179" t="s">
         <v>1933</v>
@@ -38300,7 +38285,7 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" t="s">
-        <v>2447</v>
+        <v>2442</v>
       </c>
       <c r="B180" t="s">
         <v>1933</v>
@@ -38321,7 +38306,7 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" t="s">
-        <v>2448</v>
+        <v>2443</v>
       </c>
       <c r="B181" t="s">
         <v>1933</v>
@@ -38342,7 +38327,7 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" t="s">
-        <v>2449</v>
+        <v>2444</v>
       </c>
       <c r="B182" t="s">
         <v>1933</v>
@@ -38363,7 +38348,7 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" t="s">
-        <v>2450</v>
+        <v>2445</v>
       </c>
       <c r="B183" t="s">
         <v>1933</v>
@@ -38384,7 +38369,7 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184" t="s">
-        <v>2451</v>
+        <v>2446</v>
       </c>
       <c r="B184" t="s">
         <v>1933</v>
@@ -38405,7 +38390,7 @@
     </row>
     <row r="185" spans="1:11">
       <c r="A185" t="s">
-        <v>2452</v>
+        <v>2447</v>
       </c>
       <c r="B185" t="s">
         <v>1933</v>
@@ -38426,7 +38411,7 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186" t="s">
-        <v>2453</v>
+        <v>2448</v>
       </c>
       <c r="B186" t="s">
         <v>1933</v>
@@ -38447,7 +38432,7 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="B187" t="s">
         <v>1933</v>
@@ -38462,25 +38447,25 @@
         <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
       <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
       <c r="I187" t="s">
         <v>1936</v>
       </c>
       <c r="J187" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
       <c r="K187" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" t="s">
-        <v>2457</v>
+        <v>2452</v>
       </c>
       <c r="B188" t="s">
         <v>1933</v>
@@ -38499,21 +38484,21 @@
       </c>
       <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>2443</v>
+        <v>2438</v>
       </c>
       <c r="I188" t="s">
         <v>1936</v>
       </c>
       <c r="J188" t="s">
-        <v>2444</v>
+        <v>2439</v>
       </c>
       <c r="K188" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" t="s">
-        <v>2458</v>
+        <v>2453</v>
       </c>
       <c r="B189" t="s">
         <v>1933</v>
@@ -38528,25 +38513,25 @@
         <v>14</v>
       </c>
       <c r="F189" t="s">
-        <v>2459</v>
+        <v>2454</v>
       </c>
       <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>2459</v>
+        <v>2454</v>
       </c>
       <c r="I189" t="s">
         <v>1936</v>
       </c>
       <c r="J189" t="s">
-        <v>2460</v>
+        <v>2455</v>
       </c>
       <c r="K189" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" t="s">
-        <v>2462</v>
+        <v>2457</v>
       </c>
       <c r="B190" t="s">
         <v>1933</v>
@@ -38561,25 +38546,25 @@
         <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>2463</v>
+        <v>2458</v>
       </c>
       <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>2463</v>
+        <v>2458</v>
       </c>
       <c r="I190" t="s">
         <v>1936</v>
       </c>
       <c r="J190" t="s">
-        <v>2464</v>
+        <v>2459</v>
       </c>
       <c r="K190" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="B191" t="s">
         <v>1933</v>
@@ -38594,25 +38579,25 @@
         <v>94</v>
       </c>
       <c r="F191" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="I191" t="s">
         <v>1936</v>
       </c>
       <c r="J191" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="K191" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="B192" t="s">
         <v>1933</v>
@@ -38627,25 +38612,25 @@
         <v>94</v>
       </c>
       <c r="F192" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="I192" t="s">
         <v>1936</v>
       </c>
       <c r="J192" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="K192" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="B193" t="s">
         <v>1933</v>
@@ -38664,21 +38649,21 @@
       </c>
       <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="I193" t="s">
         <v>1936</v>
       </c>
       <c r="J193" t="s">
-        <v>2466</v>
+        <v>2461</v>
       </c>
       <c r="K193" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="B194" t="s">
         <v>1933</v>
@@ -38697,21 +38682,21 @@
       </c>
       <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="I194" t="s">
         <v>1936</v>
       </c>
       <c r="J194" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="K194" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="B195" t="s">
         <v>1933</v>
@@ -38726,25 +38711,25 @@
         <v>94</v>
       </c>
       <c r="F195" t="s">
-        <v>2425</v>
+        <v>2462</v>
       </c>
       <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>427</v>
+        <v>2462</v>
       </c>
       <c r="I195" t="s">
         <v>1936</v>
       </c>
       <c r="J195" t="s">
-        <v>2426</v>
+        <v>2463</v>
       </c>
       <c r="K195" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="B196" t="s">
         <v>1933</v>
@@ -38759,25 +38744,25 @@
         <v>94</v>
       </c>
       <c r="F196" t="s">
-        <v>2467</v>
+        <v>2462</v>
       </c>
       <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>2467</v>
+        <v>2462</v>
       </c>
       <c r="I196" t="s">
         <v>1936</v>
       </c>
       <c r="J196" t="s">
-        <v>2468</v>
+        <v>2463</v>
       </c>
       <c r="K196" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="B197" t="s">
         <v>1933</v>
@@ -38796,21 +38781,21 @@
       </c>
       <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>2430</v>
+        <v>2422</v>
       </c>
       <c r="I197" t="s">
         <v>1936</v>
       </c>
       <c r="J197" t="s">
-        <v>2431</v>
+        <v>2423</v>
       </c>
       <c r="K197" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" t="s">
-        <v>2432</v>
+        <v>2427</v>
       </c>
       <c r="B198" t="s">
         <v>1933</v>
@@ -38825,25 +38810,25 @@
         <v>94</v>
       </c>
       <c r="F198" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="I198" t="s">
         <v>1936</v>
       </c>
       <c r="J198" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="K198" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="B199" t="s">
         <v>1933</v>
@@ -38858,25 +38843,25 @@
         <v>94</v>
       </c>
       <c r="F199" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
       <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>2437</v>
+        <v>2432</v>
       </c>
       <c r="I199" t="s">
         <v>1936</v>
       </c>
       <c r="J199" t="s">
-        <v>2438</v>
+        <v>2433</v>
       </c>
       <c r="K199" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" t="s">
-        <v>2439</v>
+        <v>2434</v>
       </c>
       <c r="B200" t="s">
         <v>1933</v>
@@ -38891,25 +38876,25 @@
         <v>94</v>
       </c>
       <c r="F200" t="s">
-        <v>2440</v>
+        <v>2435</v>
       </c>
       <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>2440</v>
+        <v>2435</v>
       </c>
       <c r="I200" t="s">
         <v>1936</v>
       </c>
       <c r="J200" t="s">
-        <v>2441</v>
+        <v>2436</v>
       </c>
       <c r="K200" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" t="s">
-        <v>2447</v>
+        <v>2442</v>
       </c>
       <c r="B201" t="s">
         <v>1933</v>
@@ -38930,7 +38915,7 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" t="s">
-        <v>2448</v>
+        <v>2443</v>
       </c>
       <c r="B202" t="s">
         <v>1933</v>
@@ -38951,7 +38936,7 @@
     </row>
     <row r="203" spans="1:11">
       <c r="A203" t="s">
-        <v>2449</v>
+        <v>2444</v>
       </c>
       <c r="B203" t="s">
         <v>1933</v>
@@ -38972,7 +38957,7 @@
     </row>
     <row r="204" spans="1:11">
       <c r="A204" t="s">
-        <v>2450</v>
+        <v>2445</v>
       </c>
       <c r="B204" t="s">
         <v>1933</v>
@@ -38993,7 +38978,7 @@
     </row>
     <row r="205" spans="1:11">
       <c r="A205" t="s">
-        <v>2451</v>
+        <v>2446</v>
       </c>
       <c r="B205" t="s">
         <v>1933</v>
@@ -39014,7 +38999,7 @@
     </row>
     <row r="206" spans="1:11">
       <c r="A206" t="s">
-        <v>2452</v>
+        <v>2447</v>
       </c>
       <c r="B206" t="s">
         <v>1933</v>
@@ -39035,7 +39020,7 @@
     </row>
     <row r="207" spans="1:11">
       <c r="A207" t="s">
-        <v>2453</v>
+        <v>2448</v>
       </c>
       <c r="B207" t="s">
         <v>1933</v>
@@ -39056,7 +39041,7 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208" t="s">
-        <v>2469</v>
+        <v>2464</v>
       </c>
       <c r="B208" t="s">
         <v>1933</v>
@@ -39071,25 +39056,25 @@
         <v>94</v>
       </c>
       <c r="F208" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>2471</v>
+        <v>2466</v>
       </c>
       <c r="I208" t="s">
         <v>1936</v>
       </c>
       <c r="J208" t="s">
-        <v>2472</v>
+        <v>2467</v>
       </c>
       <c r="K208" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="B209" t="s">
         <v>1933</v>
@@ -39104,20 +39089,20 @@
         <v>94</v>
       </c>
       <c r="F209" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
       <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
       <c r="I209" t="s">
         <v>1936</v>
       </c>
       <c r="J209" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
       <c r="K209" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
     </row>
   </sheetData>
@@ -39148,7 +39133,7 @@
     <col customWidth="1" max="7" min="7" width="10"/>
     <col customWidth="1" max="8" min="8" width="8"/>
     <col customWidth="1" max="9" min="9" width="15"/>
-    <col customWidth="1" max="10" min="10" width="53"/>
+    <col customWidth="1" max="10" min="10" width="46"/>
     <col customWidth="1" max="11" min="11" width="19"/>
   </cols>
   <sheetData>
@@ -39189,7 +39174,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>2473</v>
+        <v>2468</v>
       </c>
       <c r="B2" t="s">
         <v>1948</v>
@@ -39204,25 +39189,25 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>2474</v>
+        <v>2469</v>
       </c>
       <c r="G2" t="s"/>
       <c r="H2" t="s">
-        <v>2475</v>
+        <v>2470</v>
       </c>
       <c r="I2" t="s">
         <v>1948</v>
       </c>
       <c r="J2" t="s">
-        <v>2476</v>
+        <v>2471</v>
       </c>
       <c r="K2" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>2478</v>
+        <v>2473</v>
       </c>
       <c r="B3" t="s">
         <v>1948</v>
@@ -39237,25 +39222,25 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>2479</v>
+        <v>2474</v>
       </c>
       <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>2479</v>
+        <v>2475</v>
       </c>
       <c r="I3" t="s">
         <v>1948</v>
       </c>
       <c r="J3" t="s">
-        <v>2480</v>
+        <v>2476</v>
       </c>
       <c r="K3" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>2481</v>
+        <v>2477</v>
       </c>
       <c r="B4" t="s">
         <v>1948</v>
@@ -39270,25 +39255,25 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>2482</v>
+        <v>2478</v>
       </c>
       <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
       <c r="I4" t="s">
         <v>1948</v>
       </c>
       <c r="J4" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
       <c r="K4" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="B5" t="s">
         <v>1948</v>
@@ -39303,25 +39288,25 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>2486</v>
+        <v>2482</v>
       </c>
       <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>2487</v>
+        <v>2483</v>
       </c>
       <c r="I5" t="s">
         <v>1948</v>
       </c>
       <c r="J5" t="s">
-        <v>2488</v>
+        <v>2484</v>
       </c>
       <c r="K5" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>2489</v>
+        <v>2485</v>
       </c>
       <c r="B6" t="s">
         <v>1948</v>
@@ -39336,17 +39321,17 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>2490</v>
+        <v>2486</v>
       </c>
       <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>2491</v>
+        <v>2487</v>
       </c>
       <c r="I6" t="s">
         <v>1948</v>
       </c>
       <c r="J6" t="s">
-        <v>2492</v>
+        <v>2488</v>
       </c>
       <c r="K6" t="s">
         <v>1951</v>
@@ -39354,7 +39339,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>2493</v>
+        <v>2489</v>
       </c>
       <c r="B7" t="s">
         <v>1948</v>
@@ -39369,25 +39354,25 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
       <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
       <c r="I7" t="s">
         <v>1948</v>
       </c>
       <c r="J7" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
       <c r="K7" t="s">
-        <v>2496</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>2497</v>
+        <v>2493</v>
       </c>
       <c r="B8" t="s">
         <v>1948</v>
@@ -39402,25 +39387,25 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
       <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
       <c r="I8" t="s">
         <v>1948</v>
       </c>
       <c r="J8" t="s">
-        <v>2499</v>
+        <v>2495</v>
       </c>
       <c r="K8" t="s">
-        <v>2496</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
       <c r="B9" t="s">
         <v>1948</v>
@@ -39435,7 +39420,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="G9" t="s"/>
       <c r="H9" t="s">
@@ -39445,15 +39430,15 @@
         <v>1948</v>
       </c>
       <c r="J9" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="K9" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
       <c r="B10" t="s">
         <v>1948</v>
@@ -39468,25 +39453,25 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="I10" t="s">
         <v>1948</v>
       </c>
       <c r="J10" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="K10" t="s">
-        <v>2496</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="B11" t="s">
         <v>1948</v>
@@ -39501,25 +39486,25 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>2479</v>
+        <v>2503</v>
       </c>
       <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>2479</v>
+        <v>2503</v>
       </c>
       <c r="I11" t="s">
         <v>1948</v>
       </c>
       <c r="J11" t="s">
-        <v>2480</v>
+        <v>2504</v>
       </c>
       <c r="K11" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>2473</v>
+        <v>2468</v>
       </c>
       <c r="B12" t="s">
         <v>1948</v>
@@ -39534,25 +39519,25 @@
         <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>2474</v>
+        <v>2469</v>
       </c>
       <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="I12" t="s">
         <v>1948</v>
       </c>
       <c r="J12" t="s">
-        <v>2476</v>
+        <v>2471</v>
       </c>
       <c r="K12" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>2478</v>
+        <v>2473</v>
       </c>
       <c r="B13" t="s">
         <v>1948</v>
@@ -39567,25 +39552,25 @@
         <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>2508</v>
+        <v>2474</v>
       </c>
       <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="I13" t="s">
         <v>1948</v>
       </c>
       <c r="J13" t="s">
-        <v>2509</v>
+        <v>2476</v>
       </c>
       <c r="K13" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>2481</v>
+        <v>2477</v>
       </c>
       <c r="B14" t="s">
         <v>1948</v>
@@ -39600,25 +39585,25 @@
         <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>2510</v>
+        <v>2478</v>
       </c>
       <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>2510</v>
+        <v>2507</v>
       </c>
       <c r="I14" t="s">
         <v>1948</v>
       </c>
       <c r="J14" t="s">
-        <v>2511</v>
+        <v>2480</v>
       </c>
       <c r="K14" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="B15" t="s">
         <v>1948</v>
@@ -39633,25 +39618,25 @@
         <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>2512</v>
+        <v>2482</v>
       </c>
       <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="I15" t="s">
         <v>1948</v>
       </c>
       <c r="J15" t="s">
-        <v>2513</v>
+        <v>2484</v>
       </c>
       <c r="K15" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>2489</v>
+        <v>2485</v>
       </c>
       <c r="B16" t="s">
         <v>1948</v>
@@ -39666,17 +39651,17 @@
         <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>2490</v>
+        <v>2486</v>
       </c>
       <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>2514</v>
+        <v>2509</v>
       </c>
       <c r="I16" t="s">
         <v>1948</v>
       </c>
       <c r="J16" t="s">
-        <v>2492</v>
+        <v>2488</v>
       </c>
       <c r="K16" t="s">
         <v>1951</v>
@@ -39684,7 +39669,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
       <c r="B17" t="s">
         <v>1948</v>
@@ -39699,25 +39684,25 @@
         <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>2515</v>
+        <v>2510</v>
       </c>
       <c r="I17" t="s">
         <v>1948</v>
       </c>
       <c r="J17" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="K17" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="B18" t="s">
         <v>1948</v>
@@ -39732,25 +39717,25 @@
         <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>2479</v>
+        <v>2503</v>
       </c>
       <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>2516</v>
+        <v>2511</v>
       </c>
       <c r="I18" t="s">
         <v>1948</v>
       </c>
       <c r="J18" t="s">
-        <v>2480</v>
+        <v>2504</v>
       </c>
       <c r="K18" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>2517</v>
+        <v>2512</v>
       </c>
       <c r="B19" t="s">
         <v>2013</v>
@@ -39765,17 +39750,17 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>2518</v>
+        <v>2513</v>
       </c>
       <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>2519</v>
+        <v>2514</v>
       </c>
       <c r="I19" t="s">
         <v>2015</v>
       </c>
       <c r="J19" t="s">
-        <v>2520</v>
+        <v>2515</v>
       </c>
       <c r="K19" t="s">
         <v>2017</v>
@@ -39783,7 +39768,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>2521</v>
+        <v>2516</v>
       </c>
       <c r="B20" t="s">
         <v>2013</v>
@@ -39798,17 +39783,17 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>2522</v>
+        <v>2517</v>
       </c>
       <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>2522</v>
+        <v>2517</v>
       </c>
       <c r="I20" t="s">
         <v>2015</v>
       </c>
       <c r="J20" t="s">
-        <v>2523</v>
+        <v>2518</v>
       </c>
       <c r="K20" t="s">
         <v>2017</v>
@@ -39816,7 +39801,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>2521</v>
+        <v>2516</v>
       </c>
       <c r="B21" t="s">
         <v>2013</v>
@@ -39831,17 +39816,17 @@
         <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>2522</v>
+        <v>2517</v>
       </c>
       <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>2524</v>
+        <v>2519</v>
       </c>
       <c r="I21" t="s">
         <v>2015</v>
       </c>
       <c r="J21" t="s">
-        <v>2523</v>
+        <v>2518</v>
       </c>
       <c r="K21" t="s">
         <v>2017</v>
@@ -39864,17 +39849,17 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="I22" t="s">
         <v>130</v>
       </c>
       <c r="J22" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="K22" t="s">
         <v>257</v>
@@ -39882,7 +39867,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="B23" t="s">
         <v>1933</v>
@@ -39897,25 +39882,25 @@
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>2528</v>
+        <v>2523</v>
       </c>
       <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="I23" t="s">
         <v>1936</v>
       </c>
       <c r="J23" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="K23" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="B24" t="s">
         <v>1933</v>
@@ -39930,25 +39915,25 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="I24" t="s">
         <v>1936</v>
       </c>
       <c r="J24" t="s">
-        <v>2534</v>
+        <v>2529</v>
       </c>
       <c r="K24" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>2535</v>
+        <v>2530</v>
       </c>
       <c r="B25" t="s">
         <v>1933</v>
@@ -39963,25 +39948,25 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>2536</v>
+        <v>2531</v>
       </c>
       <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>2537</v>
+        <v>2532</v>
       </c>
       <c r="I25" t="s">
         <v>1936</v>
       </c>
       <c r="J25" t="s">
-        <v>2538</v>
+        <v>2533</v>
       </c>
       <c r="K25" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>2539</v>
+        <v>2534</v>
       </c>
       <c r="B26" t="s">
         <v>1933</v>
@@ -39996,25 +39981,25 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>2540</v>
+        <v>2535</v>
       </c>
       <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>2541</v>
+        <v>2536</v>
       </c>
       <c r="I26" t="s">
         <v>1936</v>
       </c>
       <c r="J26" t="s">
-        <v>2542</v>
+        <v>2537</v>
       </c>
       <c r="K26" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>2543</v>
+        <v>2538</v>
       </c>
       <c r="B27" t="s">
         <v>1933</v>
@@ -40029,25 +40014,25 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>2544</v>
+        <v>2539</v>
       </c>
       <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>2545</v>
+        <v>2540</v>
       </c>
       <c r="I27" t="s">
         <v>1936</v>
       </c>
       <c r="J27" t="s">
-        <v>2546</v>
+        <v>2541</v>
       </c>
       <c r="K27" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>2547</v>
+        <v>2542</v>
       </c>
       <c r="B28" t="s">
         <v>1933</v>
@@ -40062,7 +40047,7 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>2548</v>
+        <v>2543</v>
       </c>
       <c r="G28" t="s"/>
       <c r="H28" t="s">
@@ -40072,15 +40057,15 @@
         <v>1936</v>
       </c>
       <c r="J28" t="s">
-        <v>2549</v>
+        <v>2544</v>
       </c>
       <c r="K28" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>2550</v>
+        <v>2545</v>
       </c>
       <c r="B29" t="s">
         <v>1933</v>
@@ -40095,25 +40080,25 @@
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>2551</v>
+        <v>2546</v>
       </c>
       <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>2551</v>
+        <v>2546</v>
       </c>
       <c r="I29" t="s">
         <v>1936</v>
       </c>
       <c r="J29" t="s">
-        <v>2552</v>
+        <v>2547</v>
       </c>
       <c r="K29" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>2553</v>
+        <v>2548</v>
       </c>
       <c r="B30" t="s">
         <v>1933</v>
@@ -40128,25 +40113,25 @@
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>2554</v>
+        <v>2549</v>
       </c>
       <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>2555</v>
+        <v>2550</v>
       </c>
       <c r="I30" t="s">
         <v>1936</v>
       </c>
       <c r="J30" t="s">
-        <v>2556</v>
+        <v>2551</v>
       </c>
       <c r="K30" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>2557</v>
+        <v>2552</v>
       </c>
       <c r="B31" t="s">
         <v>1933</v>
@@ -40161,25 +40146,25 @@
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>2558</v>
+        <v>2553</v>
       </c>
       <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>2559</v>
+        <v>2554</v>
       </c>
       <c r="I31" t="s">
         <v>1936</v>
       </c>
       <c r="J31" t="s">
-        <v>2560</v>
+        <v>2555</v>
       </c>
       <c r="K31" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>2561</v>
+        <v>2556</v>
       </c>
       <c r="B32" t="s">
         <v>1933</v>
@@ -40194,25 +40179,25 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>2562</v>
+        <v>2557</v>
       </c>
       <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>2562</v>
+        <v>2557</v>
       </c>
       <c r="I32" t="s">
         <v>1936</v>
       </c>
       <c r="J32" t="s">
-        <v>2563</v>
+        <v>2558</v>
       </c>
       <c r="K32" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>2564</v>
+        <v>2559</v>
       </c>
       <c r="B33" t="s">
         <v>1933</v>
@@ -40233,7 +40218,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>2565</v>
+        <v>2560</v>
       </c>
       <c r="B34" t="s">
         <v>1933</v>
@@ -40254,7 +40239,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>2566</v>
+        <v>2561</v>
       </c>
       <c r="B35" t="s">
         <v>1933</v>
@@ -40269,25 +40254,25 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>2567</v>
+        <v>2562</v>
       </c>
       <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>2567</v>
+        <v>2562</v>
       </c>
       <c r="I35" t="s">
         <v>1936</v>
       </c>
       <c r="J35" t="s">
-        <v>2568</v>
+        <v>2563</v>
       </c>
       <c r="K35" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>2569</v>
+        <v>2564</v>
       </c>
       <c r="B36" t="s">
         <v>1933</v>
@@ -40302,25 +40287,25 @@
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>2570</v>
+        <v>2565</v>
       </c>
       <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>2571</v>
+        <v>2566</v>
       </c>
       <c r="I36" t="s">
         <v>1936</v>
       </c>
       <c r="J36" t="s">
-        <v>2572</v>
+        <v>2567</v>
       </c>
       <c r="K36" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>2573</v>
+        <v>2568</v>
       </c>
       <c r="B37" t="s">
         <v>1933</v>
@@ -40335,25 +40320,25 @@
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>2574</v>
+        <v>2569</v>
       </c>
       <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="I37" t="s">
         <v>1936</v>
       </c>
       <c r="J37" t="s">
-        <v>2575</v>
+        <v>2570</v>
       </c>
       <c r="K37" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="B38" t="s">
         <v>1933</v>
@@ -40368,25 +40353,25 @@
         <v>94</v>
       </c>
       <c r="F38" t="s">
-        <v>2528</v>
+        <v>2523</v>
       </c>
       <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>2576</v>
+        <v>2571</v>
       </c>
       <c r="I38" t="s">
         <v>1936</v>
       </c>
       <c r="J38" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="K38" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="B39" t="s">
         <v>1933</v>
@@ -40401,25 +40386,25 @@
         <v>94</v>
       </c>
       <c r="F39" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>2577</v>
+        <v>2572</v>
       </c>
       <c r="I39" t="s">
         <v>1936</v>
       </c>
       <c r="J39" t="s">
-        <v>2534</v>
+        <v>2529</v>
       </c>
       <c r="K39" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>2535</v>
+        <v>2530</v>
       </c>
       <c r="B40" t="s">
         <v>1933</v>
@@ -40434,25 +40419,25 @@
         <v>94</v>
       </c>
       <c r="F40" t="s">
-        <v>2536</v>
+        <v>2531</v>
       </c>
       <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>2578</v>
+        <v>2573</v>
       </c>
       <c r="I40" t="s">
         <v>1936</v>
       </c>
       <c r="J40" t="s">
-        <v>2538</v>
+        <v>2533</v>
       </c>
       <c r="K40" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>2539</v>
+        <v>2534</v>
       </c>
       <c r="B41" t="s">
         <v>1933</v>
@@ -40467,25 +40452,25 @@
         <v>94</v>
       </c>
       <c r="F41" t="s">
-        <v>2540</v>
+        <v>2535</v>
       </c>
       <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>2579</v>
+        <v>2574</v>
       </c>
       <c r="I41" t="s">
         <v>1936</v>
       </c>
       <c r="J41" t="s">
-        <v>2542</v>
+        <v>2537</v>
       </c>
       <c r="K41" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>2580</v>
+        <v>2575</v>
       </c>
       <c r="B42" t="s">
         <v>1933</v>
@@ -40500,7 +40485,7 @@
         <v>94</v>
       </c>
       <c r="F42" t="s">
-        <v>2581</v>
+        <v>2576</v>
       </c>
       <c r="G42" t="s"/>
       <c r="H42" t="s"/>
@@ -40508,15 +40493,15 @@
         <v>1936</v>
       </c>
       <c r="J42" t="s">
-        <v>2582</v>
+        <v>2577</v>
       </c>
       <c r="K42" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>2543</v>
+        <v>2538</v>
       </c>
       <c r="B43" t="s">
         <v>1933</v>
@@ -40531,25 +40516,25 @@
         <v>94</v>
       </c>
       <c r="F43" t="s">
-        <v>2544</v>
+        <v>2539</v>
       </c>
       <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>2583</v>
+        <v>2578</v>
       </c>
       <c r="I43" t="s">
         <v>1936</v>
       </c>
       <c r="J43" t="s">
-        <v>2546</v>
+        <v>2541</v>
       </c>
       <c r="K43" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>2547</v>
+        <v>2542</v>
       </c>
       <c r="B44" t="s">
         <v>1933</v>
@@ -40564,25 +40549,25 @@
         <v>94</v>
       </c>
       <c r="F44" t="s">
-        <v>2548</v>
+        <v>2543</v>
       </c>
       <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="I44" t="s">
         <v>1936</v>
       </c>
       <c r="J44" t="s">
-        <v>2549</v>
+        <v>2544</v>
       </c>
       <c r="K44" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>2550</v>
+        <v>2545</v>
       </c>
       <c r="B45" t="s">
         <v>1933</v>
@@ -40597,25 +40582,25 @@
         <v>94</v>
       </c>
       <c r="F45" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="I45" t="s">
         <v>1936</v>
       </c>
       <c r="J45" t="s">
-        <v>2552</v>
+        <v>2547</v>
       </c>
       <c r="K45" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>2586</v>
+        <v>2581</v>
       </c>
       <c r="B46" t="s">
         <v>1933</v>
@@ -40630,25 +40615,25 @@
         <v>94</v>
       </c>
       <c r="F46" t="s">
-        <v>2587</v>
+        <v>2582</v>
       </c>
       <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>2588</v>
+        <v>2583</v>
       </c>
       <c r="I46" t="s">
         <v>1936</v>
       </c>
       <c r="J46" t="s">
-        <v>2589</v>
+        <v>2584</v>
       </c>
       <c r="K46" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>2590</v>
+        <v>2585</v>
       </c>
       <c r="B47" t="s">
         <v>1933</v>
@@ -40663,25 +40648,25 @@
         <v>94</v>
       </c>
       <c r="F47" t="s">
-        <v>2591</v>
+        <v>2586</v>
       </c>
       <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>2592</v>
+        <v>2587</v>
       </c>
       <c r="I47" t="s">
         <v>1936</v>
       </c>
       <c r="J47" t="s">
-        <v>2593</v>
+        <v>2588</v>
       </c>
       <c r="K47" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>2594</v>
+        <v>2589</v>
       </c>
       <c r="B48" t="s">
         <v>1933</v>
@@ -40696,25 +40681,25 @@
         <v>94</v>
       </c>
       <c r="F48" t="s">
-        <v>2595</v>
+        <v>2590</v>
       </c>
       <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>2596</v>
+        <v>2591</v>
       </c>
       <c r="I48" t="s">
         <v>1936</v>
       </c>
       <c r="J48" t="s">
-        <v>2597</v>
+        <v>2592</v>
       </c>
       <c r="K48" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>2598</v>
+        <v>2593</v>
       </c>
       <c r="B49" t="s">
         <v>1933</v>
@@ -40729,25 +40714,25 @@
         <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>2599</v>
+        <v>2594</v>
       </c>
       <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>2600</v>
+        <v>2595</v>
       </c>
       <c r="I49" t="s">
         <v>1936</v>
       </c>
       <c r="J49" t="s">
-        <v>2601</v>
+        <v>2596</v>
       </c>
       <c r="K49" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>2602</v>
+        <v>2597</v>
       </c>
       <c r="B50" t="s">
         <v>1933</v>
@@ -40762,25 +40747,25 @@
         <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>2603</v>
+        <v>2598</v>
       </c>
       <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>2604</v>
+        <v>2599</v>
       </c>
       <c r="I50" t="s">
         <v>1936</v>
       </c>
       <c r="J50" t="s">
-        <v>2605</v>
+        <v>2600</v>
       </c>
       <c r="K50" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>2606</v>
+        <v>2601</v>
       </c>
       <c r="B51" t="s">
         <v>1933</v>
@@ -40795,25 +40780,25 @@
         <v>94</v>
       </c>
       <c r="F51" t="s">
-        <v>2607</v>
+        <v>2602</v>
       </c>
       <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>2608</v>
+        <v>2603</v>
       </c>
       <c r="I51" t="s">
         <v>1936</v>
       </c>
       <c r="J51" t="s">
-        <v>2609</v>
+        <v>2604</v>
       </c>
       <c r="K51" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>2610</v>
+        <v>2605</v>
       </c>
       <c r="B52" t="s">
         <v>1933</v>
@@ -40828,25 +40813,25 @@
         <v>94</v>
       </c>
       <c r="F52" t="s">
-        <v>2611</v>
+        <v>2606</v>
       </c>
       <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>2612</v>
+        <v>2607</v>
       </c>
       <c r="I52" t="s">
         <v>1936</v>
       </c>
       <c r="J52" t="s">
-        <v>2613</v>
+        <v>2608</v>
       </c>
       <c r="K52" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>2614</v>
+        <v>2609</v>
       </c>
       <c r="B53" t="s">
         <v>1933</v>
@@ -40861,25 +40846,25 @@
         <v>94</v>
       </c>
       <c r="F53" t="s">
-        <v>2615</v>
+        <v>2610</v>
       </c>
       <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>2616</v>
+        <v>2611</v>
       </c>
       <c r="I53" t="s">
         <v>1936</v>
       </c>
       <c r="J53" t="s">
-        <v>2617</v>
+        <v>2612</v>
       </c>
       <c r="K53" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>2618</v>
+        <v>2613</v>
       </c>
       <c r="B54" t="s">
         <v>1933</v>
@@ -40894,25 +40879,25 @@
         <v>94</v>
       </c>
       <c r="F54" t="s">
-        <v>2619</v>
+        <v>2614</v>
       </c>
       <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>2620</v>
+        <v>2615</v>
       </c>
       <c r="I54" t="s">
         <v>1936</v>
       </c>
       <c r="J54" t="s">
-        <v>2621</v>
+        <v>2616</v>
       </c>
       <c r="K54" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>2622</v>
+        <v>2617</v>
       </c>
       <c r="B55" t="s">
         <v>1933</v>
@@ -40927,25 +40912,25 @@
         <v>94</v>
       </c>
       <c r="F55" t="s">
-        <v>2623</v>
+        <v>2618</v>
       </c>
       <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>2624</v>
+        <v>2619</v>
       </c>
       <c r="I55" t="s">
         <v>1936</v>
       </c>
       <c r="J55" t="s">
-        <v>2625</v>
+        <v>2620</v>
       </c>
       <c r="K55" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>2626</v>
+        <v>2621</v>
       </c>
       <c r="B56" t="s">
         <v>1933</v>
@@ -40960,25 +40945,25 @@
         <v>94</v>
       </c>
       <c r="F56" t="s">
-        <v>2627</v>
+        <v>2622</v>
       </c>
       <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>2628</v>
+        <v>2623</v>
       </c>
       <c r="I56" t="s">
         <v>1936</v>
       </c>
       <c r="J56" t="s">
-        <v>2629</v>
+        <v>2624</v>
       </c>
       <c r="K56" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>2630</v>
+        <v>2625</v>
       </c>
       <c r="B57" t="s">
         <v>1933</v>
@@ -40993,25 +40978,25 @@
         <v>94</v>
       </c>
       <c r="F57" t="s">
-        <v>2631</v>
+        <v>2626</v>
       </c>
       <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>2632</v>
+        <v>2627</v>
       </c>
       <c r="I57" t="s">
         <v>1936</v>
       </c>
       <c r="J57" t="s">
-        <v>2633</v>
+        <v>2628</v>
       </c>
       <c r="K57" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>2634</v>
+        <v>2629</v>
       </c>
       <c r="B58" t="s">
         <v>1933</v>
@@ -41026,25 +41011,25 @@
         <v>94</v>
       </c>
       <c r="F58" t="s">
-        <v>2603</v>
+        <v>2598</v>
       </c>
       <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>2604</v>
+        <v>2599</v>
       </c>
       <c r="I58" t="s">
         <v>1936</v>
       </c>
       <c r="J58" t="s">
-        <v>2605</v>
+        <v>2600</v>
       </c>
       <c r="K58" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>2635</v>
+        <v>2630</v>
       </c>
       <c r="B59" t="s">
         <v>1933</v>
@@ -41059,25 +41044,25 @@
         <v>94</v>
       </c>
       <c r="F59" t="s">
-        <v>2636</v>
+        <v>2631</v>
       </c>
       <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>2637</v>
+        <v>2632</v>
       </c>
       <c r="I59" t="s">
         <v>1936</v>
       </c>
       <c r="J59" t="s">
-        <v>2638</v>
+        <v>2633</v>
       </c>
       <c r="K59" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>2639</v>
+        <v>2634</v>
       </c>
       <c r="B60" t="s">
         <v>1933</v>
@@ -41092,25 +41077,25 @@
         <v>94</v>
       </c>
       <c r="F60" t="s">
-        <v>2640</v>
+        <v>2635</v>
       </c>
       <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>2641</v>
+        <v>2636</v>
       </c>
       <c r="I60" t="s">
         <v>1936</v>
       </c>
       <c r="J60" t="s">
-        <v>2642</v>
+        <v>2637</v>
       </c>
       <c r="K60" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>2569</v>
+        <v>2564</v>
       </c>
       <c r="B61" t="s">
         <v>1933</v>
@@ -41125,25 +41110,25 @@
         <v>94</v>
       </c>
       <c r="F61" t="s">
-        <v>2570</v>
+        <v>2565</v>
       </c>
       <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>2643</v>
+        <v>2638</v>
       </c>
       <c r="I61" t="s">
         <v>1936</v>
       </c>
       <c r="J61" t="s">
-        <v>2572</v>
+        <v>2567</v>
       </c>
       <c r="K61" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>2644</v>
+        <v>2639</v>
       </c>
       <c r="B62" t="s">
         <v>1933</v>
@@ -41158,25 +41143,25 @@
         <v>94</v>
       </c>
       <c r="F62" t="s">
-        <v>2645</v>
+        <v>2640</v>
       </c>
       <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>2646</v>
+        <v>2641</v>
       </c>
       <c r="I62" t="s">
         <v>1936</v>
       </c>
       <c r="J62" t="s">
-        <v>2647</v>
+        <v>2642</v>
       </c>
       <c r="K62" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>2648</v>
+        <v>2643</v>
       </c>
       <c r="B63" t="s">
         <v>1933</v>
@@ -41191,25 +41176,25 @@
         <v>94</v>
       </c>
       <c r="F63" t="s">
-        <v>2603</v>
+        <v>2598</v>
       </c>
       <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>2604</v>
+        <v>2599</v>
       </c>
       <c r="I63" t="s">
         <v>1936</v>
       </c>
       <c r="J63" t="s">
-        <v>2605</v>
+        <v>2600</v>
       </c>
       <c r="K63" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>2649</v>
+        <v>2644</v>
       </c>
       <c r="B64" t="s">
         <v>1933</v>
@@ -41224,25 +41209,25 @@
         <v>94</v>
       </c>
       <c r="F64" t="s">
-        <v>2650</v>
+        <v>2645</v>
       </c>
       <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>2650</v>
+        <v>2645</v>
       </c>
       <c r="I64" t="s">
         <v>1936</v>
       </c>
       <c r="J64" t="s">
-        <v>2651</v>
+        <v>2646</v>
       </c>
       <c r="K64" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>2573</v>
+        <v>2568</v>
       </c>
       <c r="B65" t="s">
         <v>1933</v>
@@ -41257,28 +41242,28 @@
         <v>94</v>
       </c>
       <c r="F65" t="s">
-        <v>2574</v>
+        <v>2569</v>
       </c>
       <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>2652</v>
+        <v>2647</v>
       </c>
       <c r="I65" t="s">
         <v>1936</v>
       </c>
       <c r="J65" t="s">
-        <v>2575</v>
+        <v>2570</v>
       </c>
       <c r="K65" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>2565</v>
+        <v>2560</v>
       </c>
       <c r="B66" t="s">
-        <v>2653</v>
+        <v>2648</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
